--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -2084,10 +2084,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>CB10001</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>数値バリデーション（整数）</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -2121,6 +2117,10 @@
       </rPr>
       <t>ndustry_code</t>
     </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>C0100001</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3447,15 +3447,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3495,15 +3624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3513,135 +3633,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3669,41 +3705,26 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3711,26 +3732,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3741,14 +3779,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3762,12 +3800,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3776,63 +3808,99 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3857,107 +3925,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3983,17 +3968,32 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -9708,57 +9708,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="185" t="s">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9766,53 +9766,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="143" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9820,43 +9820,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9995,52 +9995,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="166"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="165"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10051,52 +10051,52 @@
       <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162">
+      <c r="C8" s="168"/>
+      <c r="D8" s="169">
         <v>43718</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="160" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="170" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="166" t="s">
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="168"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -10105,40 +10105,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -10147,40 +10147,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -10189,40 +10189,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -10231,40 +10231,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -10273,40 +10273,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="92"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -10315,40 +10315,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="92"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -10357,40 +10357,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="92"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -10399,40 +10399,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -10441,40 +10441,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="92"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -10483,40 +10483,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="92"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -10525,40 +10525,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -10567,40 +10567,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="92"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -10609,40 +10609,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="92"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -10651,40 +10651,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="92"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -10693,40 +10693,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -10735,40 +10735,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -10777,40 +10777,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -10819,40 +10819,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -10861,40 +10861,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -10903,40 +10903,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -10945,40 +10945,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="92"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -10987,40 +10987,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="92"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11029,40 +11029,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="92"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -11071,40 +11071,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="92"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -11113,40 +11113,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="92"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -11239,6 +11239,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11263,161 +11418,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11572,157 +11572,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13022,12 +13022,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13039,6 +13033,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13067,157 +13067,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -13248,146 +13248,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="223" t="s">
+      <c r="D17" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223" t="s">
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
-      <c r="AA17" s="223"/>
-      <c r="AB17" s="223"/>
-      <c r="AC17" s="223"/>
-      <c r="AD17" s="223"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="223"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="224"/>
+      <c r="AE17" s="224"/>
+      <c r="AF17" s="224"/>
+      <c r="AG17" s="224"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
-      <c r="X18" s="224"/>
-      <c r="Y18" s="224"/>
-      <c r="Z18" s="224"/>
-      <c r="AA18" s="224"/>
-      <c r="AB18" s="224"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="224"/>
-      <c r="AE18" s="224"/>
-      <c r="AF18" s="224"/>
-      <c r="AG18" s="224"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="221"/>
+      <c r="AG18" s="221"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="222" t="s">
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="221"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="221"/>
-      <c r="AF19" s="221"/>
-      <c r="AG19" s="221"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="228"/>
+      <c r="R19" s="228"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="228"/>
+      <c r="U19" s="228"/>
+      <c r="V19" s="228"/>
+      <c r="W19" s="228"/>
+      <c r="X19" s="228"/>
+      <c r="Y19" s="228"/>
+      <c r="Z19" s="228"/>
+      <c r="AA19" s="228"/>
+      <c r="AB19" s="228"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="228"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="226" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="225"/>
-      <c r="T20" s="225"/>
-      <c r="U20" s="225"/>
-      <c r="V20" s="225"/>
-      <c r="W20" s="225"/>
-      <c r="X20" s="225"/>
-      <c r="Y20" s="225"/>
-      <c r="Z20" s="225"/>
-      <c r="AA20" s="225"/>
-      <c r="AB20" s="225"/>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="225"/>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="225"/>
-      <c r="AG20" s="225"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="226"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="226"/>
+      <c r="Y20" s="226"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="226"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="226"/>
+      <c r="AF20" s="226"/>
+      <c r="AG20" s="226"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -13395,148 +13395,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="223" t="s">
+      <c r="D24" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223" t="s">
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="223"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="223"/>
-      <c r="AB24" s="223"/>
-      <c r="AC24" s="223"/>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="223"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="224"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="224"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="224" t="s">
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="224"/>
-      <c r="AE25" s="224"/>
-      <c r="AF25" s="224"/>
-      <c r="AG25" s="224"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="221"/>
+      <c r="AG25" s="221"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224" t="s">
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
-      <c r="AB26" s="224"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="224"/>
-      <c r="AF26" s="224"/>
-      <c r="AG26" s="224"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="221"/>
+      <c r="AG26" s="221"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224" t="s">
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="224"/>
-      <c r="AF27" s="224"/>
-      <c r="AG27" s="224"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="221"/>
+      <c r="AG27" s="221"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -13544,216 +13544,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="223" t="s">
+      <c r="D31" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223" t="s">
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="223"/>
-      <c r="U31" s="223"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="223"/>
-      <c r="X31" s="223"/>
-      <c r="Y31" s="223"/>
-      <c r="Z31" s="223"/>
-      <c r="AA31" s="223"/>
-      <c r="AB31" s="223"/>
-      <c r="AC31" s="223"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="223"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="224"/>
+      <c r="R31" s="224"/>
+      <c r="S31" s="224"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="224"/>
+      <c r="Z31" s="224"/>
+      <c r="AA31" s="224"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="224"/>
+      <c r="AD31" s="224"/>
+      <c r="AE31" s="224"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="224"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="227" t="s">
+      <c r="D32" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227" t="s">
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="227"/>
-      <c r="AF32" s="227"/>
-      <c r="AG32" s="227"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="225"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="225"/>
+      <c r="T32" s="225"/>
+      <c r="U32" s="225"/>
+      <c r="V32" s="225"/>
+      <c r="W32" s="225"/>
+      <c r="X32" s="225"/>
+      <c r="Y32" s="225"/>
+      <c r="Z32" s="225"/>
+      <c r="AA32" s="225"/>
+      <c r="AB32" s="225"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="225"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="228" t="s">
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
+      <c r="L33" s="222"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222"/>
+      <c r="O33" s="222"/>
+      <c r="P33" s="222"/>
+      <c r="Q33" s="222"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="222"/>
+      <c r="AG33" s="222"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="227" t="s">
+      <c r="D34" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227" t="s">
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="227"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="227"/>
-      <c r="R34" s="227"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="227"/>
-      <c r="U34" s="227"/>
-      <c r="V34" s="227"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="227"/>
-      <c r="AA34" s="227"/>
-      <c r="AB34" s="227"/>
-      <c r="AC34" s="227"/>
-      <c r="AD34" s="227"/>
-      <c r="AE34" s="227"/>
-      <c r="AF34" s="227"/>
-      <c r="AG34" s="227"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
+      <c r="Q34" s="225"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="225"/>
+      <c r="T34" s="225"/>
+      <c r="U34" s="225"/>
+      <c r="V34" s="225"/>
+      <c r="W34" s="225"/>
+      <c r="X34" s="225"/>
+      <c r="Y34" s="225"/>
+      <c r="Z34" s="225"/>
+      <c r="AA34" s="225"/>
+      <c r="AB34" s="225"/>
+      <c r="AC34" s="225"/>
+      <c r="AD34" s="225"/>
+      <c r="AE34" s="225"/>
+      <c r="AF34" s="225"/>
+      <c r="AG34" s="225"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="228" t="s">
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="222"/>
+      <c r="J35" s="222"/>
+      <c r="K35" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
-      <c r="O35" s="228"/>
-      <c r="P35" s="228"/>
-      <c r="Q35" s="228"/>
-      <c r="R35" s="228"/>
-      <c r="S35" s="228"/>
-      <c r="T35" s="228"/>
-      <c r="U35" s="228"/>
-      <c r="V35" s="228"/>
-      <c r="W35" s="228"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="228"/>
-      <c r="AA35" s="228"/>
-      <c r="AB35" s="228"/>
-      <c r="AC35" s="228"/>
-      <c r="AD35" s="228"/>
-      <c r="AE35" s="228"/>
-      <c r="AF35" s="228"/>
-      <c r="AG35" s="228"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
+      <c r="N35" s="222"/>
+      <c r="O35" s="222"/>
+      <c r="P35" s="222"/>
+      <c r="Q35" s="222"/>
+      <c r="R35" s="222"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="222"/>
+      <c r="U35" s="222"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="222"/>
+      <c r="X35" s="222"/>
+      <c r="Y35" s="222"/>
+      <c r="Z35" s="222"/>
+      <c r="AA35" s="222"/>
+      <c r="AB35" s="222"/>
+      <c r="AC35" s="222"/>
+      <c r="AD35" s="222"/>
+      <c r="AE35" s="222"/>
+      <c r="AF35" s="222"/>
+      <c r="AG35" s="222"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="229" t="s">
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="229"/>
-      <c r="O36" s="229"/>
-      <c r="P36" s="229"/>
-      <c r="Q36" s="229"/>
-      <c r="R36" s="229"/>
-      <c r="S36" s="229"/>
-      <c r="T36" s="229"/>
-      <c r="U36" s="229"/>
-      <c r="V36" s="229"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="229"/>
-      <c r="Y36" s="229"/>
-      <c r="Z36" s="229"/>
-      <c r="AA36" s="229"/>
-      <c r="AB36" s="229"/>
-      <c r="AC36" s="229"/>
-      <c r="AD36" s="229"/>
-      <c r="AE36" s="229"/>
-      <c r="AF36" s="229"/>
-      <c r="AG36" s="229"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="223"/>
+      <c r="O36" s="223"/>
+      <c r="P36" s="223"/>
+      <c r="Q36" s="223"/>
+      <c r="R36" s="223"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="223"/>
+      <c r="V36" s="223"/>
+      <c r="W36" s="223"/>
+      <c r="X36" s="223"/>
+      <c r="Y36" s="223"/>
+      <c r="Z36" s="223"/>
+      <c r="AA36" s="223"/>
+      <c r="AB36" s="223"/>
+      <c r="AC36" s="223"/>
+      <c r="AD36" s="223"/>
+      <c r="AE36" s="223"/>
+      <c r="AF36" s="223"/>
+      <c r="AG36" s="223"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="93"/>
@@ -13793,76 +13793,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223" t="s">
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="223"/>
-      <c r="P40" s="223"/>
-      <c r="Q40" s="223"/>
-      <c r="R40" s="223"/>
-      <c r="S40" s="223"/>
-      <c r="T40" s="223"/>
-      <c r="U40" s="223"/>
-      <c r="V40" s="223"/>
-      <c r="W40" s="223"/>
-      <c r="X40" s="223"/>
-      <c r="Y40" s="223"/>
-      <c r="Z40" s="223"/>
-      <c r="AA40" s="223"/>
-      <c r="AB40" s="223"/>
-      <c r="AC40" s="223"/>
-      <c r="AD40" s="223"/>
-      <c r="AE40" s="223"/>
-      <c r="AF40" s="223"/>
-      <c r="AG40" s="223"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="224"/>
+      <c r="P40" s="224"/>
+      <c r="Q40" s="224"/>
+      <c r="R40" s="224"/>
+      <c r="S40" s="224"/>
+      <c r="T40" s="224"/>
+      <c r="U40" s="224"/>
+      <c r="V40" s="224"/>
+      <c r="W40" s="224"/>
+      <c r="X40" s="224"/>
+      <c r="Y40" s="224"/>
+      <c r="Z40" s="224"/>
+      <c r="AA40" s="224"/>
+      <c r="AB40" s="224"/>
+      <c r="AC40" s="224"/>
+      <c r="AD40" s="224"/>
+      <c r="AE40" s="224"/>
+      <c r="AF40" s="224"/>
+      <c r="AG40" s="224"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="224" t="s">
+      <c r="D41" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="224" t="s">
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="224"/>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="224"/>
-      <c r="P41" s="224"/>
-      <c r="Q41" s="224"/>
-      <c r="R41" s="224"/>
-      <c r="S41" s="224"/>
-      <c r="T41" s="224"/>
-      <c r="U41" s="224"/>
-      <c r="V41" s="224"/>
-      <c r="W41" s="224"/>
-      <c r="X41" s="224"/>
-      <c r="Y41" s="224"/>
-      <c r="Z41" s="224"/>
-      <c r="AA41" s="224"/>
-      <c r="AB41" s="224"/>
-      <c r="AC41" s="224"/>
-      <c r="AD41" s="224"/>
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="224"/>
-      <c r="AG41" s="224"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="221"/>
+      <c r="P41" s="221"/>
+      <c r="Q41" s="221"/>
+      <c r="R41" s="221"/>
+      <c r="S41" s="221"/>
+      <c r="T41" s="221"/>
+      <c r="U41" s="221"/>
+      <c r="V41" s="221"/>
+      <c r="W41" s="221"/>
+      <c r="X41" s="221"/>
+      <c r="Y41" s="221"/>
+      <c r="Z41" s="221"/>
+      <c r="AA41" s="221"/>
+      <c r="AB41" s="221"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -14749,39 +14749,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14798,6 +14765,39 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14821,7 +14821,7 @@
   <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -14836,163 +14836,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -15003,633 +15003,571 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="276" t="s">
+      <c r="A7" s="266" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="278" t="s">
+      <c r="B7" s="268" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="270" t="s">
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="271"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="271"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="256" t="s">
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="256"/>
-      <c r="R7" s="223" t="s">
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="280" t="s">
+      <c r="S7" s="224"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="224"/>
+      <c r="X7" s="271" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="256" t="s">
+      <c r="Y7" s="272"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="273"/>
+      <c r="AD7" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="270"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="257" t="s">
+      <c r="AL7" s="274" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" s="258"/>
-      <c r="AN7" s="258"/>
-      <c r="AO7" s="258"/>
-      <c r="AP7" s="258"/>
-      <c r="AQ7" s="258"/>
-      <c r="AR7" s="258"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
-      <c r="AX7" s="257" t="s">
+      <c r="AM7" s="275"/>
+      <c r="AN7" s="275"/>
+      <c r="AO7" s="275"/>
+      <c r="AP7" s="275"/>
+      <c r="AQ7" s="275"/>
+      <c r="AR7" s="275"/>
+      <c r="AS7" s="275"/>
+      <c r="AT7" s="275"/>
+      <c r="AU7" s="275"/>
+      <c r="AV7" s="275"/>
+      <c r="AW7" s="275"/>
+      <c r="AX7" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="258"/>
-      <c r="AZ7" s="258"/>
-      <c r="BA7" s="258"/>
-      <c r="BB7" s="258"/>
-      <c r="BC7" s="259" t="s">
+      <c r="AY7" s="275"/>
+      <c r="AZ7" s="275"/>
+      <c r="BA7" s="275"/>
+      <c r="BB7" s="275"/>
+      <c r="BC7" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="260"/>
-      <c r="BE7" s="260"/>
-      <c r="BF7" s="260"/>
-      <c r="BG7" s="261"/>
-      <c r="BH7" s="258" t="s">
+      <c r="BD7" s="278"/>
+      <c r="BE7" s="278"/>
+      <c r="BF7" s="278"/>
+      <c r="BG7" s="279"/>
+      <c r="BH7" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="258"/>
-      <c r="BJ7" s="258"/>
-      <c r="BK7" s="258"/>
-      <c r="BL7" s="258"/>
-      <c r="BM7" s="258"/>
-      <c r="BN7" s="258"/>
+      <c r="BI7" s="275"/>
+      <c r="BJ7" s="275"/>
+      <c r="BK7" s="275"/>
+      <c r="BL7" s="275"/>
+      <c r="BM7" s="275"/>
+      <c r="BN7" s="275"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="277"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="274"/>
-      <c r="I8" s="274"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="274"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="279" t="s">
+      <c r="A8" s="267"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266" t="s">
+      <c r="S8" s="259"/>
+      <c r="T8" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="266"/>
-      <c r="V8" s="268" t="s">
+      <c r="U8" s="259"/>
+      <c r="V8" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="267"/>
-      <c r="X8" s="269" t="s">
+      <c r="W8" s="257"/>
+      <c r="X8" s="258" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="266"/>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="265" t="s">
+      <c r="Y8" s="259"/>
+      <c r="Z8" s="259"/>
+      <c r="AA8" s="284" t="s">
         <v>162</v>
       </c>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
+      <c r="AB8" s="259"/>
+      <c r="AC8" s="257"/>
+      <c r="AD8" s="270"/>
+      <c r="AE8" s="270"/>
+      <c r="AF8" s="270"/>
+      <c r="AG8" s="270"/>
+      <c r="AH8" s="270"/>
+      <c r="AI8" s="270"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="258"/>
-      <c r="AM8" s="258"/>
-      <c r="AN8" s="258"/>
-      <c r="AO8" s="258"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="258"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="258"/>
-      <c r="AT8" s="258"/>
-      <c r="AU8" s="258"/>
-      <c r="AV8" s="258"/>
-      <c r="AW8" s="258"/>
-      <c r="AX8" s="258"/>
-      <c r="AY8" s="258"/>
-      <c r="AZ8" s="258"/>
-      <c r="BA8" s="258"/>
-      <c r="BB8" s="258"/>
-      <c r="BC8" s="262"/>
-      <c r="BD8" s="263"/>
-      <c r="BE8" s="263"/>
-      <c r="BF8" s="263"/>
-      <c r="BG8" s="264"/>
-      <c r="BH8" s="258"/>
-      <c r="BI8" s="258"/>
-      <c r="BJ8" s="258"/>
-      <c r="BK8" s="258"/>
-      <c r="BL8" s="258"/>
-      <c r="BM8" s="258"/>
-      <c r="BN8" s="258"/>
+      <c r="AL8" s="275"/>
+      <c r="AM8" s="275"/>
+      <c r="AN8" s="275"/>
+      <c r="AO8" s="275"/>
+      <c r="AP8" s="275"/>
+      <c r="AQ8" s="275"/>
+      <c r="AR8" s="275"/>
+      <c r="AS8" s="275"/>
+      <c r="AT8" s="275"/>
+      <c r="AU8" s="275"/>
+      <c r="AV8" s="275"/>
+      <c r="AW8" s="275"/>
+      <c r="AX8" s="275"/>
+      <c r="AY8" s="275"/>
+      <c r="AZ8" s="275"/>
+      <c r="BA8" s="275"/>
+      <c r="BB8" s="275"/>
+      <c r="BC8" s="280"/>
+      <c r="BD8" s="281"/>
+      <c r="BE8" s="281"/>
+      <c r="BF8" s="281"/>
+      <c r="BG8" s="282"/>
+      <c r="BH8" s="275"/>
+      <c r="BI8" s="275"/>
+      <c r="BJ8" s="275"/>
+      <c r="BK8" s="275"/>
+      <c r="BL8" s="275"/>
+      <c r="BM8" s="275"/>
+      <c r="BN8" s="275"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="233" t="s">
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="239" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="236" t="s">
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="248" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="237"/>
-      <c r="Q9" s="238"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="240"/>
-      <c r="T9" s="241">
+      <c r="P9" s="249"/>
+      <c r="Q9" s="250"/>
+      <c r="R9" s="233"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="251">
         <v>10</v>
       </c>
-      <c r="U9" s="242"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="244"/>
-      <c r="X9" s="249"/>
-      <c r="Y9" s="250"/>
-      <c r="Z9" s="250"/>
-      <c r="AA9" s="250"/>
-      <c r="AB9" s="250"/>
-      <c r="AC9" s="251"/>
-      <c r="AD9" s="252"/>
-      <c r="AE9" s="234"/>
-      <c r="AF9" s="234"/>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="235"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="237"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="254"/>
+      <c r="AB9" s="254"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="240"/>
+      <c r="AF9" s="240"/>
+      <c r="AG9" s="240"/>
+      <c r="AH9" s="240"/>
+      <c r="AI9" s="241"/>
       <c r="AJ9" s="38"/>
-      <c r="AL9" s="247" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM9" s="180"/>
-      <c r="AN9" s="180"/>
-      <c r="AO9" s="180"/>
-      <c r="AP9" s="180"/>
-      <c r="AQ9" s="180"/>
-      <c r="AR9" s="180"/>
-      <c r="AS9" s="180"/>
-      <c r="AT9" s="180"/>
-      <c r="AU9" s="180"/>
-      <c r="AV9" s="180"/>
-      <c r="AW9" s="181"/>
-      <c r="AX9" s="245" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY9" s="246"/>
-      <c r="AZ9" s="246"/>
-      <c r="BA9" s="246"/>
-      <c r="BB9" s="246"/>
-      <c r="BC9" s="247"/>
-      <c r="BD9" s="183"/>
-      <c r="BE9" s="183"/>
-      <c r="BF9" s="183"/>
-      <c r="BG9" s="184"/>
-      <c r="BH9" s="248"/>
-      <c r="BI9" s="248"/>
-      <c r="BJ9" s="248"/>
-      <c r="BK9" s="248"/>
-      <c r="BL9" s="248"/>
-      <c r="BM9" s="248"/>
-      <c r="BN9" s="248"/>
+      <c r="AL9" s="283" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM9" s="136"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="136"/>
+      <c r="AP9" s="136"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="136"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY9" s="232"/>
+      <c r="AZ9" s="232"/>
+      <c r="BA9" s="232"/>
+      <c r="BB9" s="232"/>
+      <c r="BC9" s="283"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="147"/>
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="230"/>
+      <c r="BI9" s="230"/>
+      <c r="BJ9" s="230"/>
+      <c r="BK9" s="230"/>
+      <c r="BL9" s="230"/>
+      <c r="BM9" s="230"/>
+      <c r="BN9" s="230"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="242" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233" t="s">
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="239" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="236" t="s">
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="240"/>
+      <c r="N10" s="241"/>
+      <c r="O10" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="238"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="240"/>
-      <c r="T10" s="241">
+      <c r="P10" s="249"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="251">
         <v>128</v>
       </c>
-      <c r="U10" s="242"/>
-      <c r="V10" s="243"/>
-      <c r="W10" s="244"/>
-      <c r="X10" s="249"/>
-      <c r="Y10" s="250"/>
-      <c r="Z10" s="250"/>
-      <c r="AA10" s="250"/>
-      <c r="AB10" s="250"/>
-      <c r="AC10" s="251"/>
-      <c r="AD10" s="252"/>
-      <c r="AE10" s="234"/>
-      <c r="AF10" s="234"/>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="234"/>
-      <c r="AI10" s="235"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="237"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="276"/>
+      <c r="AD10" s="285"/>
+      <c r="AE10" s="240"/>
+      <c r="AF10" s="240"/>
+      <c r="AG10" s="240"/>
+      <c r="AH10" s="240"/>
+      <c r="AI10" s="241"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="247" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM10" s="180"/>
-      <c r="AN10" s="180"/>
-      <c r="AO10" s="180"/>
-      <c r="AP10" s="180"/>
-      <c r="AQ10" s="180"/>
-      <c r="AR10" s="180"/>
-      <c r="AS10" s="180"/>
-      <c r="AT10" s="180"/>
-      <c r="AU10" s="180"/>
-      <c r="AV10" s="180"/>
-      <c r="AW10" s="181"/>
-      <c r="AX10" s="245" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY10" s="246"/>
-      <c r="AZ10" s="246"/>
-      <c r="BA10" s="246"/>
-      <c r="BB10" s="246"/>
-      <c r="BC10" s="247" t="s">
+      <c r="AL10" s="283" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM10" s="136"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="136"/>
+      <c r="AP10" s="136"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="136"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="231" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY10" s="232"/>
+      <c r="AZ10" s="232"/>
+      <c r="BA10" s="232"/>
+      <c r="BB10" s="232"/>
+      <c r="BC10" s="283" t="s">
         <v>167</v>
       </c>
-      <c r="BD10" s="183"/>
-      <c r="BE10" s="183"/>
-      <c r="BF10" s="183"/>
-      <c r="BG10" s="184"/>
-      <c r="BH10" s="248"/>
-      <c r="BI10" s="248"/>
-      <c r="BJ10" s="248"/>
-      <c r="BK10" s="248"/>
-      <c r="BL10" s="248"/>
-      <c r="BM10" s="248"/>
-      <c r="BN10" s="248"/>
+      <c r="BD10" s="147"/>
+      <c r="BE10" s="147"/>
+      <c r="BF10" s="147"/>
+      <c r="BG10" s="148"/>
+      <c r="BH10" s="230"/>
+      <c r="BI10" s="230"/>
+      <c r="BJ10" s="230"/>
+      <c r="BK10" s="230"/>
+      <c r="BL10" s="230"/>
+      <c r="BM10" s="230"/>
+      <c r="BN10" s="230"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="242" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233" t="s">
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="239" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="236" t="s">
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="239">
+      <c r="P11" s="249"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="233"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="251">
         <v>2</v>
       </c>
-      <c r="S11" s="240"/>
-      <c r="T11" s="241">
-        <v>2</v>
-      </c>
-      <c r="U11" s="242"/>
-      <c r="V11" s="243"/>
-      <c r="W11" s="244"/>
-      <c r="X11" s="255" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y11" s="250"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="250">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="250"/>
-      <c r="AC11" s="251"/>
-      <c r="AD11" s="252"/>
-      <c r="AE11" s="234"/>
-      <c r="AF11" s="234"/>
-      <c r="AG11" s="234"/>
-      <c r="AH11" s="234"/>
-      <c r="AI11" s="235"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y11" s="254"/>
+      <c r="Z11" s="254"/>
+      <c r="AA11" s="254"/>
+      <c r="AB11" s="254"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="285"/>
+      <c r="AE11" s="240"/>
+      <c r="AF11" s="240"/>
+      <c r="AG11" s="240"/>
+      <c r="AH11" s="240"/>
+      <c r="AI11" s="241"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="247" t="s">
+      <c r="AL11" s="283" t="s">
         <v>163</v>
       </c>
-      <c r="AM11" s="183"/>
-      <c r="AN11" s="183"/>
-      <c r="AO11" s="183"/>
-      <c r="AP11" s="183"/>
-      <c r="AQ11" s="183"/>
-      <c r="AR11" s="183"/>
-      <c r="AS11" s="183"/>
-      <c r="AT11" s="183"/>
-      <c r="AU11" s="183"/>
-      <c r="AV11" s="183"/>
-      <c r="AW11" s="184"/>
-      <c r="AX11" s="245" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY11" s="246"/>
-      <c r="AZ11" s="246"/>
-      <c r="BA11" s="246"/>
-      <c r="BB11" s="246"/>
-      <c r="BC11" s="182"/>
-      <c r="BD11" s="183"/>
-      <c r="BE11" s="183"/>
-      <c r="BF11" s="183"/>
-      <c r="BG11" s="184"/>
-      <c r="BH11" s="248"/>
-      <c r="BI11" s="248"/>
-      <c r="BJ11" s="248"/>
-      <c r="BK11" s="248"/>
-      <c r="BL11" s="248"/>
-      <c r="BM11" s="248"/>
-      <c r="BN11" s="248"/>
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="148"/>
+      <c r="AX11" s="231" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY11" s="232"/>
+      <c r="AZ11" s="232"/>
+      <c r="BA11" s="232"/>
+      <c r="BB11" s="232"/>
+      <c r="BC11" s="146"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="147"/>
+      <c r="BF11" s="147"/>
+      <c r="BG11" s="148"/>
+      <c r="BH11" s="230"/>
+      <c r="BI11" s="230"/>
+      <c r="BJ11" s="230"/>
+      <c r="BK11" s="230"/>
+      <c r="BL11" s="230"/>
+      <c r="BM11" s="230"/>
+      <c r="BN11" s="230"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="236"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="283"/>
-      <c r="S12" s="284"/>
-      <c r="T12" s="241"/>
-      <c r="U12" s="242"/>
-      <c r="V12" s="243"/>
-      <c r="W12" s="244"/>
-      <c r="X12" s="249"/>
-      <c r="Y12" s="250"/>
-      <c r="Z12" s="250"/>
-      <c r="AA12" s="250"/>
-      <c r="AB12" s="250"/>
-      <c r="AC12" s="251"/>
-      <c r="AD12" s="252"/>
-      <c r="AE12" s="234"/>
-      <c r="AF12" s="234"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="249"/>
+      <c r="Q12" s="250"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="236"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="237"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="254"/>
+      <c r="Z12" s="254"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="276"/>
+      <c r="AD12" s="285"/>
+      <c r="AE12" s="240"/>
+      <c r="AF12" s="240"/>
+      <c r="AG12" s="240"/>
+      <c r="AH12" s="240"/>
+      <c r="AI12" s="241"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="247"/>
-      <c r="AM12" s="180"/>
-      <c r="AN12" s="180"/>
-      <c r="AO12" s="180"/>
-      <c r="AP12" s="180"/>
-      <c r="AQ12" s="180"/>
-      <c r="AR12" s="180"/>
-      <c r="AS12" s="180"/>
-      <c r="AT12" s="180"/>
-      <c r="AU12" s="180"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="181"/>
-      <c r="AX12" s="245"/>
-      <c r="AY12" s="246"/>
-      <c r="AZ12" s="246"/>
-      <c r="BA12" s="246"/>
-      <c r="BB12" s="246"/>
-      <c r="BC12" s="182"/>
-      <c r="BD12" s="183"/>
-      <c r="BE12" s="183"/>
-      <c r="BF12" s="183"/>
-      <c r="BG12" s="184"/>
-      <c r="BH12" s="248"/>
-      <c r="BI12" s="248"/>
-      <c r="BJ12" s="248"/>
-      <c r="BK12" s="248"/>
-      <c r="BL12" s="248"/>
-      <c r="BM12" s="248"/>
-      <c r="BN12" s="248"/>
+      <c r="AL12" s="283"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="231"/>
+      <c r="AY12" s="232"/>
+      <c r="AZ12" s="232"/>
+      <c r="BA12" s="232"/>
+      <c r="BB12" s="232"/>
+      <c r="BC12" s="146"/>
+      <c r="BD12" s="147"/>
+      <c r="BE12" s="147"/>
+      <c r="BF12" s="147"/>
+      <c r="BG12" s="148"/>
+      <c r="BH12" s="230"/>
+      <c r="BI12" s="230"/>
+      <c r="BJ12" s="230"/>
+      <c r="BK12" s="230"/>
+      <c r="BL12" s="230"/>
+      <c r="BM12" s="230"/>
+      <c r="BN12" s="230"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="301"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="235"/>
-      <c r="O13" s="236"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="238"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="242"/>
-      <c r="V13" s="243"/>
-      <c r="W13" s="244"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="250"/>
-      <c r="Z13" s="250"/>
-      <c r="AA13" s="250"/>
-      <c r="AB13" s="250"/>
-      <c r="AC13" s="251"/>
-      <c r="AD13" s="233"/>
-      <c r="AE13" s="234"/>
-      <c r="AF13" s="234"/>
-      <c r="AG13" s="234"/>
-      <c r="AH13" s="234"/>
-      <c r="AI13" s="235"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="250"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="254"/>
+      <c r="Z13" s="254"/>
+      <c r="AA13" s="254"/>
+      <c r="AB13" s="254"/>
+      <c r="AC13" s="276"/>
+      <c r="AD13" s="239"/>
+      <c r="AE13" s="240"/>
+      <c r="AF13" s="240"/>
+      <c r="AG13" s="240"/>
+      <c r="AH13" s="240"/>
+      <c r="AI13" s="241"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="247"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="180"/>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="180"/>
-      <c r="AT13" s="180"/>
-      <c r="AU13" s="180"/>
-      <c r="AV13" s="180"/>
-      <c r="AW13" s="181"/>
-      <c r="AX13" s="245"/>
-      <c r="AY13" s="246"/>
-      <c r="AZ13" s="246"/>
-      <c r="BA13" s="246"/>
-      <c r="BB13" s="246"/>
-      <c r="BC13" s="182"/>
-      <c r="BD13" s="183"/>
-      <c r="BE13" s="183"/>
-      <c r="BF13" s="183"/>
-      <c r="BG13" s="184"/>
-      <c r="BH13" s="248"/>
-      <c r="BI13" s="248"/>
-      <c r="BJ13" s="248"/>
-      <c r="BK13" s="248"/>
-      <c r="BL13" s="248"/>
-      <c r="BM13" s="248"/>
-      <c r="BN13" s="248"/>
+      <c r="AL13" s="283"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="231"/>
+      <c r="AY13" s="232"/>
+      <c r="AZ13" s="232"/>
+      <c r="BA13" s="232"/>
+      <c r="BB13" s="232"/>
+      <c r="BC13" s="146"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="148"/>
+      <c r="BH13" s="230"/>
+      <c r="BI13" s="230"/>
+      <c r="BJ13" s="230"/>
+      <c r="BK13" s="230"/>
+      <c r="BL13" s="230"/>
+      <c r="BM13" s="230"/>
+      <c r="BN13" s="230"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
@@ -15646,21 +15584,79 @@
     <mergeCell ref="AL13:AW13"/>
     <mergeCell ref="BH9:BN9"/>
     <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
     <mergeCell ref="AA11:AC11"/>
     <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15697,157 +15693,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -15860,49 +15856,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="294" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="294" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="295"/>
-      <c r="N8" s="295"/>
-      <c r="O8" s="295"/>
-      <c r="P8" s="295"/>
-      <c r="Q8" s="295"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="295"/>
-      <c r="W8" s="295"/>
-      <c r="X8" s="296"/>
-      <c r="Y8" s="278" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="278"/>
-      <c r="AF8" s="278"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="278"/>
-      <c r="AI8" s="278"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15911,45 +15907,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="298"/>
-      <c r="M9" s="298"/>
-      <c r="N9" s="298"/>
-      <c r="O9" s="298"/>
-      <c r="P9" s="298"/>
-      <c r="Q9" s="298"/>
-      <c r="R9" s="298"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="298"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="299"/>
-      <c r="Y9" s="278" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="278"/>
-      <c r="AA9" s="278"/>
-      <c r="AB9" s="278"/>
-      <c r="AC9" s="278" t="s">
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="278"/>
-      <c r="AE9" s="278"/>
-      <c r="AF9" s="278"/>
-      <c r="AG9" s="278"/>
-      <c r="AH9" s="278"/>
-      <c r="AI9" s="278"/>
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="268"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15990,44 +15986,44 @@
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="289" t="s">
+      <c r="B10" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="287" t="s">
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="287"/>
-      <c r="Q10" s="287"/>
-      <c r="R10" s="287"/>
-      <c r="S10" s="287"/>
-      <c r="T10" s="287"/>
-      <c r="U10" s="287"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="287"/>
-      <c r="X10" s="287"/>
-      <c r="Y10" s="285"/>
-      <c r="Z10" s="285"/>
-      <c r="AA10" s="285"/>
-      <c r="AB10" s="285"/>
-      <c r="AC10" s="285"/>
-      <c r="AD10" s="285"/>
-      <c r="AE10" s="285"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="285"/>
-      <c r="AH10" s="285"/>
-      <c r="AI10" s="285"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="288"/>
+      <c r="N10" s="288"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="288"/>
+      <c r="Q10" s="288"/>
+      <c r="R10" s="288"/>
+      <c r="S10" s="288"/>
+      <c r="T10" s="288"/>
+      <c r="U10" s="288"/>
+      <c r="V10" s="288"/>
+      <c r="W10" s="288"/>
+      <c r="X10" s="288"/>
+      <c r="Y10" s="286"/>
+      <c r="Z10" s="286"/>
+      <c r="AA10" s="286"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="286"/>
+      <c r="AD10" s="286"/>
+      <c r="AE10" s="286"/>
+      <c r="AF10" s="286"/>
+      <c r="AG10" s="286"/>
+      <c r="AH10" s="286"/>
+      <c r="AI10" s="286"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
@@ -16068,44 +16064,44 @@
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="289"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="287" t="s">
+      <c r="C11" s="287"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="287"/>
-      <c r="L11" s="287"/>
-      <c r="M11" s="287"/>
-      <c r="N11" s="287"/>
-      <c r="O11" s="287"/>
-      <c r="P11" s="287"/>
-      <c r="Q11" s="287"/>
-      <c r="R11" s="287"/>
-      <c r="S11" s="287"/>
-      <c r="T11" s="287"/>
-      <c r="U11" s="287"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="287"/>
-      <c r="X11" s="287"/>
-      <c r="Y11" s="285"/>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="285"/>
-      <c r="AB11" s="285"/>
-      <c r="AC11" s="285"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="285"/>
-      <c r="AH11" s="285"/>
-      <c r="AI11" s="285"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="288"/>
+      <c r="O11" s="288"/>
+      <c r="P11" s="288"/>
+      <c r="Q11" s="288"/>
+      <c r="R11" s="288"/>
+      <c r="S11" s="288"/>
+      <c r="T11" s="288"/>
+      <c r="U11" s="288"/>
+      <c r="V11" s="288"/>
+      <c r="W11" s="288"/>
+      <c r="X11" s="288"/>
+      <c r="Y11" s="286"/>
+      <c r="Z11" s="286"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="286"/>
+      <c r="AC11" s="286"/>
+      <c r="AD11" s="286"/>
+      <c r="AE11" s="286"/>
+      <c r="AF11" s="286"/>
+      <c r="AG11" s="286"/>
+      <c r="AH11" s="286"/>
+      <c r="AI11" s="286"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -16146,44 +16142,44 @@
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="292" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="289"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="289"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="289"/>
-      <c r="J12" s="287" t="s">
+      <c r="B12" s="296" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="287"/>
-      <c r="S12" s="287"/>
-      <c r="T12" s="287"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="287"/>
-      <c r="X12" s="287"/>
-      <c r="Y12" s="285"/>
-      <c r="Z12" s="285"/>
-      <c r="AA12" s="285"/>
-      <c r="AB12" s="285"/>
-      <c r="AC12" s="285"/>
-      <c r="AD12" s="285"/>
-      <c r="AE12" s="285"/>
-      <c r="AF12" s="285"/>
-      <c r="AG12" s="285"/>
-      <c r="AH12" s="285"/>
-      <c r="AI12" s="285"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="288"/>
+      <c r="O12" s="288"/>
+      <c r="P12" s="288"/>
+      <c r="Q12" s="288"/>
+      <c r="R12" s="288"/>
+      <c r="S12" s="288"/>
+      <c r="T12" s="288"/>
+      <c r="U12" s="288"/>
+      <c r="V12" s="288"/>
+      <c r="W12" s="288"/>
+      <c r="X12" s="288"/>
+      <c r="Y12" s="286"/>
+      <c r="Z12" s="286"/>
+      <c r="AA12" s="286"/>
+      <c r="AB12" s="286"/>
+      <c r="AC12" s="286"/>
+      <c r="AD12" s="286"/>
+      <c r="AE12" s="286"/>
+      <c r="AF12" s="286"/>
+      <c r="AG12" s="286"/>
+      <c r="AH12" s="286"/>
+      <c r="AI12" s="286"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -16224,44 +16220,44 @@
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="287" t="s">
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="287"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="287"/>
-      <c r="S13" s="287"/>
-      <c r="T13" s="287"/>
-      <c r="U13" s="287"/>
-      <c r="V13" s="287"/>
-      <c r="W13" s="287"/>
-      <c r="X13" s="287"/>
-      <c r="Y13" s="285"/>
-      <c r="Z13" s="285"/>
-      <c r="AA13" s="285"/>
-      <c r="AB13" s="285"/>
-      <c r="AC13" s="285"/>
-      <c r="AD13" s="285"/>
-      <c r="AE13" s="285"/>
-      <c r="AF13" s="285"/>
-      <c r="AG13" s="285"/>
-      <c r="AH13" s="285"/>
-      <c r="AI13" s="285"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="288"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="288"/>
+      <c r="Q13" s="288"/>
+      <c r="R13" s="288"/>
+      <c r="S13" s="288"/>
+      <c r="T13" s="288"/>
+      <c r="U13" s="288"/>
+      <c r="V13" s="288"/>
+      <c r="W13" s="288"/>
+      <c r="X13" s="288"/>
+      <c r="Y13" s="286"/>
+      <c r="Z13" s="286"/>
+      <c r="AA13" s="286"/>
+      <c r="AB13" s="286"/>
+      <c r="AC13" s="286"/>
+      <c r="AD13" s="286"/>
+      <c r="AE13" s="286"/>
+      <c r="AF13" s="286"/>
+      <c r="AG13" s="286"/>
+      <c r="AH13" s="286"/>
+      <c r="AI13" s="286"/>
       <c r="AJ13" s="23"/>
       <c r="AK13" s="23"/>
       <c r="AL13" s="23"/>
@@ -16302,44 +16298,44 @@
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="289"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="286" t="s">
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="302" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="287"/>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="287"/>
-      <c r="S14" s="287"/>
-      <c r="T14" s="287"/>
-      <c r="U14" s="287"/>
-      <c r="V14" s="287"/>
-      <c r="W14" s="287"/>
-      <c r="X14" s="287"/>
-      <c r="Y14" s="285"/>
-      <c r="Z14" s="285"/>
-      <c r="AA14" s="285"/>
-      <c r="AB14" s="285"/>
-      <c r="AC14" s="285"/>
-      <c r="AD14" s="285"/>
-      <c r="AE14" s="285"/>
-      <c r="AF14" s="285"/>
-      <c r="AG14" s="285"/>
-      <c r="AH14" s="285"/>
-      <c r="AI14" s="285"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="288"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="288"/>
+      <c r="Q14" s="288"/>
+      <c r="R14" s="288"/>
+      <c r="S14" s="288"/>
+      <c r="T14" s="288"/>
+      <c r="U14" s="288"/>
+      <c r="V14" s="288"/>
+      <c r="W14" s="288"/>
+      <c r="X14" s="288"/>
+      <c r="Y14" s="286"/>
+      <c r="Z14" s="286"/>
+      <c r="AA14" s="286"/>
+      <c r="AB14" s="286"/>
+      <c r="AC14" s="286"/>
+      <c r="AD14" s="286"/>
+      <c r="AE14" s="286"/>
+      <c r="AF14" s="286"/>
+      <c r="AG14" s="286"/>
+      <c r="AH14" s="286"/>
+      <c r="AI14" s="286"/>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -16380,44 +16376,44 @@
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="292" t="s">
+      <c r="B15" s="296" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="289"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
-      <c r="J15" s="286" t="s">
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="302" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="287"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="287"/>
-      <c r="O15" s="287"/>
-      <c r="P15" s="287"/>
-      <c r="Q15" s="287"/>
-      <c r="R15" s="287"/>
-      <c r="S15" s="287"/>
-      <c r="T15" s="287"/>
-      <c r="U15" s="287"/>
-      <c r="V15" s="287"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="287"/>
-      <c r="Y15" s="285"/>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="285"/>
-      <c r="AC15" s="285"/>
-      <c r="AD15" s="285"/>
-      <c r="AE15" s="285"/>
-      <c r="AF15" s="285"/>
-      <c r="AG15" s="285"/>
-      <c r="AH15" s="285"/>
-      <c r="AI15" s="285"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="288"/>
+      <c r="N15" s="288"/>
+      <c r="O15" s="288"/>
+      <c r="P15" s="288"/>
+      <c r="Q15" s="288"/>
+      <c r="R15" s="288"/>
+      <c r="S15" s="288"/>
+      <c r="T15" s="288"/>
+      <c r="U15" s="288"/>
+      <c r="V15" s="288"/>
+      <c r="W15" s="288"/>
+      <c r="X15" s="288"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="286"/>
+      <c r="AA15" s="286"/>
+      <c r="AB15" s="286"/>
+      <c r="AC15" s="286"/>
+      <c r="AD15" s="286"/>
+      <c r="AE15" s="286"/>
+      <c r="AF15" s="286"/>
+      <c r="AG15" s="286"/>
+      <c r="AH15" s="286"/>
+      <c r="AI15" s="286"/>
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
@@ -16458,44 +16454,44 @@
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="288" t="s">
+      <c r="B16" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="289"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="290" t="s">
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="300" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
-      <c r="M16" s="291"/>
-      <c r="N16" s="291"/>
-      <c r="O16" s="291"/>
-      <c r="P16" s="291"/>
-      <c r="Q16" s="291"/>
-      <c r="R16" s="291"/>
-      <c r="S16" s="291"/>
-      <c r="T16" s="291"/>
-      <c r="U16" s="291"/>
-      <c r="V16" s="291"/>
-      <c r="W16" s="291"/>
-      <c r="X16" s="291"/>
-      <c r="Y16" s="285"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="285"/>
-      <c r="AC16" s="285"/>
-      <c r="AD16" s="285"/>
-      <c r="AE16" s="285"/>
-      <c r="AF16" s="285"/>
-      <c r="AG16" s="285"/>
-      <c r="AH16" s="285"/>
-      <c r="AI16" s="285"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
+      <c r="Y16" s="286"/>
+      <c r="Z16" s="286"/>
+      <c r="AA16" s="286"/>
+      <c r="AB16" s="286"/>
+      <c r="AC16" s="286"/>
+      <c r="AD16" s="286"/>
+      <c r="AE16" s="286"/>
+      <c r="AF16" s="286"/>
+      <c r="AG16" s="286"/>
+      <c r="AH16" s="286"/>
+      <c r="AI16" s="286"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
       <c r="AL16" s="23"/>
@@ -16536,44 +16532,44 @@
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="295" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="289"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="289"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="291" t="s">
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="287"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="301" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="291"/>
-      <c r="M17" s="291"/>
-      <c r="N17" s="291"/>
-      <c r="O17" s="291"/>
-      <c r="P17" s="291"/>
-      <c r="Q17" s="291"/>
-      <c r="R17" s="291"/>
-      <c r="S17" s="291"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="291"/>
-      <c r="V17" s="291"/>
-      <c r="W17" s="291"/>
-      <c r="X17" s="291"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="285"/>
-      <c r="AC17" s="285"/>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="285"/>
-      <c r="AH17" s="285"/>
-      <c r="AI17" s="285"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
+      <c r="Y17" s="286"/>
+      <c r="Z17" s="286"/>
+      <c r="AA17" s="286"/>
+      <c r="AB17" s="286"/>
+      <c r="AC17" s="286"/>
+      <c r="AD17" s="286"/>
+      <c r="AE17" s="286"/>
+      <c r="AF17" s="286"/>
+      <c r="AG17" s="286"/>
+      <c r="AH17" s="286"/>
+      <c r="AI17" s="286"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
       <c r="AL17" s="23"/>
@@ -16614,44 +16610,44 @@
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="288" t="s">
+      <c r="B18" s="295" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="290" t="s">
+      <c r="C18" s="287"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="287"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="300" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="291"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="291"/>
-      <c r="N18" s="291"/>
-      <c r="O18" s="291"/>
-      <c r="P18" s="291"/>
-      <c r="Q18" s="291"/>
-      <c r="R18" s="291"/>
-      <c r="S18" s="291"/>
-      <c r="T18" s="291"/>
-      <c r="U18" s="291"/>
-      <c r="V18" s="291"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="291"/>
-      <c r="Y18" s="285"/>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="285"/>
-      <c r="AC18" s="285"/>
-      <c r="AD18" s="285"/>
-      <c r="AE18" s="285"/>
-      <c r="AF18" s="285"/>
-      <c r="AG18" s="285"/>
-      <c r="AH18" s="285"/>
-      <c r="AI18" s="285"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="301"/>
+      <c r="X18" s="301"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="286"/>
+      <c r="AA18" s="286"/>
+      <c r="AB18" s="286"/>
+      <c r="AC18" s="286"/>
+      <c r="AD18" s="286"/>
+      <c r="AE18" s="286"/>
+      <c r="AF18" s="286"/>
+      <c r="AG18" s="286"/>
+      <c r="AH18" s="286"/>
+      <c r="AI18" s="286"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
       <c r="AL18" s="23"/>
@@ -17250,49 +17246,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17309,6 +17262,49 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17338,157 +17334,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17501,49 +17497,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="294" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="294" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="295"/>
-      <c r="N8" s="295"/>
-      <c r="O8" s="295"/>
-      <c r="P8" s="295"/>
-      <c r="Q8" s="295"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="295"/>
-      <c r="W8" s="295"/>
-      <c r="X8" s="296"/>
-      <c r="Y8" s="278" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="278"/>
-      <c r="AF8" s="278"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="278"/>
-      <c r="AI8" s="278"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="268"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17581,45 +17577,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="297"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="298"/>
-      <c r="M9" s="298"/>
-      <c r="N9" s="298"/>
-      <c r="O9" s="298"/>
-      <c r="P9" s="298"/>
-      <c r="Q9" s="298"/>
-      <c r="R9" s="298"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="298"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="299"/>
-      <c r="Y9" s="278" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="278"/>
-      <c r="AA9" s="278"/>
-      <c r="AB9" s="278"/>
-      <c r="AC9" s="278" t="s">
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="268"/>
+      <c r="AB9" s="268"/>
+      <c r="AC9" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="278"/>
-      <c r="AE9" s="278"/>
-      <c r="AF9" s="278"/>
-      <c r="AG9" s="278"/>
-      <c r="AH9" s="278"/>
-      <c r="AI9" s="278"/>
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="268"/>
+      <c r="AF9" s="268"/>
+      <c r="AG9" s="268"/>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="268"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17658,40 +17654,40 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="87"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="291"/>
-      <c r="L10" s="291"/>
-      <c r="M10" s="291"/>
-      <c r="N10" s="291"/>
-      <c r="O10" s="291"/>
-      <c r="P10" s="291"/>
-      <c r="Q10" s="291"/>
-      <c r="R10" s="291"/>
-      <c r="S10" s="291"/>
-      <c r="T10" s="291"/>
-      <c r="U10" s="291"/>
-      <c r="V10" s="291"/>
-      <c r="W10" s="291"/>
-      <c r="X10" s="291"/>
-      <c r="Y10" s="285"/>
-      <c r="Z10" s="285"/>
-      <c r="AA10" s="285"/>
-      <c r="AB10" s="285"/>
-      <c r="AC10" s="285"/>
-      <c r="AD10" s="285"/>
-      <c r="AE10" s="285"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="285"/>
-      <c r="AH10" s="285"/>
-      <c r="AI10" s="285"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
+      <c r="Y10" s="286"/>
+      <c r="Z10" s="286"/>
+      <c r="AA10" s="286"/>
+      <c r="AB10" s="286"/>
+      <c r="AC10" s="286"/>
+      <c r="AD10" s="286"/>
+      <c r="AE10" s="286"/>
+      <c r="AF10" s="286"/>
+      <c r="AG10" s="286"/>
+      <c r="AH10" s="286"/>
+      <c r="AI10" s="286"/>
       <c r="AJ10" s="23"/>
       <c r="AK10" s="23"/>
       <c r="AL10" s="23"/>
@@ -17730,40 +17726,40 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="87"/>
-      <c r="B11" s="287"/>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="287"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="287"/>
-      <c r="M11" s="287"/>
-      <c r="N11" s="287"/>
-      <c r="O11" s="287"/>
-      <c r="P11" s="287"/>
-      <c r="Q11" s="287"/>
-      <c r="R11" s="287"/>
-      <c r="S11" s="287"/>
-      <c r="T11" s="287"/>
-      <c r="U11" s="287"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="287"/>
-      <c r="X11" s="287"/>
-      <c r="Y11" s="285"/>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="285"/>
-      <c r="AB11" s="285"/>
-      <c r="AC11" s="285"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="285"/>
-      <c r="AH11" s="285"/>
-      <c r="AI11" s="285"/>
+      <c r="B11" s="288"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="288"/>
+      <c r="O11" s="288"/>
+      <c r="P11" s="288"/>
+      <c r="Q11" s="288"/>
+      <c r="R11" s="288"/>
+      <c r="S11" s="288"/>
+      <c r="T11" s="288"/>
+      <c r="U11" s="288"/>
+      <c r="V11" s="288"/>
+      <c r="W11" s="288"/>
+      <c r="X11" s="288"/>
+      <c r="Y11" s="286"/>
+      <c r="Z11" s="286"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="286"/>
+      <c r="AC11" s="286"/>
+      <c r="AD11" s="286"/>
+      <c r="AE11" s="286"/>
+      <c r="AF11" s="286"/>
+      <c r="AG11" s="286"/>
+      <c r="AH11" s="286"/>
+      <c r="AI11" s="286"/>
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="23"/>
@@ -17802,40 +17798,40 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="87"/>
-      <c r="B12" s="287"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="287"/>
-      <c r="S12" s="287"/>
-      <c r="T12" s="287"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="287"/>
-      <c r="X12" s="287"/>
-      <c r="Y12" s="285"/>
-      <c r="Z12" s="285"/>
-      <c r="AA12" s="285"/>
-      <c r="AB12" s="285"/>
-      <c r="AC12" s="285"/>
-      <c r="AD12" s="285"/>
-      <c r="AE12" s="285"/>
-      <c r="AF12" s="285"/>
-      <c r="AG12" s="285"/>
-      <c r="AH12" s="285"/>
-      <c r="AI12" s="285"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="288"/>
+      <c r="O12" s="288"/>
+      <c r="P12" s="288"/>
+      <c r="Q12" s="288"/>
+      <c r="R12" s="288"/>
+      <c r="S12" s="288"/>
+      <c r="T12" s="288"/>
+      <c r="U12" s="288"/>
+      <c r="V12" s="288"/>
+      <c r="W12" s="288"/>
+      <c r="X12" s="288"/>
+      <c r="Y12" s="286"/>
+      <c r="Z12" s="286"/>
+      <c r="AA12" s="286"/>
+      <c r="AB12" s="286"/>
+      <c r="AC12" s="286"/>
+      <c r="AD12" s="286"/>
+      <c r="AE12" s="286"/>
+      <c r="AF12" s="286"/>
+      <c r="AG12" s="286"/>
+      <c r="AH12" s="286"/>
+      <c r="AI12" s="286"/>
       <c r="AJ12" s="23"/>
       <c r="AK12" s="23"/>
       <c r="AL12" s="23"/>
@@ -17874,40 +17870,40 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="87"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="287"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="287"/>
-      <c r="S13" s="287"/>
-      <c r="T13" s="287"/>
-      <c r="U13" s="287"/>
-      <c r="V13" s="287"/>
-      <c r="W13" s="287"/>
-      <c r="X13" s="287"/>
-      <c r="Y13" s="285"/>
-      <c r="Z13" s="285"/>
-      <c r="AA13" s="285"/>
-      <c r="AB13" s="285"/>
-      <c r="AC13" s="285"/>
-      <c r="AD13" s="285"/>
-      <c r="AE13" s="285"/>
-      <c r="AF13" s="285"/>
-      <c r="AG13" s="285"/>
-      <c r="AH13" s="285"/>
-      <c r="AI13" s="285"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="288"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="288"/>
+      <c r="Q13" s="288"/>
+      <c r="R13" s="288"/>
+      <c r="S13" s="288"/>
+      <c r="T13" s="288"/>
+      <c r="U13" s="288"/>
+      <c r="V13" s="288"/>
+      <c r="W13" s="288"/>
+      <c r="X13" s="288"/>
+      <c r="Y13" s="286"/>
+      <c r="Z13" s="286"/>
+      <c r="AA13" s="286"/>
+      <c r="AB13" s="286"/>
+      <c r="AC13" s="286"/>
+      <c r="AD13" s="286"/>
+      <c r="AE13" s="286"/>
+      <c r="AF13" s="286"/>
+      <c r="AG13" s="286"/>
+      <c r="AH13" s="286"/>
+      <c r="AI13" s="286"/>
       <c r="AJ13" s="23"/>
       <c r="AK13" s="23"/>
       <c r="AL13" s="23"/>
@@ -17946,40 +17942,40 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="87"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="289"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="287"/>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="287"/>
-      <c r="S14" s="287"/>
-      <c r="T14" s="287"/>
-      <c r="U14" s="287"/>
-      <c r="V14" s="287"/>
-      <c r="W14" s="287"/>
-      <c r="X14" s="287"/>
-      <c r="Y14" s="285"/>
-      <c r="Z14" s="285"/>
-      <c r="AA14" s="285"/>
-      <c r="AB14" s="285"/>
-      <c r="AC14" s="285"/>
-      <c r="AD14" s="285"/>
-      <c r="AE14" s="285"/>
-      <c r="AF14" s="285"/>
-      <c r="AG14" s="285"/>
-      <c r="AH14" s="285"/>
-      <c r="AI14" s="285"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="288"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="288"/>
+      <c r="Q14" s="288"/>
+      <c r="R14" s="288"/>
+      <c r="S14" s="288"/>
+      <c r="T14" s="288"/>
+      <c r="U14" s="288"/>
+      <c r="V14" s="288"/>
+      <c r="W14" s="288"/>
+      <c r="X14" s="288"/>
+      <c r="Y14" s="286"/>
+      <c r="Z14" s="286"/>
+      <c r="AA14" s="286"/>
+      <c r="AB14" s="286"/>
+      <c r="AC14" s="286"/>
+      <c r="AD14" s="286"/>
+      <c r="AE14" s="286"/>
+      <c r="AF14" s="286"/>
+      <c r="AG14" s="286"/>
+      <c r="AH14" s="286"/>
+      <c r="AI14" s="286"/>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="23"/>
       <c r="AL14" s="23"/>
@@ -18018,40 +18014,40 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="87"/>
-      <c r="B15" s="293"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="287"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
-      <c r="N15" s="287"/>
-      <c r="O15" s="287"/>
-      <c r="P15" s="287"/>
-      <c r="Q15" s="287"/>
-      <c r="R15" s="287"/>
-      <c r="S15" s="287"/>
-      <c r="T15" s="287"/>
-      <c r="U15" s="287"/>
-      <c r="V15" s="287"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="287"/>
-      <c r="Y15" s="285"/>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="285"/>
-      <c r="AC15" s="285"/>
-      <c r="AD15" s="285"/>
-      <c r="AE15" s="285"/>
-      <c r="AF15" s="285"/>
-      <c r="AG15" s="285"/>
-      <c r="AH15" s="285"/>
-      <c r="AI15" s="285"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="288"/>
+      <c r="N15" s="288"/>
+      <c r="O15" s="288"/>
+      <c r="P15" s="288"/>
+      <c r="Q15" s="288"/>
+      <c r="R15" s="288"/>
+      <c r="S15" s="288"/>
+      <c r="T15" s="288"/>
+      <c r="U15" s="288"/>
+      <c r="V15" s="288"/>
+      <c r="W15" s="288"/>
+      <c r="X15" s="288"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="286"/>
+      <c r="AA15" s="286"/>
+      <c r="AB15" s="286"/>
+      <c r="AC15" s="286"/>
+      <c r="AD15" s="286"/>
+      <c r="AE15" s="286"/>
+      <c r="AF15" s="286"/>
+      <c r="AG15" s="286"/>
+      <c r="AH15" s="286"/>
+      <c r="AI15" s="286"/>
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
       <c r="AL15" s="23"/>
@@ -18090,40 +18086,40 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="87"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="289"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="287"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="287"/>
-      <c r="M16" s="287"/>
-      <c r="N16" s="287"/>
-      <c r="O16" s="287"/>
-      <c r="P16" s="287"/>
-      <c r="Q16" s="287"/>
-      <c r="R16" s="287"/>
-      <c r="S16" s="287"/>
-      <c r="T16" s="287"/>
-      <c r="U16" s="287"/>
-      <c r="V16" s="287"/>
-      <c r="W16" s="287"/>
-      <c r="X16" s="287"/>
-      <c r="Y16" s="285"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="285"/>
-      <c r="AC16" s="285"/>
-      <c r="AD16" s="285"/>
-      <c r="AE16" s="285"/>
-      <c r="AF16" s="285"/>
-      <c r="AG16" s="285"/>
-      <c r="AH16" s="285"/>
-      <c r="AI16" s="285"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
+      <c r="M16" s="288"/>
+      <c r="N16" s="288"/>
+      <c r="O16" s="288"/>
+      <c r="P16" s="288"/>
+      <c r="Q16" s="288"/>
+      <c r="R16" s="288"/>
+      <c r="S16" s="288"/>
+      <c r="T16" s="288"/>
+      <c r="U16" s="288"/>
+      <c r="V16" s="288"/>
+      <c r="W16" s="288"/>
+      <c r="X16" s="288"/>
+      <c r="Y16" s="286"/>
+      <c r="Z16" s="286"/>
+      <c r="AA16" s="286"/>
+      <c r="AB16" s="286"/>
+      <c r="AC16" s="286"/>
+      <c r="AD16" s="286"/>
+      <c r="AE16" s="286"/>
+      <c r="AF16" s="286"/>
+      <c r="AG16" s="286"/>
+      <c r="AH16" s="286"/>
+      <c r="AI16" s="286"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
       <c r="AL16" s="23"/>
@@ -18162,40 +18158,40 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="87"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
-      <c r="I17" s="300"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="287"/>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="287"/>
-      <c r="Q17" s="287"/>
-      <c r="R17" s="287"/>
-      <c r="S17" s="287"/>
-      <c r="T17" s="287"/>
-      <c r="U17" s="287"/>
-      <c r="V17" s="287"/>
-      <c r="W17" s="287"/>
-      <c r="X17" s="287"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="285"/>
-      <c r="AC17" s="285"/>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="285"/>
-      <c r="AH17" s="285"/>
-      <c r="AI17" s="285"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="288"/>
+      <c r="L17" s="288"/>
+      <c r="M17" s="288"/>
+      <c r="N17" s="288"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="288"/>
+      <c r="Q17" s="288"/>
+      <c r="R17" s="288"/>
+      <c r="S17" s="288"/>
+      <c r="T17" s="288"/>
+      <c r="U17" s="288"/>
+      <c r="V17" s="288"/>
+      <c r="W17" s="288"/>
+      <c r="X17" s="288"/>
+      <c r="Y17" s="286"/>
+      <c r="Z17" s="286"/>
+      <c r="AA17" s="286"/>
+      <c r="AB17" s="286"/>
+      <c r="AC17" s="286"/>
+      <c r="AD17" s="286"/>
+      <c r="AE17" s="286"/>
+      <c r="AF17" s="286"/>
+      <c r="AG17" s="286"/>
+      <c r="AH17" s="286"/>
+      <c r="AI17" s="286"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
       <c r="AL17" s="23"/>
@@ -18234,40 +18230,40 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="87"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="287"/>
-      <c r="K18" s="287"/>
-      <c r="L18" s="287"/>
-      <c r="M18" s="287"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287"/>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="287"/>
-      <c r="R18" s="287"/>
-      <c r="S18" s="287"/>
-      <c r="T18" s="287"/>
-      <c r="U18" s="287"/>
-      <c r="V18" s="287"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="287"/>
-      <c r="Y18" s="285"/>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="285"/>
-      <c r="AC18" s="285"/>
-      <c r="AD18" s="285"/>
-      <c r="AE18" s="285"/>
-      <c r="AF18" s="285"/>
-      <c r="AG18" s="285"/>
-      <c r="AH18" s="285"/>
-      <c r="AI18" s="285"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
+      <c r="N18" s="288"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="288"/>
+      <c r="Q18" s="288"/>
+      <c r="R18" s="288"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="288"/>
+      <c r="V18" s="288"/>
+      <c r="W18" s="288"/>
+      <c r="X18" s="288"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="286"/>
+      <c r="AA18" s="286"/>
+      <c r="AB18" s="286"/>
+      <c r="AC18" s="286"/>
+      <c r="AD18" s="286"/>
+      <c r="AE18" s="286"/>
+      <c r="AF18" s="286"/>
+      <c r="AG18" s="286"/>
+      <c r="AH18" s="286"/>
+      <c r="AI18" s="286"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
       <c r="AL18" s="23"/>
@@ -18306,40 +18302,40 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="87"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="287"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="287"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="287"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="287"/>
-      <c r="O19" s="287"/>
-      <c r="P19" s="287"/>
-      <c r="Q19" s="287"/>
-      <c r="R19" s="287"/>
-      <c r="S19" s="287"/>
-      <c r="T19" s="287"/>
-      <c r="U19" s="287"/>
-      <c r="V19" s="287"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="287"/>
-      <c r="Y19" s="285"/>
-      <c r="Z19" s="285"/>
-      <c r="AA19" s="285"/>
-      <c r="AB19" s="285"/>
-      <c r="AC19" s="285"/>
-      <c r="AD19" s="285"/>
-      <c r="AE19" s="285"/>
-      <c r="AF19" s="285"/>
-      <c r="AG19" s="285"/>
-      <c r="AH19" s="285"/>
-      <c r="AI19" s="285"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
+      <c r="N19" s="288"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="288"/>
+      <c r="Q19" s="288"/>
+      <c r="R19" s="288"/>
+      <c r="S19" s="288"/>
+      <c r="T19" s="288"/>
+      <c r="U19" s="288"/>
+      <c r="V19" s="288"/>
+      <c r="W19" s="288"/>
+      <c r="X19" s="288"/>
+      <c r="Y19" s="286"/>
+      <c r="Z19" s="286"/>
+      <c r="AA19" s="286"/>
+      <c r="AB19" s="286"/>
+      <c r="AC19" s="286"/>
+      <c r="AD19" s="286"/>
+      <c r="AE19" s="286"/>
+      <c r="AF19" s="286"/>
+      <c r="AG19" s="286"/>
+      <c r="AH19" s="286"/>
+      <c r="AI19" s="286"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
       <c r="AL19" s="23"/>
@@ -18378,272 +18374,255 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="87"/>
-      <c r="B20" s="291"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="287"/>
-      <c r="O20" s="287"/>
-      <c r="P20" s="287"/>
-      <c r="Q20" s="287"/>
-      <c r="R20" s="287"/>
-      <c r="S20" s="287"/>
-      <c r="T20" s="287"/>
-      <c r="U20" s="287"/>
-      <c r="V20" s="287"/>
-      <c r="W20" s="287"/>
-      <c r="X20" s="287"/>
-      <c r="Y20" s="285"/>
-      <c r="Z20" s="285"/>
-      <c r="AA20" s="285"/>
-      <c r="AB20" s="285"/>
-      <c r="AC20" s="285"/>
-      <c r="AD20" s="285"/>
-      <c r="AE20" s="285"/>
-      <c r="AF20" s="285"/>
-      <c r="AG20" s="285"/>
-      <c r="AH20" s="285"/>
-      <c r="AI20" s="285"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="288"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="288"/>
+      <c r="Q20" s="288"/>
+      <c r="R20" s="288"/>
+      <c r="S20" s="288"/>
+      <c r="T20" s="288"/>
+      <c r="U20" s="288"/>
+      <c r="V20" s="288"/>
+      <c r="W20" s="288"/>
+      <c r="X20" s="288"/>
+      <c r="Y20" s="286"/>
+      <c r="Z20" s="286"/>
+      <c r="AA20" s="286"/>
+      <c r="AB20" s="286"/>
+      <c r="AC20" s="286"/>
+      <c r="AD20" s="286"/>
+      <c r="AE20" s="286"/>
+      <c r="AF20" s="286"/>
+      <c r="AG20" s="286"/>
+      <c r="AH20" s="286"/>
+      <c r="AI20" s="286"/>
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="87"/>
-      <c r="B21" s="291"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
-      <c r="N21" s="287"/>
-      <c r="O21" s="287"/>
-      <c r="P21" s="287"/>
-      <c r="Q21" s="287"/>
-      <c r="R21" s="287"/>
-      <c r="S21" s="287"/>
-      <c r="T21" s="287"/>
-      <c r="U21" s="287"/>
-      <c r="V21" s="287"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="287"/>
-      <c r="Y21" s="285"/>
-      <c r="Z21" s="285"/>
-      <c r="AA21" s="285"/>
-      <c r="AB21" s="285"/>
-      <c r="AC21" s="285"/>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="285"/>
-      <c r="AF21" s="285"/>
-      <c r="AG21" s="285"/>
-      <c r="AH21" s="285"/>
-      <c r="AI21" s="285"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="288"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
+      <c r="N21" s="288"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="288"/>
+      <c r="Q21" s="288"/>
+      <c r="R21" s="288"/>
+      <c r="S21" s="288"/>
+      <c r="T21" s="288"/>
+      <c r="U21" s="288"/>
+      <c r="V21" s="288"/>
+      <c r="W21" s="288"/>
+      <c r="X21" s="288"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="286"/>
+      <c r="AA21" s="286"/>
+      <c r="AB21" s="286"/>
+      <c r="AC21" s="286"/>
+      <c r="AD21" s="286"/>
+      <c r="AE21" s="286"/>
+      <c r="AF21" s="286"/>
+      <c r="AG21" s="286"/>
+      <c r="AH21" s="286"/>
+      <c r="AI21" s="286"/>
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="87"/>
-      <c r="B22" s="291"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="287"/>
-      <c r="K22" s="287"/>
-      <c r="L22" s="287"/>
-      <c r="M22" s="287"/>
-      <c r="N22" s="287"/>
-      <c r="O22" s="287"/>
-      <c r="P22" s="287"/>
-      <c r="Q22" s="287"/>
-      <c r="R22" s="287"/>
-      <c r="S22" s="287"/>
-      <c r="T22" s="287"/>
-      <c r="U22" s="287"/>
-      <c r="V22" s="287"/>
-      <c r="W22" s="287"/>
-      <c r="X22" s="287"/>
-      <c r="Y22" s="285"/>
-      <c r="Z22" s="285"/>
-      <c r="AA22" s="285"/>
-      <c r="AB22" s="285"/>
-      <c r="AC22" s="285"/>
-      <c r="AD22" s="285"/>
-      <c r="AE22" s="285"/>
-      <c r="AF22" s="285"/>
-      <c r="AG22" s="285"/>
-      <c r="AH22" s="285"/>
-      <c r="AI22" s="285"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="288"/>
+      <c r="F22" s="288"/>
+      <c r="G22" s="288"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="288"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
+      <c r="N22" s="288"/>
+      <c r="O22" s="288"/>
+      <c r="P22" s="288"/>
+      <c r="Q22" s="288"/>
+      <c r="R22" s="288"/>
+      <c r="S22" s="288"/>
+      <c r="T22" s="288"/>
+      <c r="U22" s="288"/>
+      <c r="V22" s="288"/>
+      <c r="W22" s="288"/>
+      <c r="X22" s="288"/>
+      <c r="Y22" s="286"/>
+      <c r="Z22" s="286"/>
+      <c r="AA22" s="286"/>
+      <c r="AB22" s="286"/>
+      <c r="AC22" s="286"/>
+      <c r="AD22" s="286"/>
+      <c r="AE22" s="286"/>
+      <c r="AF22" s="286"/>
+      <c r="AG22" s="286"/>
+      <c r="AH22" s="286"/>
+      <c r="AI22" s="286"/>
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="87"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="287"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="291"/>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="291"/>
-      <c r="O23" s="291"/>
-      <c r="P23" s="291"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="291"/>
-      <c r="S23" s="291"/>
-      <c r="T23" s="291"/>
-      <c r="U23" s="291"/>
-      <c r="V23" s="291"/>
-      <c r="W23" s="291"/>
-      <c r="X23" s="291"/>
-      <c r="Y23" s="285"/>
-      <c r="Z23" s="285"/>
-      <c r="AA23" s="285"/>
-      <c r="AB23" s="285"/>
-      <c r="AC23" s="285"/>
-      <c r="AD23" s="285"/>
-      <c r="AE23" s="285"/>
-      <c r="AF23" s="285"/>
-      <c r="AG23" s="285"/>
-      <c r="AH23" s="285"/>
-      <c r="AI23" s="285"/>
+      <c r="B23" s="288"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="288"/>
+      <c r="G23" s="288"/>
+      <c r="H23" s="288"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+      <c r="T23" s="301"/>
+      <c r="U23" s="301"/>
+      <c r="V23" s="301"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="301"/>
+      <c r="Y23" s="286"/>
+      <c r="Z23" s="286"/>
+      <c r="AA23" s="286"/>
+      <c r="AB23" s="286"/>
+      <c r="AC23" s="286"/>
+      <c r="AD23" s="286"/>
+      <c r="AE23" s="286"/>
+      <c r="AF23" s="286"/>
+      <c r="AG23" s="286"/>
+      <c r="AH23" s="286"/>
+      <c r="AI23" s="286"/>
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="87"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="291"/>
-      <c r="R24" s="291"/>
-      <c r="S24" s="291"/>
-      <c r="T24" s="291"/>
-      <c r="U24" s="291"/>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="291"/>
-      <c r="Y24" s="285"/>
-      <c r="Z24" s="285"/>
-      <c r="AA24" s="285"/>
-      <c r="AB24" s="285"/>
-      <c r="AC24" s="285"/>
-      <c r="AD24" s="285"/>
-      <c r="AE24" s="285"/>
-      <c r="AF24" s="285"/>
-      <c r="AG24" s="285"/>
-      <c r="AH24" s="285"/>
-      <c r="AI24" s="285"/>
+      <c r="B24" s="288"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="288"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+      <c r="T24" s="301"/>
+      <c r="U24" s="301"/>
+      <c r="V24" s="301"/>
+      <c r="W24" s="301"/>
+      <c r="X24" s="301"/>
+      <c r="Y24" s="286"/>
+      <c r="Z24" s="286"/>
+      <c r="AA24" s="286"/>
+      <c r="AB24" s="286"/>
+      <c r="AC24" s="286"/>
+      <c r="AD24" s="286"/>
+      <c r="AE24" s="286"/>
+      <c r="AF24" s="286"/>
+      <c r="AG24" s="286"/>
+      <c r="AH24" s="286"/>
+      <c r="AI24" s="286"/>
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="87"/>
-      <c r="B25" s="287"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="291"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="291"/>
-      <c r="O25" s="291"/>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="291"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="291"/>
-      <c r="T25" s="291"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
-      <c r="Y25" s="285"/>
-      <c r="Z25" s="285"/>
-      <c r="AA25" s="285"/>
-      <c r="AB25" s="285"/>
-      <c r="AC25" s="285"/>
-      <c r="AD25" s="285"/>
-      <c r="AE25" s="285"/>
-      <c r="AF25" s="285"/>
-      <c r="AG25" s="285"/>
-      <c r="AH25" s="285"/>
-      <c r="AI25" s="285"/>
+      <c r="B25" s="288"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="288"/>
+      <c r="F25" s="288"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="286"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="286"/>
+      <c r="AI25" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -18660,33 +18639,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -3447,6 +3447,138 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3456,10 +3588,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3471,167 +3633,41 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3642,12 +3678,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3675,83 +3705,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3761,32 +3748,156 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3800,149 +3911,62 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3967,30 +3991,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9708,57 +9708,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="193" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="149" t="s">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="151">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="144"/>
-      <c r="AI1" s="145"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9766,53 +9766,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="193" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="143" t="str">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="151" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="145"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9820,43 +9820,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="145"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9995,52 +9995,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="164" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="164" t="s">
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="165"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="158"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10051,52 +10051,52 @@
       <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169">
+      <c r="C8" s="161"/>
+      <c r="D8" s="162">
         <v>43718</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="167" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="176" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="177" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="178"/>
-      <c r="W8" s="178"/>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="178"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="173" t="s">
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="175"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="168"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -10105,40 +10105,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="183"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="180"/>
+      <c r="AH9" s="180"/>
+      <c r="AI9" s="181"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -10147,40 +10147,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="183"/>
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="180"/>
+      <c r="AH10" s="180"/>
+      <c r="AI10" s="181"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -10189,40 +10189,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
+      <c r="Y11" s="183"/>
+      <c r="Z11" s="183"/>
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="184"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="180"/>
+      <c r="AH11" s="180"/>
+      <c r="AI11" s="181"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -10231,40 +10231,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="179"/>
+      <c r="AG12" s="180"/>
+      <c r="AH12" s="180"/>
+      <c r="AI12" s="181"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -10273,40 +10273,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="92"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
+      <c r="Y13" s="183"/>
+      <c r="Z13" s="183"/>
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="183"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="179"/>
+      <c r="AG13" s="180"/>
+      <c r="AH13" s="180"/>
+      <c r="AI13" s="181"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -10315,40 +10315,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="92"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
+      <c r="Y14" s="183"/>
+      <c r="Z14" s="183"/>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="179"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="180"/>
+      <c r="AI14" s="181"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -10357,40 +10357,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="92"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
+      <c r="Y15" s="183"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="183"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="180"/>
+      <c r="AH15" s="180"/>
+      <c r="AI15" s="181"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -10399,40 +10399,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
+      <c r="Y16" s="183"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="184"/>
+      <c r="AF16" s="179"/>
+      <c r="AG16" s="180"/>
+      <c r="AH16" s="180"/>
+      <c r="AI16" s="181"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -10441,40 +10441,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="92"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="183"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="184"/>
+      <c r="AF17" s="179"/>
+      <c r="AG17" s="180"/>
+      <c r="AH17" s="180"/>
+      <c r="AI17" s="181"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -10483,40 +10483,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="92"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="183"/>
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="180"/>
+      <c r="AH18" s="180"/>
+      <c r="AI18" s="181"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -10525,40 +10525,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="183"/>
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="183"/>
+      <c r="Z19" s="183"/>
+      <c r="AA19" s="183"/>
+      <c r="AB19" s="183"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="184"/>
+      <c r="AF19" s="179"/>
+      <c r="AG19" s="180"/>
+      <c r="AH19" s="180"/>
+      <c r="AI19" s="181"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -10567,40 +10567,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="92"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="183"/>
+      <c r="Z20" s="183"/>
+      <c r="AA20" s="183"/>
+      <c r="AB20" s="183"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="184"/>
+      <c r="AF20" s="179"/>
+      <c r="AG20" s="180"/>
+      <c r="AH20" s="180"/>
+      <c r="AI20" s="181"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -10609,40 +10609,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="92"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="184"/>
+      <c r="AF21" s="179"/>
+      <c r="AG21" s="180"/>
+      <c r="AH21" s="180"/>
+      <c r="AI21" s="181"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -10651,40 +10651,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="92"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="179"/>
+      <c r="AG22" s="180"/>
+      <c r="AH22" s="180"/>
+      <c r="AI22" s="181"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -10693,40 +10693,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="179"/>
+      <c r="AG23" s="180"/>
+      <c r="AH23" s="180"/>
+      <c r="AI23" s="181"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -10735,40 +10735,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="179"/>
+      <c r="AG24" s="180"/>
+      <c r="AH24" s="180"/>
+      <c r="AI24" s="181"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -10777,40 +10777,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="184"/>
+      <c r="AF25" s="179"/>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="181"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -10819,40 +10819,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="183"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="179"/>
+      <c r="AG26" s="180"/>
+      <c r="AH26" s="180"/>
+      <c r="AI26" s="181"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -10861,40 +10861,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="184"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="180"/>
+      <c r="AH27" s="180"/>
+      <c r="AI27" s="181"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -10903,40 +10903,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="179"/>
+      <c r="AG28" s="180"/>
+      <c r="AH28" s="180"/>
+      <c r="AI28" s="181"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -10945,40 +10945,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="92"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="183"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="184"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="181"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -10987,40 +10987,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="92"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="147"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="179"/>
+      <c r="AG30" s="180"/>
+      <c r="AH30" s="180"/>
+      <c r="AI30" s="181"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11029,40 +11029,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="92"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="147"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="184"/>
+      <c r="AF31" s="179"/>
+      <c r="AG31" s="180"/>
+      <c r="AH31" s="180"/>
+      <c r="AI31" s="181"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -11071,40 +11071,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="92"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="183"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="179"/>
+      <c r="AG32" s="180"/>
+      <c r="AH32" s="180"/>
+      <c r="AI32" s="181"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -11113,40 +11113,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="92"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+      <c r="AA33" s="183"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="184"/>
+      <c r="AF33" s="179"/>
+      <c r="AG33" s="180"/>
+      <c r="AH33" s="180"/>
+      <c r="AI33" s="181"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -11239,40 +11239,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -11297,127 +11384,40 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11572,157 +11572,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="200" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="200" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13022,6 +13022,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13033,12 +13039,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13067,157 +13067,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -13248,146 +13248,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="224" t="s">
+      <c r="D17" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224" t="s">
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
-      <c r="X17" s="224"/>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
-      <c r="AA17" s="224"/>
-      <c r="AB17" s="224"/>
-      <c r="AC17" s="224"/>
-      <c r="AD17" s="224"/>
-      <c r="AE17" s="224"/>
-      <c r="AF17" s="224"/>
-      <c r="AG17" s="224"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
+      <c r="AA17" s="223"/>
+      <c r="AB17" s="223"/>
+      <c r="AC17" s="223"/>
+      <c r="AD17" s="223"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="223"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="221" t="s">
+      <c r="D18" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221" t="s">
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="221"/>
-      <c r="X18" s="221"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="221"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="221"/>
-      <c r="AE18" s="221"/>
-      <c r="AF18" s="221"/>
-      <c r="AG18" s="221"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="224"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="224"/>
+      <c r="U18" s="224"/>
+      <c r="V18" s="224"/>
+      <c r="W18" s="224"/>
+      <c r="X18" s="224"/>
+      <c r="Y18" s="224"/>
+      <c r="Z18" s="224"/>
+      <c r="AA18" s="224"/>
+      <c r="AB18" s="224"/>
+      <c r="AC18" s="224"/>
+      <c r="AD18" s="224"/>
+      <c r="AE18" s="224"/>
+      <c r="AF18" s="224"/>
+      <c r="AG18" s="224"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="228" t="s">
+      <c r="D19" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="229" t="s">
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="228"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="228"/>
-      <c r="R19" s="228"/>
-      <c r="S19" s="228"/>
-      <c r="T19" s="228"/>
-      <c r="U19" s="228"/>
-      <c r="V19" s="228"/>
-      <c r="W19" s="228"/>
-      <c r="X19" s="228"/>
-      <c r="Y19" s="228"/>
-      <c r="Z19" s="228"/>
-      <c r="AA19" s="228"/>
-      <c r="AB19" s="228"/>
-      <c r="AC19" s="228"/>
-      <c r="AD19" s="228"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="228"/>
-      <c r="AG19" s="228"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="221"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="221"/>
+      <c r="AG19" s="221"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227" t="s">
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="226" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="226"/>
-      <c r="M20" s="226"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="226"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="226"/>
-      <c r="S20" s="226"/>
-      <c r="T20" s="226"/>
-      <c r="U20" s="226"/>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="226"/>
-      <c r="Y20" s="226"/>
-      <c r="Z20" s="226"/>
-      <c r="AA20" s="226"/>
-      <c r="AB20" s="226"/>
-      <c r="AC20" s="226"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="226"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="226"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="225"/>
+      <c r="R20" s="225"/>
+      <c r="S20" s="225"/>
+      <c r="T20" s="225"/>
+      <c r="U20" s="225"/>
+      <c r="V20" s="225"/>
+      <c r="W20" s="225"/>
+      <c r="X20" s="225"/>
+      <c r="Y20" s="225"/>
+      <c r="Z20" s="225"/>
+      <c r="AA20" s="225"/>
+      <c r="AB20" s="225"/>
+      <c r="AC20" s="225"/>
+      <c r="AD20" s="225"/>
+      <c r="AE20" s="225"/>
+      <c r="AF20" s="225"/>
+      <c r="AG20" s="225"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -13395,148 +13395,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="224" t="s">
+      <c r="D24" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="224" t="s">
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="224"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="224"/>
-      <c r="U24" s="224"/>
-      <c r="V24" s="224"/>
-      <c r="W24" s="224"/>
-      <c r="X24" s="224"/>
-      <c r="Y24" s="224"/>
-      <c r="Z24" s="224"/>
-      <c r="AA24" s="224"/>
-      <c r="AB24" s="224"/>
-      <c r="AC24" s="224"/>
-      <c r="AD24" s="224"/>
-      <c r="AE24" s="224"/>
-      <c r="AF24" s="224"/>
-      <c r="AG24" s="224"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="223"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="223"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="221" t="s">
+      <c r="D25" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221" t="s">
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="221"/>
-      <c r="AF25" s="221"/>
-      <c r="AG25" s="221"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="224"/>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="224"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="224"/>
+      <c r="AF25" s="224"/>
+      <c r="AG25" s="224"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="221" t="s">
+      <c r="D26" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221" t="s">
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="221"/>
-      <c r="AF26" s="221"/>
-      <c r="AG26" s="221"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="224"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="224"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="224"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="224"/>
+      <c r="AF26" s="224"/>
+      <c r="AG26" s="224"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="221" t="s">
+      <c r="D27" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="221" t="s">
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="221"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="221"/>
-      <c r="AC27" s="221"/>
-      <c r="AD27" s="221"/>
-      <c r="AE27" s="221"/>
-      <c r="AF27" s="221"/>
-      <c r="AG27" s="221"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="224"/>
+      <c r="Z27" s="224"/>
+      <c r="AA27" s="224"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="224"/>
+      <c r="AE27" s="224"/>
+      <c r="AF27" s="224"/>
+      <c r="AG27" s="224"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -13544,216 +13544,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="224" t="s">
+      <c r="D31" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224" t="s">
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="224"/>
-      <c r="R31" s="224"/>
-      <c r="S31" s="224"/>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="224"/>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="224"/>
-      <c r="AB31" s="224"/>
-      <c r="AC31" s="224"/>
-      <c r="AD31" s="224"/>
-      <c r="AE31" s="224"/>
-      <c r="AF31" s="224"/>
-      <c r="AG31" s="224"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="223"/>
+      <c r="V31" s="223"/>
+      <c r="W31" s="223"/>
+      <c r="X31" s="223"/>
+      <c r="Y31" s="223"/>
+      <c r="Z31" s="223"/>
+      <c r="AA31" s="223"/>
+      <c r="AB31" s="223"/>
+      <c r="AC31" s="223"/>
+      <c r="AD31" s="223"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="223"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="225" t="s">
+      <c r="D32" s="227" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="225" t="s">
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="227" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="227"/>
+      <c r="N32" s="227"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="227"/>
+      <c r="Q32" s="227"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="227"/>
+      <c r="AF32" s="227"/>
+      <c r="AG32" s="227"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="222"/>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="222" t="s">
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="222"/>
-      <c r="M33" s="222"/>
-      <c r="N33" s="222"/>
-      <c r="O33" s="222"/>
-      <c r="P33" s="222"/>
-      <c r="Q33" s="222"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="222"/>
-      <c r="AG33" s="222"/>
+      <c r="L33" s="228"/>
+      <c r="M33" s="228"/>
+      <c r="N33" s="228"/>
+      <c r="O33" s="228"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="228"/>
+      <c r="V33" s="228"/>
+      <c r="W33" s="228"/>
+      <c r="X33" s="228"/>
+      <c r="Y33" s="228"/>
+      <c r="Z33" s="228"/>
+      <c r="AA33" s="228"/>
+      <c r="AB33" s="228"/>
+      <c r="AC33" s="228"/>
+      <c r="AD33" s="228"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="228"/>
+      <c r="AG33" s="228"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="227" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="225" t="s">
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="225"/>
-      <c r="O34" s="225"/>
-      <c r="P34" s="225"/>
-      <c r="Q34" s="225"/>
-      <c r="R34" s="225"/>
-      <c r="S34" s="225"/>
-      <c r="T34" s="225"/>
-      <c r="U34" s="225"/>
-      <c r="V34" s="225"/>
-      <c r="W34" s="225"/>
-      <c r="X34" s="225"/>
-      <c r="Y34" s="225"/>
-      <c r="Z34" s="225"/>
-      <c r="AA34" s="225"/>
-      <c r="AB34" s="225"/>
-      <c r="AC34" s="225"/>
-      <c r="AD34" s="225"/>
-      <c r="AE34" s="225"/>
-      <c r="AF34" s="225"/>
-      <c r="AG34" s="225"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="227"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="227"/>
+      <c r="P34" s="227"/>
+      <c r="Q34" s="227"/>
+      <c r="R34" s="227"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="227"/>
+      <c r="U34" s="227"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="227"/>
+      <c r="Y34" s="227"/>
+      <c r="Z34" s="227"/>
+      <c r="AA34" s="227"/>
+      <c r="AB34" s="227"/>
+      <c r="AC34" s="227"/>
+      <c r="AD34" s="227"/>
+      <c r="AE34" s="227"/>
+      <c r="AF34" s="227"/>
+      <c r="AG34" s="227"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="222"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="222"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="222"/>
-      <c r="K35" s="222" t="s">
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="222"/>
-      <c r="M35" s="222"/>
-      <c r="N35" s="222"/>
-      <c r="O35" s="222"/>
-      <c r="P35" s="222"/>
-      <c r="Q35" s="222"/>
-      <c r="R35" s="222"/>
-      <c r="S35" s="222"/>
-      <c r="T35" s="222"/>
-      <c r="U35" s="222"/>
-      <c r="V35" s="222"/>
-      <c r="W35" s="222"/>
-      <c r="X35" s="222"/>
-      <c r="Y35" s="222"/>
-      <c r="Z35" s="222"/>
-      <c r="AA35" s="222"/>
-      <c r="AB35" s="222"/>
-      <c r="AC35" s="222"/>
-      <c r="AD35" s="222"/>
-      <c r="AE35" s="222"/>
-      <c r="AF35" s="222"/>
-      <c r="AG35" s="222"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
+      <c r="O35" s="228"/>
+      <c r="P35" s="228"/>
+      <c r="Q35" s="228"/>
+      <c r="R35" s="228"/>
+      <c r="S35" s="228"/>
+      <c r="T35" s="228"/>
+      <c r="U35" s="228"/>
+      <c r="V35" s="228"/>
+      <c r="W35" s="228"/>
+      <c r="X35" s="228"/>
+      <c r="Y35" s="228"/>
+      <c r="Z35" s="228"/>
+      <c r="AA35" s="228"/>
+      <c r="AB35" s="228"/>
+      <c r="AC35" s="228"/>
+      <c r="AD35" s="228"/>
+      <c r="AE35" s="228"/>
+      <c r="AF35" s="228"/>
+      <c r="AG35" s="228"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="223" t="s">
+      <c r="D36" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="223" t="s">
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="223"/>
-      <c r="M36" s="223"/>
-      <c r="N36" s="223"/>
-      <c r="O36" s="223"/>
-      <c r="P36" s="223"/>
-      <c r="Q36" s="223"/>
-      <c r="R36" s="223"/>
-      <c r="S36" s="223"/>
-      <c r="T36" s="223"/>
-      <c r="U36" s="223"/>
-      <c r="V36" s="223"/>
-      <c r="W36" s="223"/>
-      <c r="X36" s="223"/>
-      <c r="Y36" s="223"/>
-      <c r="Z36" s="223"/>
-      <c r="AA36" s="223"/>
-      <c r="AB36" s="223"/>
-      <c r="AC36" s="223"/>
-      <c r="AD36" s="223"/>
-      <c r="AE36" s="223"/>
-      <c r="AF36" s="223"/>
-      <c r="AG36" s="223"/>
+      <c r="L36" s="229"/>
+      <c r="M36" s="229"/>
+      <c r="N36" s="229"/>
+      <c r="O36" s="229"/>
+      <c r="P36" s="229"/>
+      <c r="Q36" s="229"/>
+      <c r="R36" s="229"/>
+      <c r="S36" s="229"/>
+      <c r="T36" s="229"/>
+      <c r="U36" s="229"/>
+      <c r="V36" s="229"/>
+      <c r="W36" s="229"/>
+      <c r="X36" s="229"/>
+      <c r="Y36" s="229"/>
+      <c r="Z36" s="229"/>
+      <c r="AA36" s="229"/>
+      <c r="AB36" s="229"/>
+      <c r="AC36" s="229"/>
+      <c r="AD36" s="229"/>
+      <c r="AE36" s="229"/>
+      <c r="AF36" s="229"/>
+      <c r="AG36" s="229"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="93"/>
@@ -13793,76 +13793,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="224" t="s">
+      <c r="D40" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="224" t="s">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="224"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="224"/>
-      <c r="O40" s="224"/>
-      <c r="P40" s="224"/>
-      <c r="Q40" s="224"/>
-      <c r="R40" s="224"/>
-      <c r="S40" s="224"/>
-      <c r="T40" s="224"/>
-      <c r="U40" s="224"/>
-      <c r="V40" s="224"/>
-      <c r="W40" s="224"/>
-      <c r="X40" s="224"/>
-      <c r="Y40" s="224"/>
-      <c r="Z40" s="224"/>
-      <c r="AA40" s="224"/>
-      <c r="AB40" s="224"/>
-      <c r="AC40" s="224"/>
-      <c r="AD40" s="224"/>
-      <c r="AE40" s="224"/>
-      <c r="AF40" s="224"/>
-      <c r="AG40" s="224"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="223"/>
+      <c r="O40" s="223"/>
+      <c r="P40" s="223"/>
+      <c r="Q40" s="223"/>
+      <c r="R40" s="223"/>
+      <c r="S40" s="223"/>
+      <c r="T40" s="223"/>
+      <c r="U40" s="223"/>
+      <c r="V40" s="223"/>
+      <c r="W40" s="223"/>
+      <c r="X40" s="223"/>
+      <c r="Y40" s="223"/>
+      <c r="Z40" s="223"/>
+      <c r="AA40" s="223"/>
+      <c r="AB40" s="223"/>
+      <c r="AC40" s="223"/>
+      <c r="AD40" s="223"/>
+      <c r="AE40" s="223"/>
+      <c r="AF40" s="223"/>
+      <c r="AG40" s="223"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="221" t="s">
+      <c r="D41" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221" t="s">
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="221"/>
-      <c r="P41" s="221"/>
-      <c r="Q41" s="221"/>
-      <c r="R41" s="221"/>
-      <c r="S41" s="221"/>
-      <c r="T41" s="221"/>
-      <c r="U41" s="221"/>
-      <c r="V41" s="221"/>
-      <c r="W41" s="221"/>
-      <c r="X41" s="221"/>
-      <c r="Y41" s="221"/>
-      <c r="Z41" s="221"/>
-      <c r="AA41" s="221"/>
-      <c r="AB41" s="221"/>
-      <c r="AC41" s="221"/>
-      <c r="AD41" s="221"/>
-      <c r="AE41" s="221"/>
-      <c r="AF41" s="221"/>
-      <c r="AG41" s="221"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="224"/>
+      <c r="P41" s="224"/>
+      <c r="Q41" s="224"/>
+      <c r="R41" s="224"/>
+      <c r="S41" s="224"/>
+      <c r="T41" s="224"/>
+      <c r="U41" s="224"/>
+      <c r="V41" s="224"/>
+      <c r="W41" s="224"/>
+      <c r="X41" s="224"/>
+      <c r="Y41" s="224"/>
+      <c r="Z41" s="224"/>
+      <c r="AA41" s="224"/>
+      <c r="AB41" s="224"/>
+      <c r="AC41" s="224"/>
+      <c r="AD41" s="224"/>
+      <c r="AE41" s="224"/>
+      <c r="AF41" s="224"/>
+      <c r="AG41" s="224"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -14749,6 +14749,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14765,39 +14798,6 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14821,7 +14821,7 @@
   <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -14836,163 +14836,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -15003,571 +15003,635 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="251" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="260" t="s">
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="262"/>
-      <c r="O7" s="270" t="s">
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="258"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="224" t="s">
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="224"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="224"/>
-      <c r="X7" s="271" t="s">
+      <c r="S7" s="223"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="223"/>
+      <c r="V7" s="223"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="272"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="270" t="s">
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="270"/>
+      <c r="AC7" s="271"/>
+      <c r="AD7" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="270"/>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="270"/>
+      <c r="AE7" s="254"/>
+      <c r="AF7" s="254"/>
+      <c r="AG7" s="254"/>
+      <c r="AH7" s="254"/>
+      <c r="AI7" s="254"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="274" t="s">
+      <c r="AL7" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" s="275"/>
-      <c r="AN7" s="275"/>
-      <c r="AO7" s="275"/>
-      <c r="AP7" s="275"/>
-      <c r="AQ7" s="275"/>
-      <c r="AR7" s="275"/>
-      <c r="AS7" s="275"/>
-      <c r="AT7" s="275"/>
-      <c r="AU7" s="275"/>
-      <c r="AV7" s="275"/>
-      <c r="AW7" s="275"/>
-      <c r="AX7" s="274" t="s">
+      <c r="AM7" s="231"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="231"/>
+      <c r="AQ7" s="231"/>
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="231"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="231"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="231"/>
+      <c r="AX7" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="275"/>
-      <c r="AZ7" s="275"/>
-      <c r="BA7" s="275"/>
-      <c r="BB7" s="275"/>
-      <c r="BC7" s="277" t="s">
+      <c r="AY7" s="231"/>
+      <c r="AZ7" s="231"/>
+      <c r="BA7" s="231"/>
+      <c r="BB7" s="231"/>
+      <c r="BC7" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="278"/>
-      <c r="BE7" s="278"/>
-      <c r="BF7" s="278"/>
-      <c r="BG7" s="279"/>
-      <c r="BH7" s="275" t="s">
+      <c r="BD7" s="241"/>
+      <c r="BE7" s="241"/>
+      <c r="BF7" s="241"/>
+      <c r="BG7" s="242"/>
+      <c r="BH7" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="275"/>
-      <c r="BJ7" s="275"/>
-      <c r="BK7" s="275"/>
-      <c r="BL7" s="275"/>
-      <c r="BM7" s="275"/>
-      <c r="BN7" s="275"/>
+      <c r="BI7" s="231"/>
+      <c r="BJ7" s="231"/>
+      <c r="BK7" s="231"/>
+      <c r="BL7" s="231"/>
+      <c r="BM7" s="231"/>
+      <c r="BN7" s="231"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="267"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="265"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="269" t="s">
+      <c r="A8" s="250"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="259"/>
-      <c r="T8" s="259" t="s">
+      <c r="S8" s="253"/>
+      <c r="T8" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="259"/>
-      <c r="V8" s="256" t="s">
+      <c r="U8" s="253"/>
+      <c r="V8" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="257"/>
-      <c r="X8" s="258" t="s">
+      <c r="W8" s="267"/>
+      <c r="X8" s="268" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="259"/>
-      <c r="AA8" s="284" t="s">
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="272" t="s">
         <v>162</v>
       </c>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="270"/>
-      <c r="AE8" s="270"/>
-      <c r="AF8" s="270"/>
-      <c r="AG8" s="270"/>
-      <c r="AH8" s="270"/>
-      <c r="AI8" s="270"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="254"/>
+      <c r="AE8" s="254"/>
+      <c r="AF8" s="254"/>
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="254"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="275"/>
-      <c r="AM8" s="275"/>
-      <c r="AN8" s="275"/>
-      <c r="AO8" s="275"/>
-      <c r="AP8" s="275"/>
-      <c r="AQ8" s="275"/>
-      <c r="AR8" s="275"/>
-      <c r="AS8" s="275"/>
-      <c r="AT8" s="275"/>
-      <c r="AU8" s="275"/>
-      <c r="AV8" s="275"/>
-      <c r="AW8" s="275"/>
-      <c r="AX8" s="275"/>
-      <c r="AY8" s="275"/>
-      <c r="AZ8" s="275"/>
-      <c r="BA8" s="275"/>
-      <c r="BB8" s="275"/>
-      <c r="BC8" s="280"/>
-      <c r="BD8" s="281"/>
-      <c r="BE8" s="281"/>
-      <c r="BF8" s="281"/>
-      <c r="BG8" s="282"/>
-      <c r="BH8" s="275"/>
-      <c r="BI8" s="275"/>
-      <c r="BJ8" s="275"/>
-      <c r="BK8" s="275"/>
-      <c r="BL8" s="275"/>
-      <c r="BM8" s="275"/>
-      <c r="BN8" s="275"/>
+      <c r="AL8" s="231"/>
+      <c r="AM8" s="231"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="231"/>
+      <c r="AP8" s="231"/>
+      <c r="AQ8" s="231"/>
+      <c r="AR8" s="231"/>
+      <c r="AS8" s="231"/>
+      <c r="AT8" s="231"/>
+      <c r="AU8" s="231"/>
+      <c r="AV8" s="231"/>
+      <c r="AW8" s="231"/>
+      <c r="AX8" s="231"/>
+      <c r="AY8" s="231"/>
+      <c r="AZ8" s="231"/>
+      <c r="BA8" s="231"/>
+      <c r="BB8" s="231"/>
+      <c r="BC8" s="243"/>
+      <c r="BD8" s="244"/>
+      <c r="BE8" s="244"/>
+      <c r="BF8" s="244"/>
+      <c r="BG8" s="245"/>
+      <c r="BH8" s="231"/>
+      <c r="BI8" s="231"/>
+      <c r="BJ8" s="231"/>
+      <c r="BK8" s="231"/>
+      <c r="BL8" s="231"/>
+      <c r="BM8" s="231"/>
+      <c r="BN8" s="231"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="242" t="s">
+      <c r="B9" s="278" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="239" t="s">
+      <c r="C9" s="279"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="273" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
-      <c r="M9" s="240"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="248" t="s">
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="249"/>
-      <c r="Q9" s="250"/>
-      <c r="R9" s="233"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="251">
+      <c r="P9" s="276"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="263">
         <v>10</v>
       </c>
-      <c r="U9" s="252"/>
-      <c r="V9" s="237"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="255"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="285"/>
-      <c r="AE9" s="240"/>
-      <c r="AF9" s="240"/>
-      <c r="AG9" s="240"/>
-      <c r="AH9" s="240"/>
-      <c r="AI9" s="241"/>
+      <c r="U9" s="264"/>
+      <c r="V9" s="232"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="265"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="239"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="236"/>
+      <c r="AF9" s="236"/>
+      <c r="AG9" s="236"/>
+      <c r="AH9" s="236"/>
+      <c r="AI9" s="237"/>
       <c r="AJ9" s="38"/>
-      <c r="AL9" s="283" t="s">
+      <c r="AL9" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="AM9" s="136"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="136"/>
-      <c r="AR9" s="136"/>
-      <c r="AS9" s="136"/>
-      <c r="AT9" s="136"/>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="231" t="s">
+      <c r="AM9" s="180"/>
+      <c r="AN9" s="180"/>
+      <c r="AO9" s="180"/>
+      <c r="AP9" s="180"/>
+      <c r="AQ9" s="180"/>
+      <c r="AR9" s="180"/>
+      <c r="AS9" s="180"/>
+      <c r="AT9" s="180"/>
+      <c r="AU9" s="180"/>
+      <c r="AV9" s="180"/>
+      <c r="AW9" s="181"/>
+      <c r="AX9" s="246" t="s">
         <v>185</v>
       </c>
-      <c r="AY9" s="232"/>
-      <c r="AZ9" s="232"/>
-      <c r="BA9" s="232"/>
-      <c r="BB9" s="232"/>
-      <c r="BC9" s="283"/>
-      <c r="BD9" s="147"/>
-      <c r="BE9" s="147"/>
-      <c r="BF9" s="147"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="230"/>
-      <c r="BI9" s="230"/>
-      <c r="BJ9" s="230"/>
-      <c r="BK9" s="230"/>
-      <c r="BL9" s="230"/>
-      <c r="BM9" s="230"/>
-      <c r="BN9" s="230"/>
+      <c r="AY9" s="247"/>
+      <c r="AZ9" s="247"/>
+      <c r="BA9" s="247"/>
+      <c r="BB9" s="247"/>
+      <c r="BC9" s="234"/>
+      <c r="BD9" s="183"/>
+      <c r="BE9" s="183"/>
+      <c r="BF9" s="183"/>
+      <c r="BG9" s="184"/>
+      <c r="BH9" s="248"/>
+      <c r="BI9" s="248"/>
+      <c r="BJ9" s="248"/>
+      <c r="BK9" s="248"/>
+      <c r="BL9" s="248"/>
+      <c r="BM9" s="248"/>
+      <c r="BN9" s="248"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="242" t="s">
+      <c r="B10" s="278" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="239" t="s">
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="240"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="240"/>
-      <c r="M10" s="240"/>
-      <c r="N10" s="241"/>
-      <c r="O10" s="248" t="s">
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="249"/>
-      <c r="Q10" s="250"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="251">
+      <c r="P10" s="276"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="263">
         <v>128</v>
       </c>
-      <c r="U10" s="252"/>
-      <c r="V10" s="237"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="255"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="285"/>
-      <c r="AE10" s="240"/>
-      <c r="AF10" s="240"/>
-      <c r="AG10" s="240"/>
-      <c r="AH10" s="240"/>
-      <c r="AI10" s="241"/>
+      <c r="U10" s="264"/>
+      <c r="V10" s="232"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="265"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="239"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="236"/>
+      <c r="AG10" s="236"/>
+      <c r="AH10" s="236"/>
+      <c r="AI10" s="237"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="283" t="s">
+      <c r="AL10" s="234" t="s">
         <v>184</v>
       </c>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="136"/>
-      <c r="AP10" s="136"/>
-      <c r="AQ10" s="136"/>
-      <c r="AR10" s="136"/>
-      <c r="AS10" s="136"/>
-      <c r="AT10" s="136"/>
-      <c r="AU10" s="136"/>
-      <c r="AV10" s="136"/>
-      <c r="AW10" s="137"/>
-      <c r="AX10" s="231" t="s">
+      <c r="AM10" s="180"/>
+      <c r="AN10" s="180"/>
+      <c r="AO10" s="180"/>
+      <c r="AP10" s="180"/>
+      <c r="AQ10" s="180"/>
+      <c r="AR10" s="180"/>
+      <c r="AS10" s="180"/>
+      <c r="AT10" s="180"/>
+      <c r="AU10" s="180"/>
+      <c r="AV10" s="180"/>
+      <c r="AW10" s="181"/>
+      <c r="AX10" s="246" t="s">
         <v>186</v>
       </c>
-      <c r="AY10" s="232"/>
-      <c r="AZ10" s="232"/>
-      <c r="BA10" s="232"/>
-      <c r="BB10" s="232"/>
-      <c r="BC10" s="283" t="s">
+      <c r="AY10" s="247"/>
+      <c r="AZ10" s="247"/>
+      <c r="BA10" s="247"/>
+      <c r="BB10" s="247"/>
+      <c r="BC10" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="BD10" s="147"/>
-      <c r="BE10" s="147"/>
-      <c r="BF10" s="147"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="230"/>
-      <c r="BI10" s="230"/>
-      <c r="BJ10" s="230"/>
-      <c r="BK10" s="230"/>
-      <c r="BL10" s="230"/>
-      <c r="BM10" s="230"/>
-      <c r="BN10" s="230"/>
+      <c r="BD10" s="183"/>
+      <c r="BE10" s="183"/>
+      <c r="BF10" s="183"/>
+      <c r="BG10" s="184"/>
+      <c r="BH10" s="248"/>
+      <c r="BI10" s="248"/>
+      <c r="BJ10" s="248"/>
+      <c r="BK10" s="248"/>
+      <c r="BL10" s="248"/>
+      <c r="BM10" s="248"/>
+      <c r="BN10" s="248"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="242" t="s">
+      <c r="B11" s="278" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="239" t="s">
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="273" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="241"/>
-      <c r="O11" s="248" t="s">
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="275" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="250"/>
-      <c r="R11" s="233"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="251">
+      <c r="P11" s="276"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="263">
         <v>2</v>
       </c>
-      <c r="U11" s="252"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="253" t="s">
+      <c r="U11" s="264"/>
+      <c r="V11" s="232"/>
+      <c r="W11" s="233"/>
+      <c r="X11" s="274" t="s">
         <v>188</v>
       </c>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="240"/>
-      <c r="AF11" s="240"/>
-      <c r="AG11" s="240"/>
-      <c r="AH11" s="240"/>
-      <c r="AI11" s="241"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="239"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="236"/>
+      <c r="AF11" s="236"/>
+      <c r="AG11" s="236"/>
+      <c r="AH11" s="236"/>
+      <c r="AI11" s="237"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="283" t="s">
+      <c r="AL11" s="234" t="s">
         <v>163</v>
       </c>
-      <c r="AM11" s="147"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="148"/>
-      <c r="AX11" s="231" t="s">
+      <c r="AM11" s="183"/>
+      <c r="AN11" s="183"/>
+      <c r="AO11" s="183"/>
+      <c r="AP11" s="183"/>
+      <c r="AQ11" s="183"/>
+      <c r="AR11" s="183"/>
+      <c r="AS11" s="183"/>
+      <c r="AT11" s="183"/>
+      <c r="AU11" s="183"/>
+      <c r="AV11" s="183"/>
+      <c r="AW11" s="184"/>
+      <c r="AX11" s="246" t="s">
         <v>187</v>
       </c>
-      <c r="AY11" s="232"/>
-      <c r="AZ11" s="232"/>
-      <c r="BA11" s="232"/>
-      <c r="BB11" s="232"/>
-      <c r="BC11" s="146"/>
-      <c r="BD11" s="147"/>
-      <c r="BE11" s="147"/>
-      <c r="BF11" s="147"/>
-      <c r="BG11" s="148"/>
-      <c r="BH11" s="230"/>
-      <c r="BI11" s="230"/>
-      <c r="BJ11" s="230"/>
-      <c r="BK11" s="230"/>
-      <c r="BL11" s="230"/>
-      <c r="BM11" s="230"/>
-      <c r="BN11" s="230"/>
+      <c r="AY11" s="247"/>
+      <c r="AZ11" s="247"/>
+      <c r="BA11" s="247"/>
+      <c r="BB11" s="247"/>
+      <c r="BC11" s="182"/>
+      <c r="BD11" s="183"/>
+      <c r="BE11" s="183"/>
+      <c r="BF11" s="183"/>
+      <c r="BG11" s="184"/>
+      <c r="BH11" s="248"/>
+      <c r="BI11" s="248"/>
+      <c r="BJ11" s="248"/>
+      <c r="BK11" s="248"/>
+      <c r="BL11" s="248"/>
+      <c r="BM11" s="248"/>
+      <c r="BN11" s="248"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="242"/>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="241"/>
-      <c r="O12" s="248"/>
-      <c r="P12" s="249"/>
-      <c r="Q12" s="250"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="236"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="285"/>
-      <c r="AE12" s="240"/>
-      <c r="AF12" s="240"/>
-      <c r="AG12" s="240"/>
-      <c r="AH12" s="240"/>
-      <c r="AI12" s="241"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="263"/>
+      <c r="U12" s="264"/>
+      <c r="V12" s="232"/>
+      <c r="W12" s="233"/>
+      <c r="X12" s="265"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="236"/>
+      <c r="AF12" s="236"/>
+      <c r="AG12" s="236"/>
+      <c r="AH12" s="236"/>
+      <c r="AI12" s="237"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="283"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="136"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="231"/>
-      <c r="AY12" s="232"/>
-      <c r="AZ12" s="232"/>
-      <c r="BA12" s="232"/>
-      <c r="BB12" s="232"/>
-      <c r="BC12" s="146"/>
-      <c r="BD12" s="147"/>
-      <c r="BE12" s="147"/>
-      <c r="BF12" s="147"/>
-      <c r="BG12" s="148"/>
-      <c r="BH12" s="230"/>
-      <c r="BI12" s="230"/>
-      <c r="BJ12" s="230"/>
-      <c r="BK12" s="230"/>
-      <c r="BL12" s="230"/>
-      <c r="BM12" s="230"/>
-      <c r="BN12" s="230"/>
+      <c r="AL12" s="234"/>
+      <c r="AM12" s="180"/>
+      <c r="AN12" s="180"/>
+      <c r="AO12" s="180"/>
+      <c r="AP12" s="180"/>
+      <c r="AQ12" s="180"/>
+      <c r="AR12" s="180"/>
+      <c r="AS12" s="180"/>
+      <c r="AT12" s="180"/>
+      <c r="AU12" s="180"/>
+      <c r="AV12" s="180"/>
+      <c r="AW12" s="181"/>
+      <c r="AX12" s="246"/>
+      <c r="AY12" s="247"/>
+      <c r="AZ12" s="247"/>
+      <c r="BA12" s="247"/>
+      <c r="BB12" s="247"/>
+      <c r="BC12" s="182"/>
+      <c r="BD12" s="183"/>
+      <c r="BE12" s="183"/>
+      <c r="BF12" s="183"/>
+      <c r="BG12" s="184"/>
+      <c r="BH12" s="248"/>
+      <c r="BI12" s="248"/>
+      <c r="BJ12" s="248"/>
+      <c r="BK12" s="248"/>
+      <c r="BL12" s="248"/>
+      <c r="BM12" s="248"/>
+      <c r="BN12" s="248"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="245"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="241"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="249"/>
-      <c r="Q13" s="250"/>
-      <c r="R13" s="233"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="237"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="239"/>
-      <c r="AE13" s="240"/>
-      <c r="AF13" s="240"/>
-      <c r="AG13" s="240"/>
-      <c r="AH13" s="240"/>
-      <c r="AI13" s="241"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="273"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="275"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="255"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="264"/>
+      <c r="V13" s="232"/>
+      <c r="W13" s="233"/>
+      <c r="X13" s="265"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="239"/>
+      <c r="AD13" s="273"/>
+      <c r="AE13" s="236"/>
+      <c r="AF13" s="236"/>
+      <c r="AG13" s="236"/>
+      <c r="AH13" s="236"/>
+      <c r="AI13" s="237"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="283"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="136"/>
-      <c r="AU13" s="136"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="231"/>
-      <c r="AY13" s="232"/>
-      <c r="AZ13" s="232"/>
-      <c r="BA13" s="232"/>
-      <c r="BB13" s="232"/>
-      <c r="BC13" s="146"/>
-      <c r="BD13" s="147"/>
-      <c r="BE13" s="147"/>
-      <c r="BF13" s="147"/>
-      <c r="BG13" s="148"/>
-      <c r="BH13" s="230"/>
-      <c r="BI13" s="230"/>
-      <c r="BJ13" s="230"/>
-      <c r="BK13" s="230"/>
-      <c r="BL13" s="230"/>
-      <c r="BM13" s="230"/>
-      <c r="BN13" s="230"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="180"/>
+      <c r="AP13" s="180"/>
+      <c r="AQ13" s="180"/>
+      <c r="AR13" s="180"/>
+      <c r="AS13" s="180"/>
+      <c r="AT13" s="180"/>
+      <c r="AU13" s="180"/>
+      <c r="AV13" s="180"/>
+      <c r="AW13" s="181"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="247"/>
+      <c r="AZ13" s="247"/>
+      <c r="BA13" s="247"/>
+      <c r="BB13" s="247"/>
+      <c r="BC13" s="182"/>
+      <c r="BD13" s="183"/>
+      <c r="BE13" s="183"/>
+      <c r="BF13" s="183"/>
+      <c r="BG13" s="184"/>
+      <c r="BH13" s="248"/>
+      <c r="BI13" s="248"/>
+      <c r="BJ13" s="248"/>
+      <c r="BK13" s="248"/>
+      <c r="BL13" s="248"/>
+      <c r="BM13" s="248"/>
+      <c r="BN13" s="248"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
@@ -15584,79 +15648,15 @@
     <mergeCell ref="AL13:AW13"/>
     <mergeCell ref="BH9:BN9"/>
     <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15693,157 +15693,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -15856,49 +15856,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="268" t="s">
+      <c r="K8" s="298"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="298"/>
+      <c r="X8" s="299"/>
+      <c r="Y8" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15907,45 +15907,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="268" t="s">
+      <c r="A9" s="223"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
+      <c r="S9" s="301"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268" t="s">
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="251"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15986,16 +15986,16 @@
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
       <c r="J10" s="288" t="s">
         <v>64</v>
       </c>
@@ -16064,16 +16064,16 @@
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="295" t="s">
+      <c r="B11" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
       <c r="J11" s="288" t="s">
         <v>66</v>
       </c>
@@ -16142,16 +16142,16 @@
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="293" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
       <c r="J12" s="288" t="s">
         <v>66</v>
       </c>
@@ -16220,16 +16220,16 @@
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="299"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="296"/>
       <c r="J13" s="288" t="s">
         <v>67</v>
       </c>
@@ -16298,17 +16298,17 @@
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="302" t="s">
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="287" t="s">
         <v>171</v>
       </c>
       <c r="K14" s="288"/>
@@ -16376,17 +16376,17 @@
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="293" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="302" t="s">
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="287" t="s">
         <v>175</v>
       </c>
       <c r="K15" s="288"/>
@@ -16454,33 +16454,33 @@
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="295" t="s">
+      <c r="B16" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="300" t="s">
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="291" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
+      <c r="K16" s="292"/>
+      <c r="L16" s="292"/>
+      <c r="M16" s="292"/>
+      <c r="N16" s="292"/>
+      <c r="O16" s="292"/>
+      <c r="P16" s="292"/>
+      <c r="Q16" s="292"/>
+      <c r="R16" s="292"/>
+      <c r="S16" s="292"/>
+      <c r="T16" s="292"/>
+      <c r="U16" s="292"/>
+      <c r="V16" s="292"/>
+      <c r="W16" s="292"/>
+      <c r="X16" s="292"/>
       <c r="Y16" s="286"/>
       <c r="Z16" s="286"/>
       <c r="AA16" s="286"/>
@@ -16532,33 +16532,33 @@
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="295" t="s">
+      <c r="B17" s="289" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="301" t="s">
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="292" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="292"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="292"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="292"/>
+      <c r="R17" s="292"/>
+      <c r="S17" s="292"/>
+      <c r="T17" s="292"/>
+      <c r="U17" s="292"/>
+      <c r="V17" s="292"/>
+      <c r="W17" s="292"/>
+      <c r="X17" s="292"/>
       <c r="Y17" s="286"/>
       <c r="Z17" s="286"/>
       <c r="AA17" s="286"/>
@@ -16610,33 +16610,33 @@
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="295" t="s">
+      <c r="B18" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="300" t="s">
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="291" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="301"/>
-      <c r="X18" s="301"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="O18" s="292"/>
+      <c r="P18" s="292"/>
+      <c r="Q18" s="292"/>
+      <c r="R18" s="292"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="292"/>
+      <c r="W18" s="292"/>
+      <c r="X18" s="292"/>
       <c r="Y18" s="286"/>
       <c r="Z18" s="286"/>
       <c r="AA18" s="286"/>
@@ -17246,6 +17246,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17262,49 +17305,6 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17334,157 +17334,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17497,49 +17497,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="268" t="s">
+      <c r="K8" s="298"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="298"/>
+      <c r="X8" s="299"/>
+      <c r="Y8" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17577,45 +17577,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="268" t="s">
+      <c r="A9" s="223"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
+      <c r="S9" s="301"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268" t="s">
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="251"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="87"/>
-      <c r="B10" s="302"/>
+      <c r="B10" s="287"/>
       <c r="C10" s="288"/>
       <c r="D10" s="288"/>
       <c r="E10" s="288"/>
@@ -17662,21 +17662,21 @@
       <c r="G10" s="288"/>
       <c r="H10" s="288"/>
       <c r="I10" s="288"/>
-      <c r="J10" s="300"/>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="301"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="301"/>
-      <c r="X10" s="301"/>
+      <c r="J10" s="291"/>
+      <c r="K10" s="292"/>
+      <c r="L10" s="292"/>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="292"/>
+      <c r="Q10" s="292"/>
+      <c r="R10" s="292"/>
+      <c r="S10" s="292"/>
+      <c r="T10" s="292"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="292"/>
+      <c r="W10" s="292"/>
+      <c r="X10" s="292"/>
       <c r="Y10" s="286"/>
       <c r="Z10" s="286"/>
       <c r="AA10" s="286"/>
@@ -17943,13 +17943,13 @@
     <row r="14" spans="1:70">
       <c r="A14" s="87"/>
       <c r="B14" s="303"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
       <c r="J14" s="288"/>
       <c r="K14" s="288"/>
       <c r="L14" s="288"/>
@@ -18014,14 +18014,14 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="87"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="299"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="295"/>
+      <c r="I15" s="296"/>
       <c r="J15" s="288"/>
       <c r="K15" s="288"/>
       <c r="L15" s="288"/>
@@ -18087,13 +18087,13 @@
     <row r="16" spans="1:70">
       <c r="A16" s="87"/>
       <c r="B16" s="303"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="288"/>
       <c r="K16" s="288"/>
       <c r="L16" s="288"/>
@@ -18374,7 +18374,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="87"/>
-      <c r="B20" s="301"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="288"/>
       <c r="D20" s="288"/>
       <c r="E20" s="288"/>
@@ -18411,7 +18411,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="87"/>
-      <c r="B21" s="301"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="288"/>
       <c r="D21" s="288"/>
       <c r="E21" s="288"/>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="87"/>
-      <c r="B22" s="301"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
       <c r="E22" s="288"/>
@@ -18493,21 +18493,21 @@
       <c r="G23" s="288"/>
       <c r="H23" s="288"/>
       <c r="I23" s="288"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="292"/>
+      <c r="R23" s="292"/>
+      <c r="S23" s="292"/>
+      <c r="T23" s="292"/>
+      <c r="U23" s="292"/>
+      <c r="V23" s="292"/>
+      <c r="W23" s="292"/>
+      <c r="X23" s="292"/>
       <c r="Y23" s="286"/>
       <c r="Z23" s="286"/>
       <c r="AA23" s="286"/>
@@ -18530,21 +18530,21 @@
       <c r="G24" s="288"/>
       <c r="H24" s="288"/>
       <c r="I24" s="288"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="292"/>
+      <c r="Q24" s="292"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="292"/>
       <c r="Y24" s="286"/>
       <c r="Z24" s="286"/>
       <c r="AA24" s="286"/>
@@ -18567,21 +18567,21 @@
       <c r="G25" s="288"/>
       <c r="H25" s="288"/>
       <c r="I25" s="288"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="292"/>
+      <c r="Q25" s="292"/>
+      <c r="R25" s="292"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="292"/>
       <c r="Y25" s="286"/>
       <c r="Z25" s="286"/>
       <c r="AA25" s="286"/>
@@ -18596,12 +18596,71 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="B15:I15"/>
@@ -18618,71 +18677,12 @@
     <mergeCell ref="AC12:AI12"/>
     <mergeCell ref="AC13:AI13"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="188">
   <si>
     <t>PJ名</t>
   </si>
@@ -1999,13 +1999,6 @@
   </si>
   <si>
     <t>数値バリデーション（整数）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>全角文字</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -3447,15 +3440,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3495,15 +3617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3513,135 +3626,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3669,41 +3698,26 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3711,26 +3725,173 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3740,34 +3901,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3792,181 +3925,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3991,6 +3960,30 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9708,57 +9701,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="185" t="s">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9766,53 +9759,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="143" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9820,43 +9813,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9995,52 +9988,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="166"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="165"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10051,52 +10044,52 @@
       <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162">
+      <c r="C8" s="168"/>
+      <c r="D8" s="169">
         <v>43718</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="160" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="170" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="166" t="s">
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="168"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -10105,40 +10098,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -10147,40 +10140,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -10189,40 +10182,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -10231,40 +10224,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -10273,40 +10266,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="92"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -10315,40 +10308,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="92"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -10357,40 +10350,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="92"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -10399,40 +10392,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -10441,40 +10434,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="92"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -10483,40 +10476,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="92"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -10525,40 +10518,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -10567,40 +10560,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="92"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -10609,40 +10602,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="92"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -10651,40 +10644,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="92"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -10693,40 +10686,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -10735,40 +10728,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -10777,40 +10770,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -10819,40 +10812,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -10861,40 +10854,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -10903,40 +10896,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -10945,40 +10938,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="92"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -10987,40 +10980,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="92"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11029,40 +11022,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="92"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -11071,40 +11064,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="92"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -11113,40 +11106,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="92"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -11239,6 +11232,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11263,161 +11411,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11572,157 +11565,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13022,12 +13015,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13039,6 +13026,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13067,157 +13060,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -13248,146 +13241,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="223" t="s">
+      <c r="D17" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223" t="s">
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
-      <c r="AA17" s="223"/>
-      <c r="AB17" s="223"/>
-      <c r="AC17" s="223"/>
-      <c r="AD17" s="223"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="223"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="224"/>
+      <c r="AE17" s="224"/>
+      <c r="AF17" s="224"/>
+      <c r="AG17" s="224"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
-      <c r="X18" s="224"/>
-      <c r="Y18" s="224"/>
-      <c r="Z18" s="224"/>
-      <c r="AA18" s="224"/>
-      <c r="AB18" s="224"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="224"/>
-      <c r="AE18" s="224"/>
-      <c r="AF18" s="224"/>
-      <c r="AG18" s="224"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="221"/>
+      <c r="AG18" s="221"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="222" t="s">
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="221"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="221"/>
-      <c r="AF19" s="221"/>
-      <c r="AG19" s="221"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="228"/>
+      <c r="R19" s="228"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="228"/>
+      <c r="U19" s="228"/>
+      <c r="V19" s="228"/>
+      <c r="W19" s="228"/>
+      <c r="X19" s="228"/>
+      <c r="Y19" s="228"/>
+      <c r="Z19" s="228"/>
+      <c r="AA19" s="228"/>
+      <c r="AB19" s="228"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="228"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="226" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="225"/>
-      <c r="T20" s="225"/>
-      <c r="U20" s="225"/>
-      <c r="V20" s="225"/>
-      <c r="W20" s="225"/>
-      <c r="X20" s="225"/>
-      <c r="Y20" s="225"/>
-      <c r="Z20" s="225"/>
-      <c r="AA20" s="225"/>
-      <c r="AB20" s="225"/>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="225"/>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="225"/>
-      <c r="AG20" s="225"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="226"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="226"/>
+      <c r="Y20" s="226"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="226"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="226"/>
+      <c r="AF20" s="226"/>
+      <c r="AG20" s="226"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -13395,148 +13388,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="223" t="s">
+      <c r="D24" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223" t="s">
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="223"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="223"/>
-      <c r="AB24" s="223"/>
-      <c r="AC24" s="223"/>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="223"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="224"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="224"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="224" t="s">
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="224"/>
-      <c r="AE25" s="224"/>
-      <c r="AF25" s="224"/>
-      <c r="AG25" s="224"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="221"/>
+      <c r="AG25" s="221"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224" t="s">
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
-      <c r="AB26" s="224"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="224"/>
-      <c r="AF26" s="224"/>
-      <c r="AG26" s="224"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="221"/>
+      <c r="AG26" s="221"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224" t="s">
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="224"/>
-      <c r="AF27" s="224"/>
-      <c r="AG27" s="224"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="221"/>
+      <c r="AG27" s="221"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -13544,216 +13537,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="223" t="s">
+      <c r="D31" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223" t="s">
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="223"/>
-      <c r="U31" s="223"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="223"/>
-      <c r="X31" s="223"/>
-      <c r="Y31" s="223"/>
-      <c r="Z31" s="223"/>
-      <c r="AA31" s="223"/>
-      <c r="AB31" s="223"/>
-      <c r="AC31" s="223"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="223"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="224"/>
+      <c r="R31" s="224"/>
+      <c r="S31" s="224"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="224"/>
+      <c r="Z31" s="224"/>
+      <c r="AA31" s="224"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="224"/>
+      <c r="AD31" s="224"/>
+      <c r="AE31" s="224"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="224"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="227" t="s">
+      <c r="D32" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227" t="s">
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="227"/>
-      <c r="AF32" s="227"/>
-      <c r="AG32" s="227"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="225"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="225"/>
+      <c r="T32" s="225"/>
+      <c r="U32" s="225"/>
+      <c r="V32" s="225"/>
+      <c r="W32" s="225"/>
+      <c r="X32" s="225"/>
+      <c r="Y32" s="225"/>
+      <c r="Z32" s="225"/>
+      <c r="AA32" s="225"/>
+      <c r="AB32" s="225"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="225"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="228" t="s">
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
+      <c r="L33" s="222"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222"/>
+      <c r="O33" s="222"/>
+      <c r="P33" s="222"/>
+      <c r="Q33" s="222"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="222"/>
+      <c r="AG33" s="222"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="227" t="s">
+      <c r="D34" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227" t="s">
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="227"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="227"/>
-      <c r="R34" s="227"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="227"/>
-      <c r="U34" s="227"/>
-      <c r="V34" s="227"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="227"/>
-      <c r="AA34" s="227"/>
-      <c r="AB34" s="227"/>
-      <c r="AC34" s="227"/>
-      <c r="AD34" s="227"/>
-      <c r="AE34" s="227"/>
-      <c r="AF34" s="227"/>
-      <c r="AG34" s="227"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
+      <c r="Q34" s="225"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="225"/>
+      <c r="T34" s="225"/>
+      <c r="U34" s="225"/>
+      <c r="V34" s="225"/>
+      <c r="W34" s="225"/>
+      <c r="X34" s="225"/>
+      <c r="Y34" s="225"/>
+      <c r="Z34" s="225"/>
+      <c r="AA34" s="225"/>
+      <c r="AB34" s="225"/>
+      <c r="AC34" s="225"/>
+      <c r="AD34" s="225"/>
+      <c r="AE34" s="225"/>
+      <c r="AF34" s="225"/>
+      <c r="AG34" s="225"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="228" t="s">
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="222"/>
+      <c r="J35" s="222"/>
+      <c r="K35" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
-      <c r="O35" s="228"/>
-      <c r="P35" s="228"/>
-      <c r="Q35" s="228"/>
-      <c r="R35" s="228"/>
-      <c r="S35" s="228"/>
-      <c r="T35" s="228"/>
-      <c r="U35" s="228"/>
-      <c r="V35" s="228"/>
-      <c r="W35" s="228"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="228"/>
-      <c r="AA35" s="228"/>
-      <c r="AB35" s="228"/>
-      <c r="AC35" s="228"/>
-      <c r="AD35" s="228"/>
-      <c r="AE35" s="228"/>
-      <c r="AF35" s="228"/>
-      <c r="AG35" s="228"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
+      <c r="N35" s="222"/>
+      <c r="O35" s="222"/>
+      <c r="P35" s="222"/>
+      <c r="Q35" s="222"/>
+      <c r="R35" s="222"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="222"/>
+      <c r="U35" s="222"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="222"/>
+      <c r="X35" s="222"/>
+      <c r="Y35" s="222"/>
+      <c r="Z35" s="222"/>
+      <c r="AA35" s="222"/>
+      <c r="AB35" s="222"/>
+      <c r="AC35" s="222"/>
+      <c r="AD35" s="222"/>
+      <c r="AE35" s="222"/>
+      <c r="AF35" s="222"/>
+      <c r="AG35" s="222"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="229" t="s">
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="229"/>
-      <c r="O36" s="229"/>
-      <c r="P36" s="229"/>
-      <c r="Q36" s="229"/>
-      <c r="R36" s="229"/>
-      <c r="S36" s="229"/>
-      <c r="T36" s="229"/>
-      <c r="U36" s="229"/>
-      <c r="V36" s="229"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="229"/>
-      <c r="Y36" s="229"/>
-      <c r="Z36" s="229"/>
-      <c r="AA36" s="229"/>
-      <c r="AB36" s="229"/>
-      <c r="AC36" s="229"/>
-      <c r="AD36" s="229"/>
-      <c r="AE36" s="229"/>
-      <c r="AF36" s="229"/>
-      <c r="AG36" s="229"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="223"/>
+      <c r="O36" s="223"/>
+      <c r="P36" s="223"/>
+      <c r="Q36" s="223"/>
+      <c r="R36" s="223"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="223"/>
+      <c r="V36" s="223"/>
+      <c r="W36" s="223"/>
+      <c r="X36" s="223"/>
+      <c r="Y36" s="223"/>
+      <c r="Z36" s="223"/>
+      <c r="AA36" s="223"/>
+      <c r="AB36" s="223"/>
+      <c r="AC36" s="223"/>
+      <c r="AD36" s="223"/>
+      <c r="AE36" s="223"/>
+      <c r="AF36" s="223"/>
+      <c r="AG36" s="223"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="93"/>
@@ -13793,76 +13786,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223" t="s">
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="223"/>
-      <c r="P40" s="223"/>
-      <c r="Q40" s="223"/>
-      <c r="R40" s="223"/>
-      <c r="S40" s="223"/>
-      <c r="T40" s="223"/>
-      <c r="U40" s="223"/>
-      <c r="V40" s="223"/>
-      <c r="W40" s="223"/>
-      <c r="X40" s="223"/>
-      <c r="Y40" s="223"/>
-      <c r="Z40" s="223"/>
-      <c r="AA40" s="223"/>
-      <c r="AB40" s="223"/>
-      <c r="AC40" s="223"/>
-      <c r="AD40" s="223"/>
-      <c r="AE40" s="223"/>
-      <c r="AF40" s="223"/>
-      <c r="AG40" s="223"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="224"/>
+      <c r="P40" s="224"/>
+      <c r="Q40" s="224"/>
+      <c r="R40" s="224"/>
+      <c r="S40" s="224"/>
+      <c r="T40" s="224"/>
+      <c r="U40" s="224"/>
+      <c r="V40" s="224"/>
+      <c r="W40" s="224"/>
+      <c r="X40" s="224"/>
+      <c r="Y40" s="224"/>
+      <c r="Z40" s="224"/>
+      <c r="AA40" s="224"/>
+      <c r="AB40" s="224"/>
+      <c r="AC40" s="224"/>
+      <c r="AD40" s="224"/>
+      <c r="AE40" s="224"/>
+      <c r="AF40" s="224"/>
+      <c r="AG40" s="224"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="224" t="s">
+      <c r="D41" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="224" t="s">
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="224"/>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="224"/>
-      <c r="P41" s="224"/>
-      <c r="Q41" s="224"/>
-      <c r="R41" s="224"/>
-      <c r="S41" s="224"/>
-      <c r="T41" s="224"/>
-      <c r="U41" s="224"/>
-      <c r="V41" s="224"/>
-      <c r="W41" s="224"/>
-      <c r="X41" s="224"/>
-      <c r="Y41" s="224"/>
-      <c r="Z41" s="224"/>
-      <c r="AA41" s="224"/>
-      <c r="AB41" s="224"/>
-      <c r="AC41" s="224"/>
-      <c r="AD41" s="224"/>
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="224"/>
-      <c r="AG41" s="224"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="221"/>
+      <c r="P41" s="221"/>
+      <c r="Q41" s="221"/>
+      <c r="R41" s="221"/>
+      <c r="S41" s="221"/>
+      <c r="T41" s="221"/>
+      <c r="U41" s="221"/>
+      <c r="V41" s="221"/>
+      <c r="W41" s="221"/>
+      <c r="X41" s="221"/>
+      <c r="Y41" s="221"/>
+      <c r="Z41" s="221"/>
+      <c r="AA41" s="221"/>
+      <c r="AB41" s="221"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -14749,39 +14742,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14798,6 +14758,39 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14821,7 +14814,7 @@
   <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -14836,163 +14829,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -15003,587 +14996,619 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="275" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="257" t="s">
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="258"/>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="258"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="254" t="s">
+      <c r="H7" s="268"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="268"/>
+      <c r="K7" s="268"/>
+      <c r="L7" s="268"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="223" t="s">
+      <c r="P7" s="266"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="269" t="s">
+      <c r="S7" s="224"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="224"/>
+      <c r="X7" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="270"/>
-      <c r="Z7" s="270"/>
-      <c r="AA7" s="270"/>
-      <c r="AB7" s="270"/>
-      <c r="AC7" s="271"/>
-      <c r="AD7" s="254" t="s">
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="264"/>
+      <c r="AD7" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
-      <c r="AG7" s="254"/>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="254"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="266"/>
+      <c r="AG7" s="266"/>
+      <c r="AH7" s="266"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="230" t="s">
+      <c r="AL7" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" s="231"/>
-      <c r="AN7" s="231"/>
-      <c r="AO7" s="231"/>
-      <c r="AP7" s="231"/>
-      <c r="AQ7" s="231"/>
-      <c r="AR7" s="231"/>
-      <c r="AS7" s="231"/>
-      <c r="AT7" s="231"/>
-      <c r="AU7" s="231"/>
-      <c r="AV7" s="231"/>
-      <c r="AW7" s="231"/>
-      <c r="AX7" s="230" t="s">
+      <c r="AM7" s="278"/>
+      <c r="AN7" s="278"/>
+      <c r="AO7" s="278"/>
+      <c r="AP7" s="278"/>
+      <c r="AQ7" s="278"/>
+      <c r="AR7" s="278"/>
+      <c r="AS7" s="278"/>
+      <c r="AT7" s="278"/>
+      <c r="AU7" s="278"/>
+      <c r="AV7" s="278"/>
+      <c r="AW7" s="278"/>
+      <c r="AX7" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="231"/>
-      <c r="AZ7" s="231"/>
-      <c r="BA7" s="231"/>
-      <c r="BB7" s="231"/>
-      <c r="BC7" s="240" t="s">
+      <c r="AY7" s="278"/>
+      <c r="AZ7" s="278"/>
+      <c r="BA7" s="278"/>
+      <c r="BB7" s="278"/>
+      <c r="BC7" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="241"/>
-      <c r="BE7" s="241"/>
-      <c r="BF7" s="241"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="231" t="s">
+      <c r="BD7" s="280"/>
+      <c r="BE7" s="280"/>
+      <c r="BF7" s="280"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="231"/>
-      <c r="BJ7" s="231"/>
-      <c r="BK7" s="231"/>
-      <c r="BL7" s="231"/>
-      <c r="BM7" s="231"/>
-      <c r="BN7" s="231"/>
+      <c r="BI7" s="278"/>
+      <c r="BJ7" s="278"/>
+      <c r="BK7" s="278"/>
+      <c r="BL7" s="278"/>
+      <c r="BM7" s="278"/>
+      <c r="BN7" s="278"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="250"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="252" t="s">
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="266"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="253"/>
-      <c r="T8" s="253" t="s">
+      <c r="S8" s="261"/>
+      <c r="T8" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="253"/>
-      <c r="V8" s="266" t="s">
+      <c r="U8" s="261"/>
+      <c r="V8" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="267"/>
-      <c r="X8" s="268" t="s">
+      <c r="W8" s="259"/>
+      <c r="X8" s="260" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="253"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="272" t="s">
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="AB8" s="253"/>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="254"/>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="254"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="259"/>
+      <c r="AD8" s="266"/>
+      <c r="AE8" s="266"/>
+      <c r="AF8" s="266"/>
+      <c r="AG8" s="266"/>
+      <c r="AH8" s="266"/>
+      <c r="AI8" s="266"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="231"/>
-      <c r="AM8" s="231"/>
-      <c r="AN8" s="231"/>
-      <c r="AO8" s="231"/>
-      <c r="AP8" s="231"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="231"/>
-      <c r="AS8" s="231"/>
-      <c r="AT8" s="231"/>
-      <c r="AU8" s="231"/>
-      <c r="AV8" s="231"/>
-      <c r="AW8" s="231"/>
-      <c r="AX8" s="231"/>
-      <c r="AY8" s="231"/>
-      <c r="AZ8" s="231"/>
-      <c r="BA8" s="231"/>
-      <c r="BB8" s="231"/>
-      <c r="BC8" s="243"/>
-      <c r="BD8" s="244"/>
-      <c r="BE8" s="244"/>
-      <c r="BF8" s="244"/>
-      <c r="BG8" s="245"/>
-      <c r="BH8" s="231"/>
-      <c r="BI8" s="231"/>
-      <c r="BJ8" s="231"/>
-      <c r="BK8" s="231"/>
-      <c r="BL8" s="231"/>
-      <c r="BM8" s="231"/>
-      <c r="BN8" s="231"/>
+      <c r="AL8" s="278"/>
+      <c r="AM8" s="278"/>
+      <c r="AN8" s="278"/>
+      <c r="AO8" s="278"/>
+      <c r="AP8" s="278"/>
+      <c r="AQ8" s="278"/>
+      <c r="AR8" s="278"/>
+      <c r="AS8" s="278"/>
+      <c r="AT8" s="278"/>
+      <c r="AU8" s="278"/>
+      <c r="AV8" s="278"/>
+      <c r="AW8" s="278"/>
+      <c r="AX8" s="278"/>
+      <c r="AY8" s="278"/>
+      <c r="AZ8" s="278"/>
+      <c r="BA8" s="278"/>
+      <c r="BB8" s="278"/>
+      <c r="BC8" s="282"/>
+      <c r="BD8" s="283"/>
+      <c r="BE8" s="283"/>
+      <c r="BF8" s="283"/>
+      <c r="BG8" s="284"/>
+      <c r="BH8" s="278"/>
+      <c r="BI8" s="278"/>
+      <c r="BJ8" s="278"/>
+      <c r="BK8" s="278"/>
+      <c r="BL8" s="278"/>
+      <c r="BM8" s="278"/>
+      <c r="BN8" s="278"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="278" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="279"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="273" t="s">
+      <c r="B9" s="250" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="242" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+      <c r="M9" s="243"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="245" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="247"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="237"/>
+      <c r="T9" s="248">
+        <v>10</v>
+      </c>
+      <c r="U9" s="249"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="254"/>
+      <c r="AB9" s="254"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="257"/>
+      <c r="AE9" s="243"/>
+      <c r="AF9" s="243"/>
+      <c r="AG9" s="243"/>
+      <c r="AH9" s="243"/>
+      <c r="AI9" s="244"/>
+      <c r="AJ9" s="38"/>
+      <c r="AL9" s="285" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="237"/>
-      <c r="O9" s="275" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="263">
-        <v>10</v>
-      </c>
-      <c r="U9" s="264"/>
-      <c r="V9" s="232"/>
-      <c r="W9" s="233"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="239"/>
-      <c r="AD9" s="235"/>
-      <c r="AE9" s="236"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="236"/>
-      <c r="AH9" s="236"/>
-      <c r="AI9" s="237"/>
-      <c r="AJ9" s="38"/>
-      <c r="AL9" s="234" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM9" s="180"/>
-      <c r="AN9" s="180"/>
-      <c r="AO9" s="180"/>
-      <c r="AP9" s="180"/>
-      <c r="AQ9" s="180"/>
-      <c r="AR9" s="180"/>
-      <c r="AS9" s="180"/>
-      <c r="AT9" s="180"/>
-      <c r="AU9" s="180"/>
-      <c r="AV9" s="180"/>
-      <c r="AW9" s="181"/>
-      <c r="AX9" s="246" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY9" s="247"/>
-      <c r="AZ9" s="247"/>
-      <c r="BA9" s="247"/>
-      <c r="BB9" s="247"/>
-      <c r="BC9" s="234"/>
-      <c r="BD9" s="183"/>
-      <c r="BE9" s="183"/>
-      <c r="BF9" s="183"/>
-      <c r="BG9" s="184"/>
-      <c r="BH9" s="248"/>
-      <c r="BI9" s="248"/>
-      <c r="BJ9" s="248"/>
-      <c r="BK9" s="248"/>
-      <c r="BL9" s="248"/>
-      <c r="BM9" s="248"/>
-      <c r="BN9" s="248"/>
+      <c r="AM9" s="136"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="136"/>
+      <c r="AP9" s="136"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="136"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="231" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY9" s="232"/>
+      <c r="AZ9" s="232"/>
+      <c r="BA9" s="232"/>
+      <c r="BB9" s="232"/>
+      <c r="BC9" s="285"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="147"/>
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="230"/>
+      <c r="BI9" s="230"/>
+      <c r="BJ9" s="230"/>
+      <c r="BK9" s="230"/>
+      <c r="BL9" s="230"/>
+      <c r="BM9" s="230"/>
+      <c r="BN9" s="230"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="278" t="s">
+      <c r="B10" s="250" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="242" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="273" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="275" t="s">
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="243"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="276"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="263">
+      <c r="P10" s="246"/>
+      <c r="Q10" s="247"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="237"/>
+      <c r="T10" s="248">
         <v>128</v>
       </c>
-      <c r="U10" s="264"/>
-      <c r="V10" s="232"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="265"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
-      <c r="AD10" s="235"/>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="236"/>
-      <c r="AH10" s="236"/>
-      <c r="AI10" s="237"/>
+      <c r="U10" s="249"/>
+      <c r="V10" s="240"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="257"/>
+      <c r="AE10" s="243"/>
+      <c r="AF10" s="243"/>
+      <c r="AG10" s="243"/>
+      <c r="AH10" s="243"/>
+      <c r="AI10" s="244"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="234" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM10" s="180"/>
-      <c r="AN10" s="180"/>
-      <c r="AO10" s="180"/>
-      <c r="AP10" s="180"/>
-      <c r="AQ10" s="180"/>
-      <c r="AR10" s="180"/>
-      <c r="AS10" s="180"/>
-      <c r="AT10" s="180"/>
-      <c r="AU10" s="180"/>
-      <c r="AV10" s="180"/>
-      <c r="AW10" s="181"/>
-      <c r="AX10" s="246" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY10" s="247"/>
-      <c r="AZ10" s="247"/>
-      <c r="BA10" s="247"/>
-      <c r="BB10" s="247"/>
-      <c r="BC10" s="234" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD10" s="183"/>
-      <c r="BE10" s="183"/>
-      <c r="BF10" s="183"/>
-      <c r="BG10" s="184"/>
-      <c r="BH10" s="248"/>
-      <c r="BI10" s="248"/>
-      <c r="BJ10" s="248"/>
-      <c r="BK10" s="248"/>
-      <c r="BL10" s="248"/>
-      <c r="BM10" s="248"/>
-      <c r="BN10" s="248"/>
+      <c r="AL10" s="285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM10" s="136"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="136"/>
+      <c r="AP10" s="136"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="136"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY10" s="232"/>
+      <c r="AZ10" s="232"/>
+      <c r="BA10" s="232"/>
+      <c r="BB10" s="232"/>
+      <c r="BC10" s="285" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD10" s="147"/>
+      <c r="BE10" s="147"/>
+      <c r="BF10" s="147"/>
+      <c r="BG10" s="148"/>
+      <c r="BH10" s="230"/>
+      <c r="BI10" s="230"/>
+      <c r="BJ10" s="230"/>
+      <c r="BK10" s="230"/>
+      <c r="BL10" s="230"/>
+      <c r="BM10" s="230"/>
+      <c r="BN10" s="230"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="250" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="242" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="273" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="236"/>
-      <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="236"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="236"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="275" t="s">
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
+      <c r="M11" s="243"/>
+      <c r="N11" s="244"/>
+      <c r="O11" s="245" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="263">
+      <c r="P11" s="246"/>
+      <c r="Q11" s="247"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="248">
         <v>2</v>
       </c>
-      <c r="U11" s="264"/>
-      <c r="V11" s="232"/>
-      <c r="W11" s="233"/>
-      <c r="X11" s="274" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="239"/>
-      <c r="AD11" s="235"/>
-      <c r="AE11" s="236"/>
-      <c r="AF11" s="236"/>
-      <c r="AG11" s="236"/>
-      <c r="AH11" s="236"/>
-      <c r="AI11" s="237"/>
+      <c r="U11" s="249"/>
+      <c r="V11" s="240"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="253" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y11" s="254"/>
+      <c r="Z11" s="254"/>
+      <c r="AA11" s="254"/>
+      <c r="AB11" s="254"/>
+      <c r="AC11" s="256"/>
+      <c r="AD11" s="257"/>
+      <c r="AE11" s="243"/>
+      <c r="AF11" s="243"/>
+      <c r="AG11" s="243"/>
+      <c r="AH11" s="243"/>
+      <c r="AI11" s="244"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="234" t="s">
+      <c r="AL11" s="285" t="s">
         <v>163</v>
       </c>
-      <c r="AM11" s="183"/>
-      <c r="AN11" s="183"/>
-      <c r="AO11" s="183"/>
-      <c r="AP11" s="183"/>
-      <c r="AQ11" s="183"/>
-      <c r="AR11" s="183"/>
-      <c r="AS11" s="183"/>
-      <c r="AT11" s="183"/>
-      <c r="AU11" s="183"/>
-      <c r="AV11" s="183"/>
-      <c r="AW11" s="184"/>
-      <c r="AX11" s="246" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY11" s="247"/>
-      <c r="AZ11" s="247"/>
-      <c r="BA11" s="247"/>
-      <c r="BB11" s="247"/>
-      <c r="BC11" s="182"/>
-      <c r="BD11" s="183"/>
-      <c r="BE11" s="183"/>
-      <c r="BF11" s="183"/>
-      <c r="BG11" s="184"/>
-      <c r="BH11" s="248"/>
-      <c r="BI11" s="248"/>
-      <c r="BJ11" s="248"/>
-      <c r="BK11" s="248"/>
-      <c r="BL11" s="248"/>
-      <c r="BM11" s="248"/>
-      <c r="BN11" s="248"/>
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="148"/>
+      <c r="AX11" s="231" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY11" s="232"/>
+      <c r="AZ11" s="232"/>
+      <c r="BA11" s="232"/>
+      <c r="BB11" s="232"/>
+      <c r="BC11" s="146"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="147"/>
+      <c r="BF11" s="147"/>
+      <c r="BG11" s="148"/>
+      <c r="BH11" s="230"/>
+      <c r="BI11" s="230"/>
+      <c r="BJ11" s="230"/>
+      <c r="BK11" s="230"/>
+      <c r="BL11" s="230"/>
+      <c r="BM11" s="230"/>
+      <c r="BN11" s="230"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="280"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="277"/>
-      <c r="R12" s="284"/>
-      <c r="S12" s="285"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="232"/>
-      <c r="W12" s="233"/>
-      <c r="X12" s="265"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="235"/>
-      <c r="AE12" s="236"/>
-      <c r="AF12" s="236"/>
-      <c r="AG12" s="236"/>
-      <c r="AH12" s="236"/>
-      <c r="AI12" s="237"/>
+      <c r="B12" s="250"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+      <c r="N12" s="244"/>
+      <c r="O12" s="245"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="247"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="248"/>
+      <c r="U12" s="249"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="254"/>
+      <c r="Z12" s="254"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="256"/>
+      <c r="AD12" s="257"/>
+      <c r="AE12" s="243"/>
+      <c r="AF12" s="243"/>
+      <c r="AG12" s="243"/>
+      <c r="AH12" s="243"/>
+      <c r="AI12" s="244"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="234"/>
-      <c r="AM12" s="180"/>
-      <c r="AN12" s="180"/>
-      <c r="AO12" s="180"/>
-      <c r="AP12" s="180"/>
-      <c r="AQ12" s="180"/>
-      <c r="AR12" s="180"/>
-      <c r="AS12" s="180"/>
-      <c r="AT12" s="180"/>
-      <c r="AU12" s="180"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="181"/>
-      <c r="AX12" s="246"/>
-      <c r="AY12" s="247"/>
-      <c r="AZ12" s="247"/>
-      <c r="BA12" s="247"/>
-      <c r="BB12" s="247"/>
-      <c r="BC12" s="182"/>
-      <c r="BD12" s="183"/>
-      <c r="BE12" s="183"/>
-      <c r="BF12" s="183"/>
-      <c r="BG12" s="184"/>
-      <c r="BH12" s="248"/>
-      <c r="BI12" s="248"/>
-      <c r="BJ12" s="248"/>
-      <c r="BK12" s="248"/>
-      <c r="BL12" s="248"/>
-      <c r="BM12" s="248"/>
-      <c r="BN12" s="248"/>
+      <c r="AL12" s="285"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="231"/>
+      <c r="AY12" s="232"/>
+      <c r="AZ12" s="232"/>
+      <c r="BA12" s="232"/>
+      <c r="BB12" s="232"/>
+      <c r="BC12" s="146"/>
+      <c r="BD12" s="147"/>
+      <c r="BE12" s="147"/>
+      <c r="BF12" s="147"/>
+      <c r="BG12" s="148"/>
+      <c r="BH12" s="230"/>
+      <c r="BI12" s="230"/>
+      <c r="BJ12" s="230"/>
+      <c r="BK12" s="230"/>
+      <c r="BL12" s="230"/>
+      <c r="BM12" s="230"/>
+      <c r="BN12" s="230"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="275"/>
-      <c r="P13" s="276"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="255"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="233"/>
-      <c r="X13" s="265"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="273"/>
-      <c r="AE13" s="236"/>
-      <c r="AF13" s="236"/>
-      <c r="AG13" s="236"/>
-      <c r="AH13" s="236"/>
-      <c r="AI13" s="237"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="244"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="247"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="237"/>
+      <c r="T13" s="248"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="240"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="254"/>
+      <c r="Z13" s="254"/>
+      <c r="AA13" s="254"/>
+      <c r="AB13" s="254"/>
+      <c r="AC13" s="256"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="243"/>
+      <c r="AF13" s="243"/>
+      <c r="AG13" s="243"/>
+      <c r="AH13" s="243"/>
+      <c r="AI13" s="244"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="180"/>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="180"/>
-      <c r="AT13" s="180"/>
-      <c r="AU13" s="180"/>
-      <c r="AV13" s="180"/>
-      <c r="AW13" s="181"/>
-      <c r="AX13" s="246"/>
-      <c r="AY13" s="247"/>
-      <c r="AZ13" s="247"/>
-      <c r="BA13" s="247"/>
-      <c r="BB13" s="247"/>
-      <c r="BC13" s="182"/>
-      <c r="BD13" s="183"/>
-      <c r="BE13" s="183"/>
-      <c r="BF13" s="183"/>
-      <c r="BG13" s="184"/>
-      <c r="BH13" s="248"/>
-      <c r="BI13" s="248"/>
-      <c r="BJ13" s="248"/>
-      <c r="BK13" s="248"/>
-      <c r="BL13" s="248"/>
-      <c r="BM13" s="248"/>
-      <c r="BN13" s="248"/>
+      <c r="AL13" s="285"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="231"/>
+      <c r="AY13" s="232"/>
+      <c r="AZ13" s="232"/>
+      <c r="BA13" s="232"/>
+      <c r="BB13" s="232"/>
+      <c r="BC13" s="146"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="148"/>
+      <c r="BH13" s="230"/>
+      <c r="BI13" s="230"/>
+      <c r="BJ13" s="230"/>
+      <c r="BK13" s="230"/>
+      <c r="BL13" s="230"/>
+      <c r="BM13" s="230"/>
+      <c r="BN13" s="230"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="AX7:BB8"/>
+    <mergeCell ref="BH7:BN8"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="BC7:BG8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BC11:BG11"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AL13:AW13"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="AA1:AB1"/>
@@ -15600,63 +15625,31 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="AX7:BB8"/>
-    <mergeCell ref="BH7:BN8"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="BC7:BG8"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AL13:AW13"/>
-    <mergeCell ref="BH9:BN9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15693,157 +15686,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -15856,49 +15849,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="298"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="297" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="298"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="298"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="298"/>
-      <c r="Q8" s="298"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="298"/>
-      <c r="W8" s="298"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="251" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251"/>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="251"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="275"/>
+      <c r="AF8" s="275"/>
+      <c r="AG8" s="275"/>
+      <c r="AH8" s="275"/>
+      <c r="AI8" s="275"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15907,45 +15900,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="251" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="251"/>
-      <c r="AA9" s="251"/>
-      <c r="AB9" s="251"/>
-      <c r="AC9" s="251" t="s">
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="251"/>
-      <c r="AE9" s="251"/>
-      <c r="AF9" s="251"/>
-      <c r="AG9" s="251"/>
-      <c r="AH9" s="251"/>
-      <c r="AI9" s="251"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15986,16 +15979,16 @@
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
       <c r="J10" s="288" t="s">
         <v>64</v>
       </c>
@@ -16064,16 +16057,16 @@
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
       <c r="J11" s="288" t="s">
         <v>66</v>
       </c>
@@ -16142,16 +16135,16 @@
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="293" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
+      <c r="B12" s="296" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
       <c r="J12" s="288" t="s">
         <v>66</v>
       </c>
@@ -16220,16 +16213,16 @@
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="294" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="296"/>
+      <c r="B13" s="297" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="288" t="s">
         <v>67</v>
       </c>
@@ -16298,18 +16291,18 @@
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="293" t="s">
+      <c r="B14" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="287" t="s">
-        <v>171</v>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="302" t="s">
+        <v>170</v>
       </c>
       <c r="K14" s="288"/>
       <c r="L14" s="288"/>
@@ -16376,18 +16369,18 @@
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="293" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="287" t="s">
-        <v>175</v>
+      <c r="B15" s="296" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="302" t="s">
+        <v>174</v>
       </c>
       <c r="K15" s="288"/>
       <c r="L15" s="288"/>
@@ -16454,33 +16447,33 @@
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="289" t="s">
+      <c r="B16" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="291" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="292"/>
-      <c r="L16" s="292"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="292"/>
-      <c r="O16" s="292"/>
-      <c r="P16" s="292"/>
-      <c r="Q16" s="292"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="292"/>
-      <c r="T16" s="292"/>
-      <c r="U16" s="292"/>
-      <c r="V16" s="292"/>
-      <c r="W16" s="292"/>
-      <c r="X16" s="292"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="300" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
       <c r="Y16" s="286"/>
       <c r="Z16" s="286"/>
       <c r="AA16" s="286"/>
@@ -16532,33 +16525,33 @@
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="289" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="290"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="292" t="s">
+      <c r="B17" s="295" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="287"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="301" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="292"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="292"/>
-      <c r="N17" s="292"/>
-      <c r="O17" s="292"/>
-      <c r="P17" s="292"/>
-      <c r="Q17" s="292"/>
-      <c r="R17" s="292"/>
-      <c r="S17" s="292"/>
-      <c r="T17" s="292"/>
-      <c r="U17" s="292"/>
-      <c r="V17" s="292"/>
-      <c r="W17" s="292"/>
-      <c r="X17" s="292"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
       <c r="Y17" s="286"/>
       <c r="Z17" s="286"/>
       <c r="AA17" s="286"/>
@@ -16610,33 +16603,33 @@
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="289" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="291" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="292"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="O18" s="292"/>
-      <c r="P18" s="292"/>
-      <c r="Q18" s="292"/>
-      <c r="R18" s="292"/>
-      <c r="S18" s="292"/>
-      <c r="T18" s="292"/>
-      <c r="U18" s="292"/>
-      <c r="V18" s="292"/>
-      <c r="W18" s="292"/>
-      <c r="X18" s="292"/>
+      <c r="B18" s="295" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="287"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="287"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="300" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="301"/>
+      <c r="X18" s="301"/>
       <c r="Y18" s="286"/>
       <c r="Z18" s="286"/>
       <c r="AA18" s="286"/>
@@ -17246,49 +17239,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17305,6 +17255,49 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17334,157 +17327,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17497,49 +17490,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="298"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="297" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="298"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="298"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="298"/>
-      <c r="Q8" s="298"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="298"/>
-      <c r="W8" s="298"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="251" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251"/>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="251"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="275"/>
+      <c r="AF8" s="275"/>
+      <c r="AG8" s="275"/>
+      <c r="AH8" s="275"/>
+      <c r="AI8" s="275"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17577,45 +17570,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="251" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="251"/>
-      <c r="AA9" s="251"/>
-      <c r="AB9" s="251"/>
-      <c r="AC9" s="251" t="s">
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="251"/>
-      <c r="AE9" s="251"/>
-      <c r="AF9" s="251"/>
-      <c r="AG9" s="251"/>
-      <c r="AH9" s="251"/>
-      <c r="AI9" s="251"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17654,7 +17647,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="87"/>
-      <c r="B10" s="287"/>
+      <c r="B10" s="302"/>
       <c r="C10" s="288"/>
       <c r="D10" s="288"/>
       <c r="E10" s="288"/>
@@ -17662,21 +17655,21 @@
       <c r="G10" s="288"/>
       <c r="H10" s="288"/>
       <c r="I10" s="288"/>
-      <c r="J10" s="291"/>
-      <c r="K10" s="292"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="292"/>
-      <c r="Q10" s="292"/>
-      <c r="R10" s="292"/>
-      <c r="S10" s="292"/>
-      <c r="T10" s="292"/>
-      <c r="U10" s="292"/>
-      <c r="V10" s="292"/>
-      <c r="W10" s="292"/>
-      <c r="X10" s="292"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
       <c r="Y10" s="286"/>
       <c r="Z10" s="286"/>
       <c r="AA10" s="286"/>
@@ -17943,13 +17936,13 @@
     <row r="14" spans="1:70">
       <c r="A14" s="87"/>
       <c r="B14" s="303"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
       <c r="J14" s="288"/>
       <c r="K14" s="288"/>
       <c r="L14" s="288"/>
@@ -18014,14 +18007,14 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="87"/>
-      <c r="B15" s="294"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="299"/>
       <c r="J15" s="288"/>
       <c r="K15" s="288"/>
       <c r="L15" s="288"/>
@@ -18087,13 +18080,13 @@
     <row r="16" spans="1:70">
       <c r="A16" s="87"/>
       <c r="B16" s="303"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
       <c r="J16" s="288"/>
       <c r="K16" s="288"/>
       <c r="L16" s="288"/>
@@ -18374,7 +18367,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="87"/>
-      <c r="B20" s="292"/>
+      <c r="B20" s="301"/>
       <c r="C20" s="288"/>
       <c r="D20" s="288"/>
       <c r="E20" s="288"/>
@@ -18411,7 +18404,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="87"/>
-      <c r="B21" s="292"/>
+      <c r="B21" s="301"/>
       <c r="C21" s="288"/>
       <c r="D21" s="288"/>
       <c r="E21" s="288"/>
@@ -18448,7 +18441,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="87"/>
-      <c r="B22" s="292"/>
+      <c r="B22" s="301"/>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
       <c r="E22" s="288"/>
@@ -18493,21 +18486,21 @@
       <c r="G23" s="288"/>
       <c r="H23" s="288"/>
       <c r="I23" s="288"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="292"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="292"/>
-      <c r="O23" s="292"/>
-      <c r="P23" s="292"/>
-      <c r="Q23" s="292"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="292"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="292"/>
-      <c r="W23" s="292"/>
-      <c r="X23" s="292"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+      <c r="T23" s="301"/>
+      <c r="U23" s="301"/>
+      <c r="V23" s="301"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="301"/>
       <c r="Y23" s="286"/>
       <c r="Z23" s="286"/>
       <c r="AA23" s="286"/>
@@ -18530,21 +18523,21 @@
       <c r="G24" s="288"/>
       <c r="H24" s="288"/>
       <c r="I24" s="288"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="292"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="292"/>
-      <c r="O24" s="292"/>
-      <c r="P24" s="292"/>
-      <c r="Q24" s="292"/>
-      <c r="R24" s="292"/>
-      <c r="S24" s="292"/>
-      <c r="T24" s="292"/>
-      <c r="U24" s="292"/>
-      <c r="V24" s="292"/>
-      <c r="W24" s="292"/>
-      <c r="X24" s="292"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+      <c r="T24" s="301"/>
+      <c r="U24" s="301"/>
+      <c r="V24" s="301"/>
+      <c r="W24" s="301"/>
+      <c r="X24" s="301"/>
       <c r="Y24" s="286"/>
       <c r="Z24" s="286"/>
       <c r="AA24" s="286"/>
@@ -18567,21 +18560,21 @@
       <c r="G25" s="288"/>
       <c r="H25" s="288"/>
       <c r="I25" s="288"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="292"/>
-      <c r="O25" s="292"/>
-      <c r="P25" s="292"/>
-      <c r="Q25" s="292"/>
-      <c r="R25" s="292"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="292"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="292"/>
-      <c r="W25" s="292"/>
-      <c r="X25" s="292"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
       <c r="Y25" s="286"/>
       <c r="Z25" s="286"/>
       <c r="AA25" s="286"/>
@@ -18596,50 +18589,33 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -18656,33 +18632,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -3440,6 +3440,138 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3449,10 +3581,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3464,167 +3626,41 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3635,12 +3671,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3668,92 +3698,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3763,14 +3741,156 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3784,14 +3904,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3801,141 +3913,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3960,30 +3984,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9701,57 +9701,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="193" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="149" t="s">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="151">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="144"/>
-      <c r="AI1" s="145"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9759,53 +9759,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="193" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="143" t="str">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="151" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="145"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9813,43 +9813,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="145"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9988,52 +9988,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="159"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="164" t="s">
+      <c r="H7" s="159"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="164" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="164" t="s">
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="165"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="158"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10044,52 +10044,52 @@
       <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169">
+      <c r="C8" s="161"/>
+      <c r="D8" s="162">
         <v>43718</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="167" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="176" t="s">
+      <c r="H8" s="165"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="177" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="178"/>
-      <c r="W8" s="178"/>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="178"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="173" t="s">
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="175"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="168"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -10098,40 +10098,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="137"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="183"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="180"/>
+      <c r="AH9" s="180"/>
+      <c r="AI9" s="181"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -10140,40 +10140,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="135"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="137"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="183"/>
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="180"/>
+      <c r="AH10" s="180"/>
+      <c r="AI10" s="181"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -10182,40 +10182,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="136"/>
-      <c r="AI11" s="137"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
+      <c r="Y11" s="183"/>
+      <c r="Z11" s="183"/>
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="184"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="180"/>
+      <c r="AH11" s="180"/>
+      <c r="AI11" s="181"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -10224,40 +10224,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="137"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="179"/>
+      <c r="AG12" s="180"/>
+      <c r="AH12" s="180"/>
+      <c r="AI12" s="181"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -10266,40 +10266,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="92"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="137"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
+      <c r="Y13" s="183"/>
+      <c r="Z13" s="183"/>
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="183"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="179"/>
+      <c r="AG13" s="180"/>
+      <c r="AH13" s="180"/>
+      <c r="AI13" s="181"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -10308,40 +10308,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="92"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="137"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
+      <c r="Y14" s="183"/>
+      <c r="Z14" s="183"/>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="179"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="180"/>
+      <c r="AI14" s="181"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -10350,40 +10350,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="92"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="137"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
+      <c r="Y15" s="183"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="183"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="180"/>
+      <c r="AH15" s="180"/>
+      <c r="AI15" s="181"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -10392,40 +10392,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="137"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
+      <c r="Y16" s="183"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="184"/>
+      <c r="AF16" s="179"/>
+      <c r="AG16" s="180"/>
+      <c r="AH16" s="180"/>
+      <c r="AI16" s="181"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -10434,40 +10434,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="92"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="136"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="137"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="183"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="184"/>
+      <c r="AF17" s="179"/>
+      <c r="AG17" s="180"/>
+      <c r="AH17" s="180"/>
+      <c r="AI17" s="181"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -10476,40 +10476,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="92"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="137"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="183"/>
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="184"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="180"/>
+      <c r="AH18" s="180"/>
+      <c r="AI18" s="181"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -10518,40 +10518,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="183"/>
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="183"/>
+      <c r="Z19" s="183"/>
+      <c r="AA19" s="183"/>
+      <c r="AB19" s="183"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="184"/>
+      <c r="AF19" s="179"/>
+      <c r="AG19" s="180"/>
+      <c r="AH19" s="180"/>
+      <c r="AI19" s="181"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -10560,40 +10560,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="92"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="136"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="137"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="183"/>
+      <c r="Z20" s="183"/>
+      <c r="AA20" s="183"/>
+      <c r="AB20" s="183"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="184"/>
+      <c r="AF20" s="179"/>
+      <c r="AG20" s="180"/>
+      <c r="AH20" s="180"/>
+      <c r="AI20" s="181"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -10602,40 +10602,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="92"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="137"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="184"/>
+      <c r="AF21" s="179"/>
+      <c r="AG21" s="180"/>
+      <c r="AH21" s="180"/>
+      <c r="AI21" s="181"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -10644,40 +10644,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="92"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="136"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="137"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="184"/>
+      <c r="AF22" s="179"/>
+      <c r="AG22" s="180"/>
+      <c r="AH22" s="180"/>
+      <c r="AI22" s="181"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -10686,40 +10686,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="137"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="179"/>
+      <c r="AG23" s="180"/>
+      <c r="AH23" s="180"/>
+      <c r="AI23" s="181"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -10728,40 +10728,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="136"/>
-      <c r="AH24" s="136"/>
-      <c r="AI24" s="137"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="184"/>
+      <c r="AF24" s="179"/>
+      <c r="AG24" s="180"/>
+      <c r="AH24" s="180"/>
+      <c r="AI24" s="181"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -10770,40 +10770,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="184"/>
+      <c r="AF25" s="179"/>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="181"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -10812,40 +10812,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="183"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="179"/>
+      <c r="AG26" s="180"/>
+      <c r="AH26" s="180"/>
+      <c r="AI26" s="181"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -10854,40 +10854,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="184"/>
+      <c r="AF27" s="179"/>
+      <c r="AG27" s="180"/>
+      <c r="AH27" s="180"/>
+      <c r="AI27" s="181"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -10896,40 +10896,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="179"/>
+      <c r="AG28" s="180"/>
+      <c r="AH28" s="180"/>
+      <c r="AI28" s="181"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -10938,40 +10938,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="92"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="183"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="184"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="181"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -10980,40 +10980,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="92"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="147"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="135"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="184"/>
+      <c r="AF30" s="179"/>
+      <c r="AG30" s="180"/>
+      <c r="AH30" s="180"/>
+      <c r="AI30" s="181"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11022,40 +11022,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="92"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="147"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="135"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="184"/>
+      <c r="AF31" s="179"/>
+      <c r="AG31" s="180"/>
+      <c r="AH31" s="180"/>
+      <c r="AI31" s="181"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -11064,40 +11064,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="92"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="135"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="183"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="184"/>
+      <c r="AF32" s="179"/>
+      <c r="AG32" s="180"/>
+      <c r="AH32" s="180"/>
+      <c r="AI32" s="181"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -11106,40 +11106,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="92"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="135"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+      <c r="AA33" s="183"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="184"/>
+      <c r="AF33" s="179"/>
+      <c r="AG33" s="180"/>
+      <c r="AH33" s="180"/>
+      <c r="AI33" s="181"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -11232,40 +11232,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -11290,127 +11377,40 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11565,157 +11565,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="200" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="200" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13015,6 +13015,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13026,12 +13032,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13060,157 +13060,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -13241,146 +13241,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="224" t="s">
+      <c r="D17" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224" t="s">
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
-      <c r="X17" s="224"/>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
-      <c r="AA17" s="224"/>
-      <c r="AB17" s="224"/>
-      <c r="AC17" s="224"/>
-      <c r="AD17" s="224"/>
-      <c r="AE17" s="224"/>
-      <c r="AF17" s="224"/>
-      <c r="AG17" s="224"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="223"/>
+      <c r="Z17" s="223"/>
+      <c r="AA17" s="223"/>
+      <c r="AB17" s="223"/>
+      <c r="AC17" s="223"/>
+      <c r="AD17" s="223"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="223"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="221" t="s">
+      <c r="D18" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221" t="s">
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="221"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="221"/>
-      <c r="X18" s="221"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="221"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="221"/>
-      <c r="AE18" s="221"/>
-      <c r="AF18" s="221"/>
-      <c r="AG18" s="221"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="224"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="224"/>
+      <c r="U18" s="224"/>
+      <c r="V18" s="224"/>
+      <c r="W18" s="224"/>
+      <c r="X18" s="224"/>
+      <c r="Y18" s="224"/>
+      <c r="Z18" s="224"/>
+      <c r="AA18" s="224"/>
+      <c r="AB18" s="224"/>
+      <c r="AC18" s="224"/>
+      <c r="AD18" s="224"/>
+      <c r="AE18" s="224"/>
+      <c r="AF18" s="224"/>
+      <c r="AG18" s="224"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="228" t="s">
+      <c r="D19" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="228"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="229" t="s">
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
+      <c r="K19" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="228"/>
-      <c r="M19" s="228"/>
-      <c r="N19" s="228"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="228"/>
-      <c r="R19" s="228"/>
-      <c r="S19" s="228"/>
-      <c r="T19" s="228"/>
-      <c r="U19" s="228"/>
-      <c r="V19" s="228"/>
-      <c r="W19" s="228"/>
-      <c r="X19" s="228"/>
-      <c r="Y19" s="228"/>
-      <c r="Z19" s="228"/>
-      <c r="AA19" s="228"/>
-      <c r="AB19" s="228"/>
-      <c r="AC19" s="228"/>
-      <c r="AD19" s="228"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="228"/>
-      <c r="AG19" s="228"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="221"/>
+      <c r="P19" s="221"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="221"/>
+      <c r="AG19" s="221"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227" t="s">
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="226" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="226"/>
-      <c r="M20" s="226"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="226"/>
-      <c r="P20" s="226"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="226"/>
-      <c r="S20" s="226"/>
-      <c r="T20" s="226"/>
-      <c r="U20" s="226"/>
-      <c r="V20" s="226"/>
-      <c r="W20" s="226"/>
-      <c r="X20" s="226"/>
-      <c r="Y20" s="226"/>
-      <c r="Z20" s="226"/>
-      <c r="AA20" s="226"/>
-      <c r="AB20" s="226"/>
-      <c r="AC20" s="226"/>
-      <c r="AD20" s="226"/>
-      <c r="AE20" s="226"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="226"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="225"/>
+      <c r="R20" s="225"/>
+      <c r="S20" s="225"/>
+      <c r="T20" s="225"/>
+      <c r="U20" s="225"/>
+      <c r="V20" s="225"/>
+      <c r="W20" s="225"/>
+      <c r="X20" s="225"/>
+      <c r="Y20" s="225"/>
+      <c r="Z20" s="225"/>
+      <c r="AA20" s="225"/>
+      <c r="AB20" s="225"/>
+      <c r="AC20" s="225"/>
+      <c r="AD20" s="225"/>
+      <c r="AE20" s="225"/>
+      <c r="AF20" s="225"/>
+      <c r="AG20" s="225"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -13388,148 +13388,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="224" t="s">
+      <c r="D24" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="224" t="s">
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="224"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="224"/>
-      <c r="U24" s="224"/>
-      <c r="V24" s="224"/>
-      <c r="W24" s="224"/>
-      <c r="X24" s="224"/>
-      <c r="Y24" s="224"/>
-      <c r="Z24" s="224"/>
-      <c r="AA24" s="224"/>
-      <c r="AB24" s="224"/>
-      <c r="AC24" s="224"/>
-      <c r="AD24" s="224"/>
-      <c r="AE24" s="224"/>
-      <c r="AF24" s="224"/>
-      <c r="AG24" s="224"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="223"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="223"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="221" t="s">
+      <c r="D25" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221" t="s">
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="221"/>
-      <c r="AF25" s="221"/>
-      <c r="AG25" s="221"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="224"/>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="224"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="224"/>
+      <c r="AF25" s="224"/>
+      <c r="AG25" s="224"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="221" t="s">
+      <c r="D26" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221" t="s">
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="221"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="221"/>
-      <c r="AF26" s="221"/>
-      <c r="AG26" s="221"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="224"/>
+      <c r="W26" s="224"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="224"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="224"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="224"/>
+      <c r="AF26" s="224"/>
+      <c r="AG26" s="224"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="221" t="s">
+      <c r="D27" s="224" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="221" t="s">
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="221"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="221"/>
-      <c r="AC27" s="221"/>
-      <c r="AD27" s="221"/>
-      <c r="AE27" s="221"/>
-      <c r="AF27" s="221"/>
-      <c r="AG27" s="221"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="224"/>
+      <c r="U27" s="224"/>
+      <c r="V27" s="224"/>
+      <c r="W27" s="224"/>
+      <c r="X27" s="224"/>
+      <c r="Y27" s="224"/>
+      <c r="Z27" s="224"/>
+      <c r="AA27" s="224"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="224"/>
+      <c r="AD27" s="224"/>
+      <c r="AE27" s="224"/>
+      <c r="AF27" s="224"/>
+      <c r="AG27" s="224"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -13537,216 +13537,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="224" t="s">
+      <c r="D31" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224" t="s">
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="224"/>
-      <c r="R31" s="224"/>
-      <c r="S31" s="224"/>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="224"/>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="224"/>
-      <c r="AB31" s="224"/>
-      <c r="AC31" s="224"/>
-      <c r="AD31" s="224"/>
-      <c r="AE31" s="224"/>
-      <c r="AF31" s="224"/>
-      <c r="AG31" s="224"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="223"/>
+      <c r="V31" s="223"/>
+      <c r="W31" s="223"/>
+      <c r="X31" s="223"/>
+      <c r="Y31" s="223"/>
+      <c r="Z31" s="223"/>
+      <c r="AA31" s="223"/>
+      <c r="AB31" s="223"/>
+      <c r="AC31" s="223"/>
+      <c r="AD31" s="223"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="223"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="225" t="s">
+      <c r="D32" s="227" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="225" t="s">
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="227" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="227"/>
+      <c r="N32" s="227"/>
+      <c r="O32" s="227"/>
+      <c r="P32" s="227"/>
+      <c r="Q32" s="227"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="227"/>
+      <c r="AF32" s="227"/>
+      <c r="AG32" s="227"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="222"/>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="222" t="s">
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="222"/>
-      <c r="M33" s="222"/>
-      <c r="N33" s="222"/>
-      <c r="O33" s="222"/>
-      <c r="P33" s="222"/>
-      <c r="Q33" s="222"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="222"/>
-      <c r="AG33" s="222"/>
+      <c r="L33" s="228"/>
+      <c r="M33" s="228"/>
+      <c r="N33" s="228"/>
+      <c r="O33" s="228"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="228"/>
+      <c r="V33" s="228"/>
+      <c r="W33" s="228"/>
+      <c r="X33" s="228"/>
+      <c r="Y33" s="228"/>
+      <c r="Z33" s="228"/>
+      <c r="AA33" s="228"/>
+      <c r="AB33" s="228"/>
+      <c r="AC33" s="228"/>
+      <c r="AD33" s="228"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="228"/>
+      <c r="AG33" s="228"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="227" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="225" t="s">
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="227"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="227" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="225"/>
-      <c r="O34" s="225"/>
-      <c r="P34" s="225"/>
-      <c r="Q34" s="225"/>
-      <c r="R34" s="225"/>
-      <c r="S34" s="225"/>
-      <c r="T34" s="225"/>
-      <c r="U34" s="225"/>
-      <c r="V34" s="225"/>
-      <c r="W34" s="225"/>
-      <c r="X34" s="225"/>
-      <c r="Y34" s="225"/>
-      <c r="Z34" s="225"/>
-      <c r="AA34" s="225"/>
-      <c r="AB34" s="225"/>
-      <c r="AC34" s="225"/>
-      <c r="AD34" s="225"/>
-      <c r="AE34" s="225"/>
-      <c r="AF34" s="225"/>
-      <c r="AG34" s="225"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="227"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="227"/>
+      <c r="P34" s="227"/>
+      <c r="Q34" s="227"/>
+      <c r="R34" s="227"/>
+      <c r="S34" s="227"/>
+      <c r="T34" s="227"/>
+      <c r="U34" s="227"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="227"/>
+      <c r="Y34" s="227"/>
+      <c r="Z34" s="227"/>
+      <c r="AA34" s="227"/>
+      <c r="AB34" s="227"/>
+      <c r="AC34" s="227"/>
+      <c r="AD34" s="227"/>
+      <c r="AE34" s="227"/>
+      <c r="AF34" s="227"/>
+      <c r="AG34" s="227"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="222"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="222"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="222"/>
-      <c r="K35" s="222" t="s">
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="222"/>
-      <c r="M35" s="222"/>
-      <c r="N35" s="222"/>
-      <c r="O35" s="222"/>
-      <c r="P35" s="222"/>
-      <c r="Q35" s="222"/>
-      <c r="R35" s="222"/>
-      <c r="S35" s="222"/>
-      <c r="T35" s="222"/>
-      <c r="U35" s="222"/>
-      <c r="V35" s="222"/>
-      <c r="W35" s="222"/>
-      <c r="X35" s="222"/>
-      <c r="Y35" s="222"/>
-      <c r="Z35" s="222"/>
-      <c r="AA35" s="222"/>
-      <c r="AB35" s="222"/>
-      <c r="AC35" s="222"/>
-      <c r="AD35" s="222"/>
-      <c r="AE35" s="222"/>
-      <c r="AF35" s="222"/>
-      <c r="AG35" s="222"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
+      <c r="O35" s="228"/>
+      <c r="P35" s="228"/>
+      <c r="Q35" s="228"/>
+      <c r="R35" s="228"/>
+      <c r="S35" s="228"/>
+      <c r="T35" s="228"/>
+      <c r="U35" s="228"/>
+      <c r="V35" s="228"/>
+      <c r="W35" s="228"/>
+      <c r="X35" s="228"/>
+      <c r="Y35" s="228"/>
+      <c r="Z35" s="228"/>
+      <c r="AA35" s="228"/>
+      <c r="AB35" s="228"/>
+      <c r="AC35" s="228"/>
+      <c r="AD35" s="228"/>
+      <c r="AE35" s="228"/>
+      <c r="AF35" s="228"/>
+      <c r="AG35" s="228"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="223" t="s">
+      <c r="D36" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
-      <c r="K36" s="223" t="s">
+      <c r="E36" s="229"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="223"/>
-      <c r="M36" s="223"/>
-      <c r="N36" s="223"/>
-      <c r="O36" s="223"/>
-      <c r="P36" s="223"/>
-      <c r="Q36" s="223"/>
-      <c r="R36" s="223"/>
-      <c r="S36" s="223"/>
-      <c r="T36" s="223"/>
-      <c r="U36" s="223"/>
-      <c r="V36" s="223"/>
-      <c r="W36" s="223"/>
-      <c r="X36" s="223"/>
-      <c r="Y36" s="223"/>
-      <c r="Z36" s="223"/>
-      <c r="AA36" s="223"/>
-      <c r="AB36" s="223"/>
-      <c r="AC36" s="223"/>
-      <c r="AD36" s="223"/>
-      <c r="AE36" s="223"/>
-      <c r="AF36" s="223"/>
-      <c r="AG36" s="223"/>
+      <c r="L36" s="229"/>
+      <c r="M36" s="229"/>
+      <c r="N36" s="229"/>
+      <c r="O36" s="229"/>
+      <c r="P36" s="229"/>
+      <c r="Q36" s="229"/>
+      <c r="R36" s="229"/>
+      <c r="S36" s="229"/>
+      <c r="T36" s="229"/>
+      <c r="U36" s="229"/>
+      <c r="V36" s="229"/>
+      <c r="W36" s="229"/>
+      <c r="X36" s="229"/>
+      <c r="Y36" s="229"/>
+      <c r="Z36" s="229"/>
+      <c r="AA36" s="229"/>
+      <c r="AB36" s="229"/>
+      <c r="AC36" s="229"/>
+      <c r="AD36" s="229"/>
+      <c r="AE36" s="229"/>
+      <c r="AF36" s="229"/>
+      <c r="AG36" s="229"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="93"/>
@@ -13786,76 +13786,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="224" t="s">
+      <c r="D40" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="224" t="s">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="224"/>
-      <c r="M40" s="224"/>
-      <c r="N40" s="224"/>
-      <c r="O40" s="224"/>
-      <c r="P40" s="224"/>
-      <c r="Q40" s="224"/>
-      <c r="R40" s="224"/>
-      <c r="S40" s="224"/>
-      <c r="T40" s="224"/>
-      <c r="U40" s="224"/>
-      <c r="V40" s="224"/>
-      <c r="W40" s="224"/>
-      <c r="X40" s="224"/>
-      <c r="Y40" s="224"/>
-      <c r="Z40" s="224"/>
-      <c r="AA40" s="224"/>
-      <c r="AB40" s="224"/>
-      <c r="AC40" s="224"/>
-      <c r="AD40" s="224"/>
-      <c r="AE40" s="224"/>
-      <c r="AF40" s="224"/>
-      <c r="AG40" s="224"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="223"/>
+      <c r="O40" s="223"/>
+      <c r="P40" s="223"/>
+      <c r="Q40" s="223"/>
+      <c r="R40" s="223"/>
+      <c r="S40" s="223"/>
+      <c r="T40" s="223"/>
+      <c r="U40" s="223"/>
+      <c r="V40" s="223"/>
+      <c r="W40" s="223"/>
+      <c r="X40" s="223"/>
+      <c r="Y40" s="223"/>
+      <c r="Z40" s="223"/>
+      <c r="AA40" s="223"/>
+      <c r="AB40" s="223"/>
+      <c r="AC40" s="223"/>
+      <c r="AD40" s="223"/>
+      <c r="AE40" s="223"/>
+      <c r="AF40" s="223"/>
+      <c r="AG40" s="223"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="221" t="s">
+      <c r="D41" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221" t="s">
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="221"/>
-      <c r="P41" s="221"/>
-      <c r="Q41" s="221"/>
-      <c r="R41" s="221"/>
-      <c r="S41" s="221"/>
-      <c r="T41" s="221"/>
-      <c r="U41" s="221"/>
-      <c r="V41" s="221"/>
-      <c r="W41" s="221"/>
-      <c r="X41" s="221"/>
-      <c r="Y41" s="221"/>
-      <c r="Z41" s="221"/>
-      <c r="AA41" s="221"/>
-      <c r="AB41" s="221"/>
-      <c r="AC41" s="221"/>
-      <c r="AD41" s="221"/>
-      <c r="AE41" s="221"/>
-      <c r="AF41" s="221"/>
-      <c r="AG41" s="221"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="224"/>
+      <c r="P41" s="224"/>
+      <c r="Q41" s="224"/>
+      <c r="R41" s="224"/>
+      <c r="S41" s="224"/>
+      <c r="T41" s="224"/>
+      <c r="U41" s="224"/>
+      <c r="V41" s="224"/>
+      <c r="W41" s="224"/>
+      <c r="X41" s="224"/>
+      <c r="Y41" s="224"/>
+      <c r="Z41" s="224"/>
+      <c r="AA41" s="224"/>
+      <c r="AB41" s="224"/>
+      <c r="AC41" s="224"/>
+      <c r="AD41" s="224"/>
+      <c r="AE41" s="224"/>
+      <c r="AF41" s="224"/>
+      <c r="AG41" s="224"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -14742,6 +14742,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14758,39 +14791,6 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14829,163 +14829,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -14996,571 +14996,635 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="273" t="s">
+      <c r="A7" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="275" t="s">
+      <c r="B7" s="251" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="267" t="s">
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="266" t="s">
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="258"/>
+      <c r="M7" s="258"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="266"/>
-      <c r="R7" s="224" t="s">
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="224"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="224"/>
-      <c r="X7" s="262" t="s">
+      <c r="S7" s="223"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="223"/>
+      <c r="V7" s="223"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="270" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="266" t="s">
+      <c r="Y7" s="271"/>
+      <c r="Z7" s="271"/>
+      <c r="AA7" s="271"/>
+      <c r="AB7" s="271"/>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="254" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="266"/>
-      <c r="AG7" s="266"/>
-      <c r="AH7" s="266"/>
-      <c r="AI7" s="266"/>
+      <c r="AE7" s="254"/>
+      <c r="AF7" s="254"/>
+      <c r="AG7" s="254"/>
+      <c r="AH7" s="254"/>
+      <c r="AI7" s="254"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="277" t="s">
+      <c r="AL7" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" s="278"/>
-      <c r="AN7" s="278"/>
-      <c r="AO7" s="278"/>
-      <c r="AP7" s="278"/>
-      <c r="AQ7" s="278"/>
-      <c r="AR7" s="278"/>
-      <c r="AS7" s="278"/>
-      <c r="AT7" s="278"/>
-      <c r="AU7" s="278"/>
-      <c r="AV7" s="278"/>
-      <c r="AW7" s="278"/>
-      <c r="AX7" s="277" t="s">
+      <c r="AM7" s="231"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="231"/>
+      <c r="AQ7" s="231"/>
+      <c r="AR7" s="231"/>
+      <c r="AS7" s="231"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="231"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="231"/>
+      <c r="AX7" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="278"/>
-      <c r="AZ7" s="278"/>
-      <c r="BA7" s="278"/>
-      <c r="BB7" s="278"/>
-      <c r="BC7" s="279" t="s">
+      <c r="AY7" s="231"/>
+      <c r="AZ7" s="231"/>
+      <c r="BA7" s="231"/>
+      <c r="BB7" s="231"/>
+      <c r="BC7" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="280"/>
-      <c r="BE7" s="280"/>
-      <c r="BF7" s="280"/>
-      <c r="BG7" s="281"/>
-      <c r="BH7" s="278" t="s">
+      <c r="BD7" s="241"/>
+      <c r="BE7" s="241"/>
+      <c r="BF7" s="241"/>
+      <c r="BG7" s="242"/>
+      <c r="BH7" s="231" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="278"/>
-      <c r="BJ7" s="278"/>
-      <c r="BK7" s="278"/>
-      <c r="BL7" s="278"/>
-      <c r="BM7" s="278"/>
-      <c r="BN7" s="278"/>
+      <c r="BI7" s="231"/>
+      <c r="BJ7" s="231"/>
+      <c r="BK7" s="231"/>
+      <c r="BL7" s="231"/>
+      <c r="BM7" s="231"/>
+      <c r="BN7" s="231"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="274"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="270"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="276" t="s">
+      <c r="A8" s="250"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261" t="s">
+      <c r="S8" s="253"/>
+      <c r="T8" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="261"/>
-      <c r="V8" s="258" t="s">
+      <c r="U8" s="253"/>
+      <c r="V8" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260" t="s">
+      <c r="W8" s="268"/>
+      <c r="X8" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="261"/>
-      <c r="Z8" s="261"/>
-      <c r="AA8" s="265" t="s">
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="273" t="s">
         <v>162</v>
       </c>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="266"/>
-      <c r="AE8" s="266"/>
-      <c r="AF8" s="266"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="266"/>
-      <c r="AI8" s="266"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="254"/>
+      <c r="AE8" s="254"/>
+      <c r="AF8" s="254"/>
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="254"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="278"/>
-      <c r="AM8" s="278"/>
-      <c r="AN8" s="278"/>
-      <c r="AO8" s="278"/>
-      <c r="AP8" s="278"/>
-      <c r="AQ8" s="278"/>
-      <c r="AR8" s="278"/>
-      <c r="AS8" s="278"/>
-      <c r="AT8" s="278"/>
-      <c r="AU8" s="278"/>
-      <c r="AV8" s="278"/>
-      <c r="AW8" s="278"/>
-      <c r="AX8" s="278"/>
-      <c r="AY8" s="278"/>
-      <c r="AZ8" s="278"/>
-      <c r="BA8" s="278"/>
-      <c r="BB8" s="278"/>
-      <c r="BC8" s="282"/>
-      <c r="BD8" s="283"/>
-      <c r="BE8" s="283"/>
-      <c r="BF8" s="283"/>
-      <c r="BG8" s="284"/>
-      <c r="BH8" s="278"/>
-      <c r="BI8" s="278"/>
-      <c r="BJ8" s="278"/>
-      <c r="BK8" s="278"/>
-      <c r="BL8" s="278"/>
-      <c r="BM8" s="278"/>
-      <c r="BN8" s="278"/>
+      <c r="AL8" s="231"/>
+      <c r="AM8" s="231"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="231"/>
+      <c r="AP8" s="231"/>
+      <c r="AQ8" s="231"/>
+      <c r="AR8" s="231"/>
+      <c r="AS8" s="231"/>
+      <c r="AT8" s="231"/>
+      <c r="AU8" s="231"/>
+      <c r="AV8" s="231"/>
+      <c r="AW8" s="231"/>
+      <c r="AX8" s="231"/>
+      <c r="AY8" s="231"/>
+      <c r="AZ8" s="231"/>
+      <c r="BA8" s="231"/>
+      <c r="BB8" s="231"/>
+      <c r="BC8" s="243"/>
+      <c r="BD8" s="244"/>
+      <c r="BE8" s="244"/>
+      <c r="BF8" s="244"/>
+      <c r="BG8" s="245"/>
+      <c r="BH8" s="231"/>
+      <c r="BI8" s="231"/>
+      <c r="BJ8" s="231"/>
+      <c r="BK8" s="231"/>
+      <c r="BL8" s="231"/>
+      <c r="BM8" s="231"/>
+      <c r="BN8" s="231"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="250" t="s">
+      <c r="B9" s="278" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="242" t="s">
+      <c r="C9" s="279"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="243"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="245" t="s">
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="247"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="248">
+      <c r="P9" s="276"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="264">
         <v>10</v>
       </c>
-      <c r="U9" s="249"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="255"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="243"/>
-      <c r="AF9" s="243"/>
-      <c r="AG9" s="243"/>
-      <c r="AH9" s="243"/>
-      <c r="AI9" s="244"/>
+      <c r="U9" s="265"/>
+      <c r="V9" s="232"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="239"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="236"/>
+      <c r="AF9" s="236"/>
+      <c r="AG9" s="236"/>
+      <c r="AH9" s="236"/>
+      <c r="AI9" s="237"/>
       <c r="AJ9" s="38"/>
-      <c r="AL9" s="285" t="s">
+      <c r="AL9" s="234" t="s">
         <v>181</v>
       </c>
-      <c r="AM9" s="136"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="136"/>
-      <c r="AR9" s="136"/>
-      <c r="AS9" s="136"/>
-      <c r="AT9" s="136"/>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="231" t="s">
+      <c r="AM9" s="180"/>
+      <c r="AN9" s="180"/>
+      <c r="AO9" s="180"/>
+      <c r="AP9" s="180"/>
+      <c r="AQ9" s="180"/>
+      <c r="AR9" s="180"/>
+      <c r="AS9" s="180"/>
+      <c r="AT9" s="180"/>
+      <c r="AU9" s="180"/>
+      <c r="AV9" s="180"/>
+      <c r="AW9" s="181"/>
+      <c r="AX9" s="246" t="s">
         <v>184</v>
       </c>
-      <c r="AY9" s="232"/>
-      <c r="AZ9" s="232"/>
-      <c r="BA9" s="232"/>
-      <c r="BB9" s="232"/>
-      <c r="BC9" s="285"/>
-      <c r="BD9" s="147"/>
-      <c r="BE9" s="147"/>
-      <c r="BF9" s="147"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="230"/>
-      <c r="BI9" s="230"/>
-      <c r="BJ9" s="230"/>
-      <c r="BK9" s="230"/>
-      <c r="BL9" s="230"/>
-      <c r="BM9" s="230"/>
-      <c r="BN9" s="230"/>
+      <c r="AY9" s="247"/>
+      <c r="AZ9" s="247"/>
+      <c r="BA9" s="247"/>
+      <c r="BB9" s="247"/>
+      <c r="BC9" s="234"/>
+      <c r="BD9" s="183"/>
+      <c r="BE9" s="183"/>
+      <c r="BF9" s="183"/>
+      <c r="BG9" s="184"/>
+      <c r="BH9" s="248"/>
+      <c r="BI9" s="248"/>
+      <c r="BJ9" s="248"/>
+      <c r="BK9" s="248"/>
+      <c r="BL9" s="248"/>
+      <c r="BM9" s="248"/>
+      <c r="BN9" s="248"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="278" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="242" t="s">
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="263" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="243"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="245" t="s">
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="247"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="237"/>
-      <c r="T10" s="248">
+      <c r="P10" s="276"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="264">
         <v>128</v>
       </c>
-      <c r="U10" s="249"/>
-      <c r="V10" s="240"/>
-      <c r="W10" s="241"/>
-      <c r="X10" s="255"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="243"/>
-      <c r="AF10" s="243"/>
-      <c r="AG10" s="243"/>
-      <c r="AH10" s="243"/>
-      <c r="AI10" s="244"/>
+      <c r="U10" s="265"/>
+      <c r="V10" s="232"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="239"/>
+      <c r="AD10" s="235"/>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="236"/>
+      <c r="AG10" s="236"/>
+      <c r="AH10" s="236"/>
+      <c r="AI10" s="237"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="285" t="s">
+      <c r="AL10" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="136"/>
-      <c r="AP10" s="136"/>
-      <c r="AQ10" s="136"/>
-      <c r="AR10" s="136"/>
-      <c r="AS10" s="136"/>
-      <c r="AT10" s="136"/>
-      <c r="AU10" s="136"/>
-      <c r="AV10" s="136"/>
-      <c r="AW10" s="137"/>
-      <c r="AX10" s="231" t="s">
+      <c r="AM10" s="180"/>
+      <c r="AN10" s="180"/>
+      <c r="AO10" s="180"/>
+      <c r="AP10" s="180"/>
+      <c r="AQ10" s="180"/>
+      <c r="AR10" s="180"/>
+      <c r="AS10" s="180"/>
+      <c r="AT10" s="180"/>
+      <c r="AU10" s="180"/>
+      <c r="AV10" s="180"/>
+      <c r="AW10" s="181"/>
+      <c r="AX10" s="246" t="s">
         <v>185</v>
       </c>
-      <c r="AY10" s="232"/>
-      <c r="AZ10" s="232"/>
-      <c r="BA10" s="232"/>
-      <c r="BB10" s="232"/>
-      <c r="BC10" s="285" t="s">
+      <c r="AY10" s="247"/>
+      <c r="AZ10" s="247"/>
+      <c r="BA10" s="247"/>
+      <c r="BB10" s="247"/>
+      <c r="BC10" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="BD10" s="147"/>
-      <c r="BE10" s="147"/>
-      <c r="BF10" s="147"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="230"/>
-      <c r="BI10" s="230"/>
-      <c r="BJ10" s="230"/>
-      <c r="BK10" s="230"/>
-      <c r="BL10" s="230"/>
-      <c r="BM10" s="230"/>
-      <c r="BN10" s="230"/>
+      <c r="BD10" s="183"/>
+      <c r="BE10" s="183"/>
+      <c r="BF10" s="183"/>
+      <c r="BG10" s="184"/>
+      <c r="BH10" s="248"/>
+      <c r="BI10" s="248"/>
+      <c r="BJ10" s="248"/>
+      <c r="BK10" s="248"/>
+      <c r="BL10" s="248"/>
+      <c r="BM10" s="248"/>
+      <c r="BN10" s="248"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="250" t="s">
+      <c r="B11" s="278" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="242" t="s">
+      <c r="C11" s="279"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="245" t="s">
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="275" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="246"/>
-      <c r="Q11" s="247"/>
-      <c r="R11" s="236"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="248">
+      <c r="P11" s="276"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="264">
         <v>2</v>
       </c>
-      <c r="U11" s="249"/>
-      <c r="V11" s="240"/>
-      <c r="W11" s="241"/>
-      <c r="X11" s="253" t="s">
+      <c r="U11" s="265"/>
+      <c r="V11" s="232"/>
+      <c r="W11" s="233"/>
+      <c r="X11" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="256"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="243"/>
-      <c r="AF11" s="243"/>
-      <c r="AG11" s="243"/>
-      <c r="AH11" s="243"/>
-      <c r="AI11" s="244"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="239"/>
+      <c r="AD11" s="235"/>
+      <c r="AE11" s="236"/>
+      <c r="AF11" s="236"/>
+      <c r="AG11" s="236"/>
+      <c r="AH11" s="236"/>
+      <c r="AI11" s="237"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="285" t="s">
+      <c r="AL11" s="234" t="s">
         <v>163</v>
       </c>
-      <c r="AM11" s="147"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="148"/>
-      <c r="AX11" s="231" t="s">
+      <c r="AM11" s="183"/>
+      <c r="AN11" s="183"/>
+      <c r="AO11" s="183"/>
+      <c r="AP11" s="183"/>
+      <c r="AQ11" s="183"/>
+      <c r="AR11" s="183"/>
+      <c r="AS11" s="183"/>
+      <c r="AT11" s="183"/>
+      <c r="AU11" s="183"/>
+      <c r="AV11" s="183"/>
+      <c r="AW11" s="184"/>
+      <c r="AX11" s="246" t="s">
         <v>186</v>
       </c>
-      <c r="AY11" s="232"/>
-      <c r="AZ11" s="232"/>
-      <c r="BA11" s="232"/>
-      <c r="BB11" s="232"/>
-      <c r="BC11" s="146"/>
-      <c r="BD11" s="147"/>
-      <c r="BE11" s="147"/>
-      <c r="BF11" s="147"/>
-      <c r="BG11" s="148"/>
-      <c r="BH11" s="230"/>
-      <c r="BI11" s="230"/>
-      <c r="BJ11" s="230"/>
-      <c r="BK11" s="230"/>
-      <c r="BL11" s="230"/>
-      <c r="BM11" s="230"/>
-      <c r="BN11" s="230"/>
+      <c r="AY11" s="247"/>
+      <c r="AZ11" s="247"/>
+      <c r="BA11" s="247"/>
+      <c r="BB11" s="247"/>
+      <c r="BC11" s="182"/>
+      <c r="BD11" s="183"/>
+      <c r="BE11" s="183"/>
+      <c r="BF11" s="183"/>
+      <c r="BG11" s="184"/>
+      <c r="BH11" s="248"/>
+      <c r="BI11" s="248"/>
+      <c r="BJ11" s="248"/>
+      <c r="BK11" s="248"/>
+      <c r="BL11" s="248"/>
+      <c r="BM11" s="248"/>
+      <c r="BN11" s="248"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="243"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="248"/>
-      <c r="U12" s="249"/>
-      <c r="V12" s="240"/>
-      <c r="W12" s="241"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="257"/>
-      <c r="AE12" s="243"/>
-      <c r="AF12" s="243"/>
-      <c r="AG12" s="243"/>
-      <c r="AH12" s="243"/>
-      <c r="AI12" s="244"/>
+      <c r="B12" s="278"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="276"/>
+      <c r="Q12" s="277"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="264"/>
+      <c r="U12" s="265"/>
+      <c r="V12" s="232"/>
+      <c r="W12" s="233"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="239"/>
+      <c r="AD12" s="235"/>
+      <c r="AE12" s="236"/>
+      <c r="AF12" s="236"/>
+      <c r="AG12" s="236"/>
+      <c r="AH12" s="236"/>
+      <c r="AI12" s="237"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="285"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="136"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="231"/>
-      <c r="AY12" s="232"/>
-      <c r="AZ12" s="232"/>
-      <c r="BA12" s="232"/>
-      <c r="BB12" s="232"/>
-      <c r="BC12" s="146"/>
-      <c r="BD12" s="147"/>
-      <c r="BE12" s="147"/>
-      <c r="BF12" s="147"/>
-      <c r="BG12" s="148"/>
-      <c r="BH12" s="230"/>
-      <c r="BI12" s="230"/>
-      <c r="BJ12" s="230"/>
-      <c r="BK12" s="230"/>
-      <c r="BL12" s="230"/>
-      <c r="BM12" s="230"/>
-      <c r="BN12" s="230"/>
+      <c r="AL12" s="234"/>
+      <c r="AM12" s="180"/>
+      <c r="AN12" s="180"/>
+      <c r="AO12" s="180"/>
+      <c r="AP12" s="180"/>
+      <c r="AQ12" s="180"/>
+      <c r="AR12" s="180"/>
+      <c r="AS12" s="180"/>
+      <c r="AT12" s="180"/>
+      <c r="AU12" s="180"/>
+      <c r="AV12" s="180"/>
+      <c r="AW12" s="181"/>
+      <c r="AX12" s="246"/>
+      <c r="AY12" s="247"/>
+      <c r="AZ12" s="247"/>
+      <c r="BA12" s="247"/>
+      <c r="BB12" s="247"/>
+      <c r="BC12" s="182"/>
+      <c r="BD12" s="183"/>
+      <c r="BE12" s="183"/>
+      <c r="BF12" s="183"/>
+      <c r="BG12" s="184"/>
+      <c r="BH12" s="248"/>
+      <c r="BI12" s="248"/>
+      <c r="BJ12" s="248"/>
+      <c r="BK12" s="248"/>
+      <c r="BL12" s="248"/>
+      <c r="BM12" s="248"/>
+      <c r="BN12" s="248"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="243"/>
-      <c r="N13" s="244"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="247"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="237"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="249"/>
-      <c r="V13" s="240"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="256"/>
-      <c r="AD13" s="242"/>
-      <c r="AE13" s="243"/>
-      <c r="AF13" s="243"/>
-      <c r="AG13" s="243"/>
-      <c r="AH13" s="243"/>
-      <c r="AI13" s="244"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="282"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="275"/>
+      <c r="P13" s="276"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="255"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="265"/>
+      <c r="V13" s="232"/>
+      <c r="W13" s="233"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="239"/>
+      <c r="AD13" s="263"/>
+      <c r="AE13" s="236"/>
+      <c r="AF13" s="236"/>
+      <c r="AG13" s="236"/>
+      <c r="AH13" s="236"/>
+      <c r="AI13" s="237"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="285"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="136"/>
-      <c r="AU13" s="136"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="231"/>
-      <c r="AY13" s="232"/>
-      <c r="AZ13" s="232"/>
-      <c r="BA13" s="232"/>
-      <c r="BB13" s="232"/>
-      <c r="BC13" s="146"/>
-      <c r="BD13" s="147"/>
-      <c r="BE13" s="147"/>
-      <c r="BF13" s="147"/>
-      <c r="BG13" s="148"/>
-      <c r="BH13" s="230"/>
-      <c r="BI13" s="230"/>
-      <c r="BJ13" s="230"/>
-      <c r="BK13" s="230"/>
-      <c r="BL13" s="230"/>
-      <c r="BM13" s="230"/>
-      <c r="BN13" s="230"/>
+      <c r="AL13" s="234"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="180"/>
+      <c r="AP13" s="180"/>
+      <c r="AQ13" s="180"/>
+      <c r="AR13" s="180"/>
+      <c r="AS13" s="180"/>
+      <c r="AT13" s="180"/>
+      <c r="AU13" s="180"/>
+      <c r="AV13" s="180"/>
+      <c r="AW13" s="181"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="247"/>
+      <c r="AZ13" s="247"/>
+      <c r="BA13" s="247"/>
+      <c r="BB13" s="247"/>
+      <c r="BC13" s="182"/>
+      <c r="BD13" s="183"/>
+      <c r="BE13" s="183"/>
+      <c r="BF13" s="183"/>
+      <c r="BG13" s="184"/>
+      <c r="BH13" s="248"/>
+      <c r="BI13" s="248"/>
+      <c r="BJ13" s="248"/>
+      <c r="BK13" s="248"/>
+      <c r="BL13" s="248"/>
+      <c r="BM13" s="248"/>
+      <c r="BN13" s="248"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
     <mergeCell ref="AX7:BB8"/>
     <mergeCell ref="BH7:BN8"/>
     <mergeCell ref="AA12:AC12"/>
@@ -15577,79 +15641,15 @@
     <mergeCell ref="AL13:AW13"/>
     <mergeCell ref="BH9:BN9"/>
     <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15686,157 +15686,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -15849,49 +15849,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="275" t="s">
+      <c r="K8" s="298"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="298"/>
+      <c r="X8" s="299"/>
+      <c r="Y8" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="275"/>
-      <c r="AH8" s="275"/>
-      <c r="AI8" s="275"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15900,45 +15900,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="275" t="s">
+      <c r="A9" s="223"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
+      <c r="S9" s="301"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275" t="s">
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="251"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15979,16 +15979,16 @@
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
       <c r="J10" s="288" t="s">
         <v>64</v>
       </c>
@@ -16057,16 +16057,16 @@
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="295" t="s">
+      <c r="B11" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
       <c r="J11" s="288" t="s">
         <v>66</v>
       </c>
@@ -16135,16 +16135,16 @@
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="296" t="s">
+      <c r="B12" s="293" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
       <c r="J12" s="288" t="s">
         <v>66</v>
       </c>
@@ -16213,16 +16213,16 @@
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="294" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="299"/>
+      <c r="C13" s="295"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="295"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="296"/>
       <c r="J13" s="288" t="s">
         <v>67</v>
       </c>
@@ -16291,17 +16291,17 @@
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="296" t="s">
+      <c r="B14" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="302" t="s">
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="287" t="s">
         <v>170</v>
       </c>
       <c r="K14" s="288"/>
@@ -16369,17 +16369,17 @@
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="296" t="s">
+      <c r="B15" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="302" t="s">
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="287" t="s">
         <v>174</v>
       </c>
       <c r="K15" s="288"/>
@@ -16447,33 +16447,33 @@
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="295" t="s">
+      <c r="B16" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="300" t="s">
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="301"/>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="301"/>
-      <c r="P16" s="301"/>
-      <c r="Q16" s="301"/>
-      <c r="R16" s="301"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="301"/>
-      <c r="X16" s="301"/>
+      <c r="K16" s="292"/>
+      <c r="L16" s="292"/>
+      <c r="M16" s="292"/>
+      <c r="N16" s="292"/>
+      <c r="O16" s="292"/>
+      <c r="P16" s="292"/>
+      <c r="Q16" s="292"/>
+      <c r="R16" s="292"/>
+      <c r="S16" s="292"/>
+      <c r="T16" s="292"/>
+      <c r="U16" s="292"/>
+      <c r="V16" s="292"/>
+      <c r="W16" s="292"/>
+      <c r="X16" s="292"/>
       <c r="Y16" s="286"/>
       <c r="Z16" s="286"/>
       <c r="AA16" s="286"/>
@@ -16525,33 +16525,33 @@
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="295" t="s">
+      <c r="B17" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="301" t="s">
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="292" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="292"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="292"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="292"/>
+      <c r="Q17" s="292"/>
+      <c r="R17" s="292"/>
+      <c r="S17" s="292"/>
+      <c r="T17" s="292"/>
+      <c r="U17" s="292"/>
+      <c r="V17" s="292"/>
+      <c r="W17" s="292"/>
+      <c r="X17" s="292"/>
       <c r="Y17" s="286"/>
       <c r="Z17" s="286"/>
       <c r="AA17" s="286"/>
@@ -16603,33 +16603,33 @@
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="295" t="s">
+      <c r="B18" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="287"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="287"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="300" t="s">
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="291" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="301"/>
-      <c r="L18" s="301"/>
-      <c r="M18" s="301"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="301"/>
-      <c r="Q18" s="301"/>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="301"/>
-      <c r="X18" s="301"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="O18" s="292"/>
+      <c r="P18" s="292"/>
+      <c r="Q18" s="292"/>
+      <c r="R18" s="292"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="292"/>
+      <c r="V18" s="292"/>
+      <c r="W18" s="292"/>
+      <c r="X18" s="292"/>
       <c r="Y18" s="286"/>
       <c r="Z18" s="286"/>
       <c r="AA18" s="286"/>
@@ -17239,6 +17239,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17255,49 +17298,6 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17327,157 +17327,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="202" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="212" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="138" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="140" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="141"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="195"/>
+      <c r="AE1" s="195"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="209">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="210"/>
+      <c r="AI1" s="211"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="138" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="210"/>
+      <c r="AI2" s="211"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="197" t="str">
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="209" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="AH3" s="210"/>
+      <c r="AI3" s="211"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17490,49 +17490,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="289" t="s">
+      <c r="B8" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="290"/>
-      <c r="D8" s="290"/>
-      <c r="E8" s="290"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="289" t="s">
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="275" t="s">
+      <c r="K8" s="298"/>
+      <c r="L8" s="298"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="298"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="298"/>
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="298"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="298"/>
+      <c r="X8" s="299"/>
+      <c r="Y8" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="275"/>
-      <c r="AG8" s="275"/>
-      <c r="AH8" s="275"/>
-      <c r="AI8" s="275"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17570,45 +17570,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="224"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="293"/>
-      <c r="R9" s="293"/>
-      <c r="S9" s="293"/>
-      <c r="T9" s="293"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="275" t="s">
+      <c r="A9" s="223"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
+      <c r="S9" s="301"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275" t="s">
+      <c r="Z9" s="251"/>
+      <c r="AA9" s="251"/>
+      <c r="AB9" s="251"/>
+      <c r="AC9" s="251" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
+      <c r="AD9" s="251"/>
+      <c r="AE9" s="251"/>
+      <c r="AF9" s="251"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="251"/>
+      <c r="AI9" s="251"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="87"/>
-      <c r="B10" s="302"/>
+      <c r="B10" s="287"/>
       <c r="C10" s="288"/>
       <c r="D10" s="288"/>
       <c r="E10" s="288"/>
@@ -17655,21 +17655,21 @@
       <c r="G10" s="288"/>
       <c r="H10" s="288"/>
       <c r="I10" s="288"/>
-      <c r="J10" s="300"/>
-      <c r="K10" s="301"/>
-      <c r="L10" s="301"/>
-      <c r="M10" s="301"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="301"/>
-      <c r="X10" s="301"/>
+      <c r="J10" s="291"/>
+      <c r="K10" s="292"/>
+      <c r="L10" s="292"/>
+      <c r="M10" s="292"/>
+      <c r="N10" s="292"/>
+      <c r="O10" s="292"/>
+      <c r="P10" s="292"/>
+      <c r="Q10" s="292"/>
+      <c r="R10" s="292"/>
+      <c r="S10" s="292"/>
+      <c r="T10" s="292"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="292"/>
+      <c r="W10" s="292"/>
+      <c r="X10" s="292"/>
       <c r="Y10" s="286"/>
       <c r="Z10" s="286"/>
       <c r="AA10" s="286"/>
@@ -17936,13 +17936,13 @@
     <row r="14" spans="1:70">
       <c r="A14" s="87"/>
       <c r="B14" s="303"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
       <c r="J14" s="288"/>
       <c r="K14" s="288"/>
       <c r="L14" s="288"/>
@@ -18007,14 +18007,14 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="87"/>
-      <c r="B15" s="297"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="299"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="295"/>
+      <c r="I15" s="296"/>
       <c r="J15" s="288"/>
       <c r="K15" s="288"/>
       <c r="L15" s="288"/>
@@ -18080,13 +18080,13 @@
     <row r="16" spans="1:70">
       <c r="A16" s="87"/>
       <c r="B16" s="303"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="288"/>
       <c r="K16" s="288"/>
       <c r="L16" s="288"/>
@@ -18367,7 +18367,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="87"/>
-      <c r="B20" s="301"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="288"/>
       <c r="D20" s="288"/>
       <c r="E20" s="288"/>
@@ -18404,7 +18404,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="87"/>
-      <c r="B21" s="301"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="288"/>
       <c r="D21" s="288"/>
       <c r="E21" s="288"/>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="87"/>
-      <c r="B22" s="301"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
       <c r="E22" s="288"/>
@@ -18486,21 +18486,21 @@
       <c r="G23" s="288"/>
       <c r="H23" s="288"/>
       <c r="I23" s="288"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="292"/>
+      <c r="R23" s="292"/>
+      <c r="S23" s="292"/>
+      <c r="T23" s="292"/>
+      <c r="U23" s="292"/>
+      <c r="V23" s="292"/>
+      <c r="W23" s="292"/>
+      <c r="X23" s="292"/>
       <c r="Y23" s="286"/>
       <c r="Z23" s="286"/>
       <c r="AA23" s="286"/>
@@ -18523,21 +18523,21 @@
       <c r="G24" s="288"/>
       <c r="H24" s="288"/>
       <c r="I24" s="288"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="292"/>
+      <c r="O24" s="292"/>
+      <c r="P24" s="292"/>
+      <c r="Q24" s="292"/>
+      <c r="R24" s="292"/>
+      <c r="S24" s="292"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="292"/>
+      <c r="V24" s="292"/>
+      <c r="W24" s="292"/>
+      <c r="X24" s="292"/>
       <c r="Y24" s="286"/>
       <c r="Z24" s="286"/>
       <c r="AA24" s="286"/>
@@ -18560,21 +18560,21 @@
       <c r="G25" s="288"/>
       <c r="H25" s="288"/>
       <c r="I25" s="288"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="292"/>
+      <c r="Q25" s="292"/>
+      <c r="R25" s="292"/>
+      <c r="S25" s="292"/>
+      <c r="T25" s="292"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="292"/>
       <c r="Y25" s="286"/>
       <c r="Z25" s="286"/>
       <c r="AA25" s="286"/>
@@ -18589,12 +18589,71 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="B15:I15"/>
@@ -18611,71 +18670,12 @@
     <mergeCell ref="AC12:AI12"/>
     <mergeCell ref="AC13:AI13"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -36,226 +36,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ドメインの名称。
-データ型が「コード」の場合はコード名称と一致させること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-ドメインの概要を記載する。
-ツールを使う場合、ドメインクラスのメンバに付与するJavaDocとして読み込むので、形式に注意すること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-ドメインがとりうるデータ側をプルダウンから選択する。
-ツールを使う場合、ドメインクラスのメンバに付与するドメインを決定するために読み込む。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">【ドメインクラス生成ツール読み込み対象】
-&lt;データ型が数値の場合&gt;
-数値の桁数を記載する。
-※単純に桁数で表現できない場合（例えば1や120といった値）は「最小」列「最大」列を記載せず、「その他の定義」列に仕様を記載し、「追加アノテーション」列にアノテーションの定義を記載すること。
-&lt;データ型が文字列（半角英数など）の場合&gt;
-文字列の桁数を記載する。
-&lt;データ型が数値と文字列以外の場合&gt;
-記載不要
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-ドメインで取りうる値をNablarchのコード管理機能で指定する場合に記述する。
-コード管理機能についてはNablarch公開ドキュメントの「7.13. コード管理」参照</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>「No.」列～「コード」列までで仕様を定義できない場合に記載する。
-例）
-・日付の書式（データ型として日付を指定しているが具体的な書式はここで定義する）
-・番号の体系（データ型に半角英数を指定しているが具体的な書式はここで定義する）
-・最小値と最大値</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ドメインで取りうる値をチェックするためのバリデーションを指定する。
-複数指定する場合はセル内改行(Alt+Enter)をいれて記載する。
-「2.1. Nablarch標準提供バリデーション」シート、
-「2.2. 本システム固有のバリデーション」シートで定義したバリデーション名を指定する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-ドメインクラスのメンバ変数として読み込む。
-そのためJavaの命名規約を意識しないと生成されたドメインクラスでコンパイルエラーになるので気を付けること。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-データ型で「数値(小数)」「数値(整数)」「コード」以外を選択している場合に、
-値の書式をバリデーションするときは、ここで書式を指定する。
-Nablarchのシステム許容文字のバリデーション機能のアノテーションとして読み込む。
-記載する値は、コンポーネント定義に許容文字のセットとして定義した値から選択する。
-詳細はNablarch公開ドキュメントの「7.10.1.3.5. 文字種バリデーションを行う」参照。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BH7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>【ドメインクラス生成ツール読み込み対象】
-ドメインクラス生成ツールを使用する場合、
-使用頻度の高い下記５つのアノテーションについてカバーしている。
-・NumberRange 「数値（整数）」　（※１）
-・DecimalRange 「数値（小数）」　（※１）
-・Length 「長さ」
-・SystemChar 「システム許容文字」
-・CodeValue「コード値」
-（※１）「桁数」列で指定した最小・最大に準ずる。
-例えば最小が1桁、最大が4桁と指定されている場合は@NumberRange(min = 0, max = 9999)というアノテーションが付けられる。
-単純に桁数で表現できない場合（例えばmin = 1, max = 120など）はカバーしていないので追加アノテーションを指定する必要がある。
-上記以外のアノテーションをドメインクラスのメンバに指定する場合は、
-追加アノテーション列に記載する。
-例）
-・1を最小値とする整数の場合　「@NumberRange(min = 1)」
-・1000を最大値とする小数の場合「@DecimalRange(max="1000")」
-・プロジェクト独自のアノテーションを付ける場合「@ProjectOriginalAnnotation()」</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>扱うデータ型が数値（小数）の場合の時のみ、入力すること。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="188">
   <si>
@@ -2125,7 +1905,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2366,13 +2146,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2405,13 +2178,6 @@
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3152,12 +2918,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="304">
@@ -3265,14 +3031,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3285,39 +3051,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3332,19 +3098,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -3440,15 +3206,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3488,15 +3383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3506,135 +3392,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3662,41 +3464,26 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3704,26 +3491,173 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3733,34 +3667,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3785,181 +3691,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3984,6 +3726,30 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9701,57 +9467,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="150" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="185" t="s">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="145"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -9759,53 +9525,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="150" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="151" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="143" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="145"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -9813,43 +9579,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="145"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -9988,52 +9754,52 @@
       <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="166"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="157" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="157" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="157" t="s">
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="165"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
@@ -10044,52 +9810,52 @@
       <c r="A8" s="92">
         <v>1</v>
       </c>
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162">
+      <c r="C8" s="168"/>
+      <c r="D8" s="169">
         <v>43718</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="160" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="170" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="166" t="s">
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="168"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
@@ -10098,40 +9864,40 @@
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="183"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="180"/>
-      <c r="AH9" s="180"/>
-      <c r="AI9" s="181"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
@@ -10140,40 +9906,40 @@
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="183"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="180"/>
-      <c r="AH10" s="180"/>
-      <c r="AI10" s="181"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
@@ -10182,40 +9948,40 @@
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="92"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="183"/>
-      <c r="Z11" s="183"/>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="181"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -10224,40 +9990,40 @@
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="92"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="180"/>
-      <c r="AH12" s="180"/>
-      <c r="AI12" s="181"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
@@ -10266,40 +10032,40 @@
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="92"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="183"/>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="183"/>
-      <c r="Z13" s="183"/>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="180"/>
-      <c r="AH13" s="180"/>
-      <c r="AI13" s="181"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
@@ -10308,40 +10074,40 @@
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="92"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="183"/>
-      <c r="Z14" s="183"/>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="180"/>
-      <c r="AI14" s="181"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -10350,40 +10116,40 @@
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="92"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="183"/>
-      <c r="Z15" s="183"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="180"/>
-      <c r="AH15" s="180"/>
-      <c r="AI15" s="181"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -10392,40 +10158,40 @@
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="183"/>
-      <c r="W16" s="183"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="183"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="183"/>
-      <c r="AC16" s="183"/>
-      <c r="AD16" s="183"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="181"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
@@ -10434,40 +10200,40 @@
     </row>
     <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="92"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="183"/>
-      <c r="W17" s="183"/>
-      <c r="X17" s="183"/>
-      <c r="Y17" s="183"/>
-      <c r="Z17" s="183"/>
-      <c r="AA17" s="183"/>
-      <c r="AB17" s="183"/>
-      <c r="AC17" s="183"/>
-      <c r="AD17" s="183"/>
-      <c r="AE17" s="184"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="180"/>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="181"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
@@ -10476,40 +10242,40 @@
     </row>
     <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="92"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
-      <c r="U18" s="183"/>
-      <c r="V18" s="183"/>
-      <c r="W18" s="183"/>
-      <c r="X18" s="183"/>
-      <c r="Y18" s="183"/>
-      <c r="Z18" s="183"/>
-      <c r="AA18" s="183"/>
-      <c r="AB18" s="183"/>
-      <c r="AC18" s="183"/>
-      <c r="AD18" s="183"/>
-      <c r="AE18" s="184"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="181"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
@@ -10518,40 +10284,40 @@
     </row>
     <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="92"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="184"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="180"/>
-      <c r="AH19" s="180"/>
-      <c r="AI19" s="181"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
@@ -10560,40 +10326,40 @@
     </row>
     <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="92"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="183"/>
-      <c r="Z20" s="183"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="181"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
@@ -10602,40 +10368,40 @@
     </row>
     <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="92"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="184"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="180"/>
-      <c r="AH21" s="180"/>
-      <c r="AI21" s="181"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
@@ -10644,40 +10410,40 @@
     </row>
     <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="92"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="184"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="180"/>
-      <c r="AI22" s="181"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
@@ -10686,40 +10452,40 @@
     </row>
     <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="92"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="184"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="180"/>
-      <c r="AH23" s="180"/>
-      <c r="AI23" s="181"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
@@ -10728,40 +10494,40 @@
     </row>
     <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="92"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="183"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="180"/>
-      <c r="AH24" s="180"/>
-      <c r="AI24" s="181"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
@@ -10770,40 +10536,40 @@
     </row>
     <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="92"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="184"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="181"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
@@ -10812,40 +10578,40 @@
     </row>
     <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="92"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="183"/>
-      <c r="W26" s="183"/>
-      <c r="X26" s="183"/>
-      <c r="Y26" s="183"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="183"/>
-      <c r="AB26" s="183"/>
-      <c r="AC26" s="183"/>
-      <c r="AD26" s="183"/>
-      <c r="AE26" s="184"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="181"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
@@ -10854,40 +10620,40 @@
     </row>
     <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="92"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="181"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
@@ -10896,40 +10662,40 @@
     </row>
     <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="92"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="183"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="180"/>
-      <c r="AH28" s="180"/>
-      <c r="AI28" s="181"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
@@ -10938,40 +10704,40 @@
     </row>
     <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="92"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
-      <c r="AC29" s="183"/>
-      <c r="AD29" s="183"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="180"/>
-      <c r="AH29" s="180"/>
-      <c r="AI29" s="181"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
@@ -10980,40 +10746,40 @@
     </row>
     <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="92"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="180"/>
-      <c r="AH30" s="180"/>
-      <c r="AI30" s="181"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
@@ -11022,40 +10788,40 @@
     </row>
     <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="92"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="183"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
-      <c r="AD31" s="183"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="180"/>
-      <c r="AI31" s="181"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
@@ -11064,40 +10830,40 @@
     </row>
     <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="92"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183"/>
-      <c r="U32" s="183"/>
-      <c r="V32" s="183"/>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-      <c r="Z32" s="183"/>
-      <c r="AA32" s="183"/>
-      <c r="AB32" s="183"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="183"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="180"/>
-      <c r="AH32" s="180"/>
-      <c r="AI32" s="181"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -11106,40 +10872,40 @@
     </row>
     <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="92"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="183"/>
-      <c r="AB33" s="183"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="183"/>
-      <c r="AE33" s="184"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="180"/>
-      <c r="AI33" s="181"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
@@ -11232,6 +10998,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11256,161 +11177,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11565,157 +11331,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="11.25">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -13015,12 +12781,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13032,6 +12792,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13060,157 +12826,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:35">
       <c r="B5" s="40"/>
@@ -13241,146 +13007,146 @@
       </c>
     </row>
     <row r="17" spans="3:33">
-      <c r="D17" s="223" t="s">
+      <c r="D17" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223" t="s">
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="223"/>
-      <c r="Z17" s="223"/>
-      <c r="AA17" s="223"/>
-      <c r="AB17" s="223"/>
-      <c r="AC17" s="223"/>
-      <c r="AD17" s="223"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="223"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="224"/>
+      <c r="AC17" s="224"/>
+      <c r="AD17" s="224"/>
+      <c r="AE17" s="224"/>
+      <c r="AF17" s="224"/>
+      <c r="AG17" s="224"/>
     </row>
     <row r="18" spans="3:33">
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224" t="s">
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
-      <c r="X18" s="224"/>
-      <c r="Y18" s="224"/>
-      <c r="Z18" s="224"/>
-      <c r="AA18" s="224"/>
-      <c r="AB18" s="224"/>
-      <c r="AC18" s="224"/>
-      <c r="AD18" s="224"/>
-      <c r="AE18" s="224"/>
-      <c r="AF18" s="224"/>
-      <c r="AG18" s="224"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="221"/>
+      <c r="AG18" s="221"/>
     </row>
     <row r="19" spans="3:33">
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="222" t="s">
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="229" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="221"/>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="221"/>
-      <c r="AF19" s="221"/>
-      <c r="AG19" s="221"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="228"/>
+      <c r="R19" s="228"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="228"/>
+      <c r="U19" s="228"/>
+      <c r="V19" s="228"/>
+      <c r="W19" s="228"/>
+      <c r="X19" s="228"/>
+      <c r="Y19" s="228"/>
+      <c r="Z19" s="228"/>
+      <c r="AA19" s="228"/>
+      <c r="AB19" s="228"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="228"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228"/>
     </row>
     <row r="20" spans="3:33">
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="226" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="225"/>
-      <c r="T20" s="225"/>
-      <c r="U20" s="225"/>
-      <c r="V20" s="225"/>
-      <c r="W20" s="225"/>
-      <c r="X20" s="225"/>
-      <c r="Y20" s="225"/>
-      <c r="Z20" s="225"/>
-      <c r="AA20" s="225"/>
-      <c r="AB20" s="225"/>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="225"/>
-      <c r="AE20" s="225"/>
-      <c r="AF20" s="225"/>
-      <c r="AG20" s="225"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="226"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="226"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="226"/>
+      <c r="U20" s="226"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="226"/>
+      <c r="X20" s="226"/>
+      <c r="Y20" s="226"/>
+      <c r="Z20" s="226"/>
+      <c r="AA20" s="226"/>
+      <c r="AB20" s="226"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="226"/>
+      <c r="AE20" s="226"/>
+      <c r="AF20" s="226"/>
+      <c r="AG20" s="226"/>
     </row>
     <row r="22" spans="3:33">
       <c r="C22" s="40" t="s">
@@ -13388,148 +13154,148 @@
       </c>
     </row>
     <row r="24" spans="3:33">
-      <c r="D24" s="223" t="s">
+      <c r="D24" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223" t="s">
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="223"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="223"/>
-      <c r="AB24" s="223"/>
-      <c r="AC24" s="223"/>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="223"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
+      <c r="U24" s="224"/>
+      <c r="V24" s="224"/>
+      <c r="W24" s="224"/>
+      <c r="X24" s="224"/>
+      <c r="Y24" s="224"/>
+      <c r="Z24" s="224"/>
+      <c r="AA24" s="224"/>
+      <c r="AB24" s="224"/>
+      <c r="AC24" s="224"/>
+      <c r="AD24" s="224"/>
+      <c r="AE24" s="224"/>
+      <c r="AF24" s="224"/>
+      <c r="AG24" s="224"/>
     </row>
     <row r="25" spans="3:33">
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="224" t="s">
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="224"/>
-      <c r="AB25" s="224"/>
-      <c r="AC25" s="224"/>
-      <c r="AD25" s="224"/>
-      <c r="AE25" s="224"/>
-      <c r="AF25" s="224"/>
-      <c r="AG25" s="224"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="221"/>
+      <c r="AG25" s="221"/>
     </row>
     <row r="26" spans="3:33">
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="221" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224" t="s">
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
-      <c r="AB26" s="224"/>
-      <c r="AC26" s="224"/>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="224"/>
-      <c r="AF26" s="224"/>
-      <c r="AG26" s="224"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
+      <c r="O26" s="221"/>
+      <c r="P26" s="221"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="221"/>
+      <c r="AG26" s="221"/>
     </row>
     <row r="27" spans="3:33">
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224" t="s">
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="224"/>
-      <c r="AB27" s="224"/>
-      <c r="AC27" s="224"/>
-      <c r="AD27" s="224"/>
-      <c r="AE27" s="224"/>
-      <c r="AF27" s="224"/>
-      <c r="AG27" s="224"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="221"/>
+      <c r="AG27" s="221"/>
     </row>
     <row r="29" spans="3:33">
       <c r="C29" s="40" t="s">
@@ -13537,216 +13303,216 @@
       </c>
     </row>
     <row r="31" spans="3:33">
-      <c r="D31" s="223" t="s">
+      <c r="D31" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223" t="s">
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="223"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="223"/>
-      <c r="S31" s="223"/>
-      <c r="T31" s="223"/>
-      <c r="U31" s="223"/>
-      <c r="V31" s="223"/>
-      <c r="W31" s="223"/>
-      <c r="X31" s="223"/>
-      <c r="Y31" s="223"/>
-      <c r="Z31" s="223"/>
-      <c r="AA31" s="223"/>
-      <c r="AB31" s="223"/>
-      <c r="AC31" s="223"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="223"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="224"/>
+      <c r="Q31" s="224"/>
+      <c r="R31" s="224"/>
+      <c r="S31" s="224"/>
+      <c r="T31" s="224"/>
+      <c r="U31" s="224"/>
+      <c r="V31" s="224"/>
+      <c r="W31" s="224"/>
+      <c r="X31" s="224"/>
+      <c r="Y31" s="224"/>
+      <c r="Z31" s="224"/>
+      <c r="AA31" s="224"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="224"/>
+      <c r="AD31" s="224"/>
+      <c r="AE31" s="224"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="224"/>
     </row>
     <row r="32" spans="3:33">
-      <c r="D32" s="227" t="s">
+      <c r="D32" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227" t="s">
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="227"/>
-      <c r="AF32" s="227"/>
-      <c r="AG32" s="227"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="225"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="225"/>
+      <c r="T32" s="225"/>
+      <c r="U32" s="225"/>
+      <c r="V32" s="225"/>
+      <c r="W32" s="225"/>
+      <c r="X32" s="225"/>
+      <c r="Y32" s="225"/>
+      <c r="Z32" s="225"/>
+      <c r="AA32" s="225"/>
+      <c r="AB32" s="225"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="225"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="228" t="s">
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="222" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
+      <c r="L33" s="222"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222"/>
+      <c r="O33" s="222"/>
+      <c r="P33" s="222"/>
+      <c r="Q33" s="222"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="222"/>
+      <c r="AG33" s="222"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="D34" s="227" t="s">
+      <c r="D34" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227" t="s">
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="227"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="227"/>
-      <c r="R34" s="227"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="227"/>
-      <c r="U34" s="227"/>
-      <c r="V34" s="227"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="227"/>
-      <c r="AA34" s="227"/>
-      <c r="AB34" s="227"/>
-      <c r="AC34" s="227"/>
-      <c r="AD34" s="227"/>
-      <c r="AE34" s="227"/>
-      <c r="AF34" s="227"/>
-      <c r="AG34" s="227"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
+      <c r="Q34" s="225"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="225"/>
+      <c r="T34" s="225"/>
+      <c r="U34" s="225"/>
+      <c r="V34" s="225"/>
+      <c r="W34" s="225"/>
+      <c r="X34" s="225"/>
+      <c r="Y34" s="225"/>
+      <c r="Z34" s="225"/>
+      <c r="AA34" s="225"/>
+      <c r="AB34" s="225"/>
+      <c r="AC34" s="225"/>
+      <c r="AD34" s="225"/>
+      <c r="AE34" s="225"/>
+      <c r="AF34" s="225"/>
+      <c r="AG34" s="225"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="228" t="s">
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="222"/>
+      <c r="J35" s="222"/>
+      <c r="K35" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
-      <c r="O35" s="228"/>
-      <c r="P35" s="228"/>
-      <c r="Q35" s="228"/>
-      <c r="R35" s="228"/>
-      <c r="S35" s="228"/>
-      <c r="T35" s="228"/>
-      <c r="U35" s="228"/>
-      <c r="V35" s="228"/>
-      <c r="W35" s="228"/>
-      <c r="X35" s="228"/>
-      <c r="Y35" s="228"/>
-      <c r="Z35" s="228"/>
-      <c r="AA35" s="228"/>
-      <c r="AB35" s="228"/>
-      <c r="AC35" s="228"/>
-      <c r="AD35" s="228"/>
-      <c r="AE35" s="228"/>
-      <c r="AF35" s="228"/>
-      <c r="AG35" s="228"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
+      <c r="N35" s="222"/>
+      <c r="O35" s="222"/>
+      <c r="P35" s="222"/>
+      <c r="Q35" s="222"/>
+      <c r="R35" s="222"/>
+      <c r="S35" s="222"/>
+      <c r="T35" s="222"/>
+      <c r="U35" s="222"/>
+      <c r="V35" s="222"/>
+      <c r="W35" s="222"/>
+      <c r="X35" s="222"/>
+      <c r="Y35" s="222"/>
+      <c r="Z35" s="222"/>
+      <c r="AA35" s="222"/>
+      <c r="AB35" s="222"/>
+      <c r="AC35" s="222"/>
+      <c r="AD35" s="222"/>
+      <c r="AE35" s="222"/>
+      <c r="AF35" s="222"/>
+      <c r="AG35" s="222"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1">
-      <c r="D36" s="229" t="s">
+      <c r="D36" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="229"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="229" t="s">
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="229"/>
-      <c r="O36" s="229"/>
-      <c r="P36" s="229"/>
-      <c r="Q36" s="229"/>
-      <c r="R36" s="229"/>
-      <c r="S36" s="229"/>
-      <c r="T36" s="229"/>
-      <c r="U36" s="229"/>
-      <c r="V36" s="229"/>
-      <c r="W36" s="229"/>
-      <c r="X36" s="229"/>
-      <c r="Y36" s="229"/>
-      <c r="Z36" s="229"/>
-      <c r="AA36" s="229"/>
-      <c r="AB36" s="229"/>
-      <c r="AC36" s="229"/>
-      <c r="AD36" s="229"/>
-      <c r="AE36" s="229"/>
-      <c r="AF36" s="229"/>
-      <c r="AG36" s="229"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="223"/>
+      <c r="O36" s="223"/>
+      <c r="P36" s="223"/>
+      <c r="Q36" s="223"/>
+      <c r="R36" s="223"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="223"/>
+      <c r="V36" s="223"/>
+      <c r="W36" s="223"/>
+      <c r="X36" s="223"/>
+      <c r="Y36" s="223"/>
+      <c r="Z36" s="223"/>
+      <c r="AA36" s="223"/>
+      <c r="AB36" s="223"/>
+      <c r="AC36" s="223"/>
+      <c r="AD36" s="223"/>
+      <c r="AE36" s="223"/>
+      <c r="AF36" s="223"/>
+      <c r="AG36" s="223"/>
     </row>
     <row r="37" spans="2:33">
       <c r="D37" s="93"/>
@@ -13786,76 +13552,76 @@
       </c>
     </row>
     <row r="40" spans="2:33">
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223" t="s">
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="223"/>
-      <c r="P40" s="223"/>
-      <c r="Q40" s="223"/>
-      <c r="R40" s="223"/>
-      <c r="S40" s="223"/>
-      <c r="T40" s="223"/>
-      <c r="U40" s="223"/>
-      <c r="V40" s="223"/>
-      <c r="W40" s="223"/>
-      <c r="X40" s="223"/>
-      <c r="Y40" s="223"/>
-      <c r="Z40" s="223"/>
-      <c r="AA40" s="223"/>
-      <c r="AB40" s="223"/>
-      <c r="AC40" s="223"/>
-      <c r="AD40" s="223"/>
-      <c r="AE40" s="223"/>
-      <c r="AF40" s="223"/>
-      <c r="AG40" s="223"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="224"/>
+      <c r="P40" s="224"/>
+      <c r="Q40" s="224"/>
+      <c r="R40" s="224"/>
+      <c r="S40" s="224"/>
+      <c r="T40" s="224"/>
+      <c r="U40" s="224"/>
+      <c r="V40" s="224"/>
+      <c r="W40" s="224"/>
+      <c r="X40" s="224"/>
+      <c r="Y40" s="224"/>
+      <c r="Z40" s="224"/>
+      <c r="AA40" s="224"/>
+      <c r="AB40" s="224"/>
+      <c r="AC40" s="224"/>
+      <c r="AD40" s="224"/>
+      <c r="AE40" s="224"/>
+      <c r="AF40" s="224"/>
+      <c r="AG40" s="224"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="D41" s="224" t="s">
+      <c r="D41" s="221" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="224" t="s">
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="224"/>
-      <c r="M41" s="224"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="224"/>
-      <c r="P41" s="224"/>
-      <c r="Q41" s="224"/>
-      <c r="R41" s="224"/>
-      <c r="S41" s="224"/>
-      <c r="T41" s="224"/>
-      <c r="U41" s="224"/>
-      <c r="V41" s="224"/>
-      <c r="W41" s="224"/>
-      <c r="X41" s="224"/>
-      <c r="Y41" s="224"/>
-      <c r="Z41" s="224"/>
-      <c r="AA41" s="224"/>
-      <c r="AB41" s="224"/>
-      <c r="AC41" s="224"/>
-      <c r="AD41" s="224"/>
-      <c r="AE41" s="224"/>
-      <c r="AF41" s="224"/>
-      <c r="AG41" s="224"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="221"/>
+      <c r="P41" s="221"/>
+      <c r="Q41" s="221"/>
+      <c r="R41" s="221"/>
+      <c r="S41" s="221"/>
+      <c r="T41" s="221"/>
+      <c r="U41" s="221"/>
+      <c r="V41" s="221"/>
+      <c r="W41" s="221"/>
+      <c r="X41" s="221"/>
+      <c r="Y41" s="221"/>
+      <c r="Z41" s="221"/>
+      <c r="AA41" s="221"/>
+      <c r="AB41" s="221"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
     </row>
     <row r="42" spans="2:33">
       <c r="D42" s="73"/>
@@ -14742,39 +14508,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14791,6 +14524,39 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14809,7 +14575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BN15"/>
   <sheetViews>
@@ -14829,163 +14595,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="41" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="41" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="41" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -14996,583 +14762,623 @@
       </c>
     </row>
     <row r="7" spans="1:66">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="273" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="275" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="257" t="s">
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="258"/>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="258"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="254" t="s">
+      <c r="H7" s="268"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="268"/>
+      <c r="K7" s="268"/>
+      <c r="L7" s="268"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="223" t="s">
+      <c r="P7" s="266"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="270" t="s">
+      <c r="S7" s="224"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="224"/>
+      <c r="X7" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="Y7" s="271"/>
-      <c r="Z7" s="271"/>
-      <c r="AA7" s="271"/>
-      <c r="AB7" s="271"/>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="254" t="s">
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="264"/>
+      <c r="AD7" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
-      <c r="AG7" s="254"/>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="254"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="266"/>
+      <c r="AG7" s="266"/>
+      <c r="AH7" s="266"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="88"/>
-      <c r="AL7" s="230" t="s">
+      <c r="AL7" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" s="231"/>
-      <c r="AN7" s="231"/>
-      <c r="AO7" s="231"/>
-      <c r="AP7" s="231"/>
-      <c r="AQ7" s="231"/>
-      <c r="AR7" s="231"/>
-      <c r="AS7" s="231"/>
-      <c r="AT7" s="231"/>
-      <c r="AU7" s="231"/>
-      <c r="AV7" s="231"/>
-      <c r="AW7" s="231"/>
-      <c r="AX7" s="230" t="s">
+      <c r="AM7" s="278"/>
+      <c r="AN7" s="278"/>
+      <c r="AO7" s="278"/>
+      <c r="AP7" s="278"/>
+      <c r="AQ7" s="278"/>
+      <c r="AR7" s="278"/>
+      <c r="AS7" s="278"/>
+      <c r="AT7" s="278"/>
+      <c r="AU7" s="278"/>
+      <c r="AV7" s="278"/>
+      <c r="AW7" s="278"/>
+      <c r="AX7" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="231"/>
-      <c r="AZ7" s="231"/>
-      <c r="BA7" s="231"/>
-      <c r="BB7" s="231"/>
-      <c r="BC7" s="240" t="s">
+      <c r="AY7" s="278"/>
+      <c r="AZ7" s="278"/>
+      <c r="BA7" s="278"/>
+      <c r="BB7" s="278"/>
+      <c r="BC7" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="BD7" s="241"/>
-      <c r="BE7" s="241"/>
-      <c r="BF7" s="241"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="231" t="s">
+      <c r="BD7" s="280"/>
+      <c r="BE7" s="280"/>
+      <c r="BF7" s="280"/>
+      <c r="BG7" s="281"/>
+      <c r="BH7" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="BI7" s="231"/>
-      <c r="BJ7" s="231"/>
-      <c r="BK7" s="231"/>
-      <c r="BL7" s="231"/>
-      <c r="BM7" s="231"/>
-      <c r="BN7" s="231"/>
+      <c r="BI7" s="278"/>
+      <c r="BJ7" s="278"/>
+      <c r="BK7" s="278"/>
+      <c r="BL7" s="278"/>
+      <c r="BM7" s="278"/>
+      <c r="BN7" s="278"/>
     </row>
     <row r="8" spans="1:66" s="89" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="250"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="252" t="s">
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="266"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="253"/>
-      <c r="T8" s="253" t="s">
+      <c r="S8" s="261"/>
+      <c r="T8" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="253"/>
-      <c r="V8" s="267" t="s">
+      <c r="U8" s="261"/>
+      <c r="V8" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="268"/>
-      <c r="X8" s="269" t="s">
+      <c r="W8" s="259"/>
+      <c r="X8" s="260" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" s="253"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="273" t="s">
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="265" t="s">
         <v>162</v>
       </c>
-      <c r="AB8" s="253"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="254"/>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="254"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="259"/>
+      <c r="AD8" s="266"/>
+      <c r="AE8" s="266"/>
+      <c r="AF8" s="266"/>
+      <c r="AG8" s="266"/>
+      <c r="AH8" s="266"/>
+      <c r="AI8" s="266"/>
       <c r="AJ8" s="88"/>
-      <c r="AL8" s="231"/>
-      <c r="AM8" s="231"/>
-      <c r="AN8" s="231"/>
-      <c r="AO8" s="231"/>
-      <c r="AP8" s="231"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="231"/>
-      <c r="AS8" s="231"/>
-      <c r="AT8" s="231"/>
-      <c r="AU8" s="231"/>
-      <c r="AV8" s="231"/>
-      <c r="AW8" s="231"/>
-      <c r="AX8" s="231"/>
-      <c r="AY8" s="231"/>
-      <c r="AZ8" s="231"/>
-      <c r="BA8" s="231"/>
-      <c r="BB8" s="231"/>
-      <c r="BC8" s="243"/>
-      <c r="BD8" s="244"/>
-      <c r="BE8" s="244"/>
-      <c r="BF8" s="244"/>
-      <c r="BG8" s="245"/>
-      <c r="BH8" s="231"/>
-      <c r="BI8" s="231"/>
-      <c r="BJ8" s="231"/>
-      <c r="BK8" s="231"/>
-      <c r="BL8" s="231"/>
-      <c r="BM8" s="231"/>
-      <c r="BN8" s="231"/>
+      <c r="AL8" s="278"/>
+      <c r="AM8" s="278"/>
+      <c r="AN8" s="278"/>
+      <c r="AO8" s="278"/>
+      <c r="AP8" s="278"/>
+      <c r="AQ8" s="278"/>
+      <c r="AR8" s="278"/>
+      <c r="AS8" s="278"/>
+      <c r="AT8" s="278"/>
+      <c r="AU8" s="278"/>
+      <c r="AV8" s="278"/>
+      <c r="AW8" s="278"/>
+      <c r="AX8" s="278"/>
+      <c r="AY8" s="278"/>
+      <c r="AZ8" s="278"/>
+      <c r="BA8" s="278"/>
+      <c r="BB8" s="278"/>
+      <c r="BC8" s="282"/>
+      <c r="BD8" s="283"/>
+      <c r="BE8" s="283"/>
+      <c r="BF8" s="283"/>
+      <c r="BG8" s="284"/>
+      <c r="BH8" s="278"/>
+      <c r="BI8" s="278"/>
+      <c r="BJ8" s="278"/>
+      <c r="BK8" s="278"/>
+      <c r="BL8" s="278"/>
+      <c r="BM8" s="278"/>
+      <c r="BN8" s="278"/>
     </row>
     <row r="9" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="278" t="s">
+      <c r="B9" s="238" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="279"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="263" t="s">
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="248" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="237"/>
-      <c r="O9" s="275" t="s">
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="250"/>
+      <c r="O9" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="276"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="264">
+      <c r="P9" s="236"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="233">
         <v>10</v>
       </c>
-      <c r="U9" s="265"/>
-      <c r="V9" s="232"/>
-      <c r="W9" s="233"/>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="239"/>
-      <c r="AD9" s="235"/>
-      <c r="AE9" s="236"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="236"/>
-      <c r="AH9" s="236"/>
-      <c r="AI9" s="237"/>
+      <c r="U9" s="234"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="252"/>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="254"/>
+      <c r="AB9" s="254"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="257"/>
+      <c r="AE9" s="249"/>
+      <c r="AF9" s="249"/>
+      <c r="AG9" s="249"/>
+      <c r="AH9" s="249"/>
+      <c r="AI9" s="250"/>
       <c r="AJ9" s="38"/>
-      <c r="AL9" s="234" t="s">
+      <c r="AL9" s="285" t="s">
         <v>181</v>
       </c>
-      <c r="AM9" s="180"/>
-      <c r="AN9" s="180"/>
-      <c r="AO9" s="180"/>
-      <c r="AP9" s="180"/>
-      <c r="AQ9" s="180"/>
-      <c r="AR9" s="180"/>
-      <c r="AS9" s="180"/>
-      <c r="AT9" s="180"/>
-      <c r="AU9" s="180"/>
-      <c r="AV9" s="180"/>
-      <c r="AW9" s="181"/>
-      <c r="AX9" s="246" t="s">
+      <c r="AM9" s="136"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="136"/>
+      <c r="AP9" s="136"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="136"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="AY9" s="247"/>
-      <c r="AZ9" s="247"/>
-      <c r="BA9" s="247"/>
-      <c r="BB9" s="247"/>
-      <c r="BC9" s="234"/>
-      <c r="BD9" s="183"/>
-      <c r="BE9" s="183"/>
-      <c r="BF9" s="183"/>
-      <c r="BG9" s="184"/>
-      <c r="BH9" s="248"/>
-      <c r="BI9" s="248"/>
-      <c r="BJ9" s="248"/>
-      <c r="BK9" s="248"/>
-      <c r="BL9" s="248"/>
-      <c r="BM9" s="248"/>
-      <c r="BN9" s="248"/>
+      <c r="AY9" s="232"/>
+      <c r="AZ9" s="232"/>
+      <c r="BA9" s="232"/>
+      <c r="BB9" s="232"/>
+      <c r="BC9" s="285"/>
+      <c r="BD9" s="147"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="147"/>
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="230"/>
+      <c r="BI9" s="230"/>
+      <c r="BJ9" s="230"/>
+      <c r="BK9" s="230"/>
+      <c r="BL9" s="230"/>
+      <c r="BM9" s="230"/>
+      <c r="BN9" s="230"/>
     </row>
     <row r="10" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="278" t="s">
+      <c r="B10" s="238" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="263" t="s">
+      <c r="C10" s="239"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="248" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="275" t="s">
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="249"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="276"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="264">
+      <c r="P10" s="236"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="245"/>
+      <c r="T10" s="233">
         <v>128</v>
       </c>
-      <c r="U10" s="265"/>
-      <c r="V10" s="232"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
-      <c r="AD10" s="235"/>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="236"/>
-      <c r="AH10" s="236"/>
-      <c r="AI10" s="237"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="252"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="257"/>
+      <c r="AE10" s="249"/>
+      <c r="AF10" s="249"/>
+      <c r="AG10" s="249"/>
+      <c r="AH10" s="249"/>
+      <c r="AI10" s="250"/>
       <c r="AJ10" s="39"/>
-      <c r="AL10" s="234" t="s">
+      <c r="AL10" s="285" t="s">
         <v>183</v>
       </c>
-      <c r="AM10" s="180"/>
-      <c r="AN10" s="180"/>
-      <c r="AO10" s="180"/>
-      <c r="AP10" s="180"/>
-      <c r="AQ10" s="180"/>
-      <c r="AR10" s="180"/>
-      <c r="AS10" s="180"/>
-      <c r="AT10" s="180"/>
-      <c r="AU10" s="180"/>
-      <c r="AV10" s="180"/>
-      <c r="AW10" s="181"/>
-      <c r="AX10" s="246" t="s">
+      <c r="AM10" s="136"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="136"/>
+      <c r="AP10" s="136"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="136"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="AY10" s="247"/>
-      <c r="AZ10" s="247"/>
-      <c r="BA10" s="247"/>
-      <c r="BB10" s="247"/>
-      <c r="BC10" s="234" t="s">
+      <c r="AY10" s="232"/>
+      <c r="AZ10" s="232"/>
+      <c r="BA10" s="232"/>
+      <c r="BB10" s="232"/>
+      <c r="BC10" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="BD10" s="183"/>
-      <c r="BE10" s="183"/>
-      <c r="BF10" s="183"/>
-      <c r="BG10" s="184"/>
-      <c r="BH10" s="248"/>
-      <c r="BI10" s="248"/>
-      <c r="BJ10" s="248"/>
-      <c r="BK10" s="248"/>
-      <c r="BL10" s="248"/>
-      <c r="BM10" s="248"/>
-      <c r="BN10" s="248"/>
+      <c r="BD10" s="147"/>
+      <c r="BE10" s="147"/>
+      <c r="BF10" s="147"/>
+      <c r="BG10" s="148"/>
+      <c r="BH10" s="230"/>
+      <c r="BI10" s="230"/>
+      <c r="BJ10" s="230"/>
+      <c r="BK10" s="230"/>
+      <c r="BL10" s="230"/>
+      <c r="BM10" s="230"/>
+      <c r="BN10" s="230"/>
     </row>
     <row r="11" spans="1:66" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="90">
         <v>3</v>
       </c>
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="238" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="263" t="s">
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="248" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="236"/>
-      <c r="I11" s="236"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="236"/>
-      <c r="L11" s="236"/>
-      <c r="M11" s="236"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="275" t="s">
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="249"/>
+      <c r="N11" s="250"/>
+      <c r="O11" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="264">
+      <c r="P11" s="236"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="244"/>
+      <c r="S11" s="245"/>
+      <c r="T11" s="233">
         <v>2</v>
       </c>
-      <c r="U11" s="265"/>
-      <c r="V11" s="232"/>
-      <c r="W11" s="233"/>
-      <c r="X11" s="274" t="s">
+      <c r="U11" s="234"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="252"/>
+      <c r="X11" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="239"/>
-      <c r="AD11" s="235"/>
-      <c r="AE11" s="236"/>
-      <c r="AF11" s="236"/>
-      <c r="AG11" s="236"/>
-      <c r="AH11" s="236"/>
-      <c r="AI11" s="237"/>
+      <c r="Y11" s="254"/>
+      <c r="Z11" s="254"/>
+      <c r="AA11" s="254"/>
+      <c r="AB11" s="254"/>
+      <c r="AC11" s="256"/>
+      <c r="AD11" s="257"/>
+      <c r="AE11" s="249"/>
+      <c r="AF11" s="249"/>
+      <c r="AG11" s="249"/>
+      <c r="AH11" s="249"/>
+      <c r="AI11" s="250"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="32"/>
-      <c r="AL11" s="234" t="s">
+      <c r="AL11" s="285" t="s">
         <v>163</v>
       </c>
-      <c r="AM11" s="183"/>
-      <c r="AN11" s="183"/>
-      <c r="AO11" s="183"/>
-      <c r="AP11" s="183"/>
-      <c r="AQ11" s="183"/>
-      <c r="AR11" s="183"/>
-      <c r="AS11" s="183"/>
-      <c r="AT11" s="183"/>
-      <c r="AU11" s="183"/>
-      <c r="AV11" s="183"/>
-      <c r="AW11" s="184"/>
-      <c r="AX11" s="246" t="s">
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="148"/>
+      <c r="AX11" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="AY11" s="247"/>
-      <c r="AZ11" s="247"/>
-      <c r="BA11" s="247"/>
-      <c r="BB11" s="247"/>
-      <c r="BC11" s="182"/>
-      <c r="BD11" s="183"/>
-      <c r="BE11" s="183"/>
-      <c r="BF11" s="183"/>
-      <c r="BG11" s="184"/>
-      <c r="BH11" s="248"/>
-      <c r="BI11" s="248"/>
-      <c r="BJ11" s="248"/>
-      <c r="BK11" s="248"/>
-      <c r="BL11" s="248"/>
-      <c r="BM11" s="248"/>
-      <c r="BN11" s="248"/>
+      <c r="AY11" s="232"/>
+      <c r="AZ11" s="232"/>
+      <c r="BA11" s="232"/>
+      <c r="BB11" s="232"/>
+      <c r="BC11" s="146"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="147"/>
+      <c r="BF11" s="147"/>
+      <c r="BG11" s="148"/>
+      <c r="BH11" s="230"/>
+      <c r="BI11" s="230"/>
+      <c r="BJ11" s="230"/>
+      <c r="BK11" s="230"/>
+      <c r="BL11" s="230"/>
+      <c r="BM11" s="230"/>
+      <c r="BN11" s="230"/>
     </row>
     <row r="12" spans="1:66" s="91" customFormat="1">
       <c r="A12" s="90">
         <v>4</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="280"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="277"/>
-      <c r="R12" s="284"/>
-      <c r="S12" s="285"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="265"/>
-      <c r="V12" s="232"/>
-      <c r="W12" s="233"/>
-      <c r="X12" s="266"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="239"/>
-      <c r="AD12" s="235"/>
-      <c r="AE12" s="236"/>
-      <c r="AF12" s="236"/>
-      <c r="AG12" s="236"/>
-      <c r="AH12" s="236"/>
-      <c r="AI12" s="237"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="250"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="236"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="233"/>
+      <c r="U12" s="234"/>
+      <c r="V12" s="251"/>
+      <c r="W12" s="252"/>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="254"/>
+      <c r="Z12" s="254"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="256"/>
+      <c r="AD12" s="257"/>
+      <c r="AE12" s="249"/>
+      <c r="AF12" s="249"/>
+      <c r="AG12" s="249"/>
+      <c r="AH12" s="249"/>
+      <c r="AI12" s="250"/>
       <c r="AJ12" s="38"/>
-      <c r="AL12" s="234"/>
-      <c r="AM12" s="180"/>
-      <c r="AN12" s="180"/>
-      <c r="AO12" s="180"/>
-      <c r="AP12" s="180"/>
-      <c r="AQ12" s="180"/>
-      <c r="AR12" s="180"/>
-      <c r="AS12" s="180"/>
-      <c r="AT12" s="180"/>
-      <c r="AU12" s="180"/>
-      <c r="AV12" s="180"/>
-      <c r="AW12" s="181"/>
-      <c r="AX12" s="246"/>
-      <c r="AY12" s="247"/>
-      <c r="AZ12" s="247"/>
-      <c r="BA12" s="247"/>
-      <c r="BB12" s="247"/>
-      <c r="BC12" s="182"/>
-      <c r="BD12" s="183"/>
-      <c r="BE12" s="183"/>
-      <c r="BF12" s="183"/>
-      <c r="BG12" s="184"/>
-      <c r="BH12" s="248"/>
-      <c r="BI12" s="248"/>
-      <c r="BJ12" s="248"/>
-      <c r="BK12" s="248"/>
-      <c r="BL12" s="248"/>
-      <c r="BM12" s="248"/>
-      <c r="BN12" s="248"/>
+      <c r="AL12" s="285"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="231"/>
+      <c r="AY12" s="232"/>
+      <c r="AZ12" s="232"/>
+      <c r="BA12" s="232"/>
+      <c r="BB12" s="232"/>
+      <c r="BC12" s="146"/>
+      <c r="BD12" s="147"/>
+      <c r="BE12" s="147"/>
+      <c r="BF12" s="147"/>
+      <c r="BG12" s="148"/>
+      <c r="BH12" s="230"/>
+      <c r="BI12" s="230"/>
+      <c r="BJ12" s="230"/>
+      <c r="BK12" s="230"/>
+      <c r="BL12" s="230"/>
+      <c r="BM12" s="230"/>
+      <c r="BN12" s="230"/>
     </row>
     <row r="13" spans="1:66" s="91" customFormat="1">
       <c r="A13" s="90">
         <v>5</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="275"/>
-      <c r="P13" s="276"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="255"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="264"/>
-      <c r="U13" s="265"/>
-      <c r="V13" s="232"/>
-      <c r="W13" s="233"/>
-      <c r="X13" s="266"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="239"/>
-      <c r="AD13" s="263"/>
-      <c r="AE13" s="236"/>
-      <c r="AF13" s="236"/>
-      <c r="AG13" s="236"/>
-      <c r="AH13" s="236"/>
-      <c r="AI13" s="237"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="250"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="245"/>
+      <c r="T13" s="233"/>
+      <c r="U13" s="234"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="252"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="254"/>
+      <c r="Z13" s="254"/>
+      <c r="AA13" s="254"/>
+      <c r="AB13" s="254"/>
+      <c r="AC13" s="256"/>
+      <c r="AD13" s="248"/>
+      <c r="AE13" s="249"/>
+      <c r="AF13" s="249"/>
+      <c r="AG13" s="249"/>
+      <c r="AH13" s="249"/>
+      <c r="AI13" s="250"/>
       <c r="AJ13" s="38"/>
-      <c r="AL13" s="234"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="180"/>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="180"/>
-      <c r="AT13" s="180"/>
-      <c r="AU13" s="180"/>
-      <c r="AV13" s="180"/>
-      <c r="AW13" s="181"/>
-      <c r="AX13" s="246"/>
-      <c r="AY13" s="247"/>
-      <c r="AZ13" s="247"/>
-      <c r="BA13" s="247"/>
-      <c r="BB13" s="247"/>
-      <c r="BC13" s="182"/>
-      <c r="BD13" s="183"/>
-      <c r="BE13" s="183"/>
-      <c r="BF13" s="183"/>
-      <c r="BG13" s="184"/>
-      <c r="BH13" s="248"/>
-      <c r="BI13" s="248"/>
-      <c r="BJ13" s="248"/>
-      <c r="BK13" s="248"/>
-      <c r="BL13" s="248"/>
-      <c r="BM13" s="248"/>
-      <c r="BN13" s="248"/>
+      <c r="AL13" s="285"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="231"/>
+      <c r="AY13" s="232"/>
+      <c r="AZ13" s="232"/>
+      <c r="BA13" s="232"/>
+      <c r="BB13" s="232"/>
+      <c r="BC13" s="146"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="148"/>
+      <c r="BH13" s="230"/>
+      <c r="BI13" s="230"/>
+      <c r="BJ13" s="230"/>
+      <c r="BK13" s="230"/>
+      <c r="BL13" s="230"/>
+      <c r="BM13" s="230"/>
+      <c r="BN13" s="230"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="BH10:BN10"/>
-    <mergeCell ref="BH11:BN11"/>
-    <mergeCell ref="BH12:BN12"/>
-    <mergeCell ref="BH13:BN13"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="AX7:BB8"/>
+    <mergeCell ref="BH7:BN8"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="BC7:BG8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BC11:BG11"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AL13:AW13"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="AD13:AI13"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="AA1:AB1"/>
@@ -15589,67 +15395,27 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="AX7:BB8"/>
-    <mergeCell ref="BH7:BN8"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="BC7:BG8"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AL13:AW13"/>
-    <mergeCell ref="BH9:BN9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="BH10:BN10"/>
+    <mergeCell ref="BH11:BN11"/>
+    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="BH13:BN13"/>
+    <mergeCell ref="AX10:BB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15664,7 +15430,6 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15686,157 +15451,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -15849,49 +15614,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="298"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="297" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="298"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="298"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="298"/>
-      <c r="Q8" s="298"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="298"/>
-      <c r="W8" s="298"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="251" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251"/>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="251"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="275"/>
+      <c r="AF8" s="275"/>
+      <c r="AG8" s="275"/>
+      <c r="AH8" s="275"/>
+      <c r="AI8" s="275"/>
       <c r="BM8" s="23"/>
       <c r="BN8" s="23"/>
       <c r="BO8" s="23"/>
@@ -15900,45 +15665,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="251" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="251"/>
-      <c r="AA9" s="251"/>
-      <c r="AB9" s="251"/>
-      <c r="AC9" s="251" t="s">
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="251"/>
-      <c r="AE9" s="251"/>
-      <c r="AF9" s="251"/>
-      <c r="AG9" s="251"/>
-      <c r="AH9" s="251"/>
-      <c r="AI9" s="251"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -15979,16 +15744,16 @@
       <c r="A10" s="87">
         <v>1</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
       <c r="J10" s="288" t="s">
         <v>64</v>
       </c>
@@ -16057,16 +15822,16 @@
       <c r="A11" s="87">
         <v>2</v>
       </c>
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
       <c r="J11" s="288" t="s">
         <v>66</v>
       </c>
@@ -16135,16 +15900,16 @@
       <c r="A12" s="87">
         <v>3</v>
       </c>
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
       <c r="J12" s="288" t="s">
         <v>66</v>
       </c>
@@ -16213,16 +15978,16 @@
       <c r="A13" s="87">
         <v>4</v>
       </c>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="296"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="288" t="s">
         <v>67</v>
       </c>
@@ -16291,17 +16056,17 @@
       <c r="A14" s="87">
         <v>5</v>
       </c>
-      <c r="B14" s="293" t="s">
+      <c r="B14" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="287" t="s">
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="302" t="s">
         <v>170</v>
       </c>
       <c r="K14" s="288"/>
@@ -16369,17 +16134,17 @@
       <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="296" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="287" t="s">
+      <c r="C15" s="287"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="302" t="s">
         <v>174</v>
       </c>
       <c r="K15" s="288"/>
@@ -16447,33 +16212,33 @@
       <c r="A16" s="87">
         <v>7</v>
       </c>
-      <c r="B16" s="289" t="s">
+      <c r="B16" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="291" t="s">
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="292"/>
-      <c r="L16" s="292"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="292"/>
-      <c r="O16" s="292"/>
-      <c r="P16" s="292"/>
-      <c r="Q16" s="292"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="292"/>
-      <c r="T16" s="292"/>
-      <c r="U16" s="292"/>
-      <c r="V16" s="292"/>
-      <c r="W16" s="292"/>
-      <c r="X16" s="292"/>
+      <c r="K16" s="301"/>
+      <c r="L16" s="301"/>
+      <c r="M16" s="301"/>
+      <c r="N16" s="301"/>
+      <c r="O16" s="301"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="301"/>
+      <c r="R16" s="301"/>
+      <c r="S16" s="301"/>
+      <c r="T16" s="301"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="301"/>
+      <c r="W16" s="301"/>
+      <c r="X16" s="301"/>
       <c r="Y16" s="286"/>
       <c r="Z16" s="286"/>
       <c r="AA16" s="286"/>
@@ -16525,33 +16290,33 @@
       <c r="A17" s="87">
         <v>8</v>
       </c>
-      <c r="B17" s="289" t="s">
+      <c r="B17" s="295" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="290"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="292" t="s">
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="287"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="301" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="292"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="292"/>
-      <c r="N17" s="292"/>
-      <c r="O17" s="292"/>
-      <c r="P17" s="292"/>
-      <c r="Q17" s="292"/>
-      <c r="R17" s="292"/>
-      <c r="S17" s="292"/>
-      <c r="T17" s="292"/>
-      <c r="U17" s="292"/>
-      <c r="V17" s="292"/>
-      <c r="W17" s="292"/>
-      <c r="X17" s="292"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
       <c r="Y17" s="286"/>
       <c r="Z17" s="286"/>
       <c r="AA17" s="286"/>
@@ -16603,33 +16368,33 @@
       <c r="A18" s="87">
         <v>9</v>
       </c>
-      <c r="B18" s="289" t="s">
+      <c r="B18" s="295" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="291" t="s">
+      <c r="C18" s="287"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="287"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="287"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="300" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="292"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="O18" s="292"/>
-      <c r="P18" s="292"/>
-      <c r="Q18" s="292"/>
-      <c r="R18" s="292"/>
-      <c r="S18" s="292"/>
-      <c r="T18" s="292"/>
-      <c r="U18" s="292"/>
-      <c r="V18" s="292"/>
-      <c r="W18" s="292"/>
-      <c r="X18" s="292"/>
+      <c r="K18" s="301"/>
+      <c r="L18" s="301"/>
+      <c r="M18" s="301"/>
+      <c r="N18" s="301"/>
+      <c r="O18" s="301"/>
+      <c r="P18" s="301"/>
+      <c r="Q18" s="301"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="301"/>
+      <c r="X18" s="301"/>
       <c r="Y18" s="286"/>
       <c r="Z18" s="286"/>
       <c r="AA18" s="286"/>
@@ -17239,49 +17004,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17298,6 +17020,49 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17327,157 +17092,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="20" customFormat="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="147" t="str">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="212" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="135" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="209">
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="197">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="211"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="199"/>
     </row>
     <row r="2" spans="1:70" s="20" customFormat="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="147" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="135" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="209" t="str">
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="211"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="199"/>
     </row>
     <row r="3" spans="1:70" s="20" customFormat="1">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="147" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="209" t="str">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="210"/>
-      <c r="AI3" s="211"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="199"/>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="33" t="s">
@@ -17490,49 +17255,49 @@
       </c>
     </row>
     <row r="8" spans="1:70">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="297" t="s">
+      <c r="B8" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="298"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="297" t="s">
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="298"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="298"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="298"/>
-      <c r="Q8" s="298"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="298"/>
-      <c r="W8" s="298"/>
-      <c r="X8" s="299"/>
-      <c r="Y8" s="251" t="s">
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251"/>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="251"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="275"/>
+      <c r="AF8" s="275"/>
+      <c r="AG8" s="275"/>
+      <c r="AH8" s="275"/>
+      <c r="AI8" s="275"/>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="23"/>
@@ -17570,45 +17335,45 @@
       <c r="BR8" s="23"/>
     </row>
     <row r="9" spans="1:70">
-      <c r="A9" s="223"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="302"/>
-      <c r="Y9" s="251" t="s">
+      <c r="A9" s="224"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="293"/>
+      <c r="R9" s="293"/>
+      <c r="S9" s="293"/>
+      <c r="T9" s="293"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
+      <c r="Y9" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="251"/>
-      <c r="AA9" s="251"/>
-      <c r="AB9" s="251"/>
-      <c r="AC9" s="251" t="s">
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="251"/>
-      <c r="AE9" s="251"/>
-      <c r="AF9" s="251"/>
-      <c r="AG9" s="251"/>
-      <c r="AH9" s="251"/>
-      <c r="AI9" s="251"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
@@ -17647,7 +17412,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="87"/>
-      <c r="B10" s="287"/>
+      <c r="B10" s="302"/>
       <c r="C10" s="288"/>
       <c r="D10" s="288"/>
       <c r="E10" s="288"/>
@@ -17655,21 +17420,21 @@
       <c r="G10" s="288"/>
       <c r="H10" s="288"/>
       <c r="I10" s="288"/>
-      <c r="J10" s="291"/>
-      <c r="K10" s="292"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="292"/>
-      <c r="N10" s="292"/>
-      <c r="O10" s="292"/>
-      <c r="P10" s="292"/>
-      <c r="Q10" s="292"/>
-      <c r="R10" s="292"/>
-      <c r="S10" s="292"/>
-      <c r="T10" s="292"/>
-      <c r="U10" s="292"/>
-      <c r="V10" s="292"/>
-      <c r="W10" s="292"/>
-      <c r="X10" s="292"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="301"/>
+      <c r="L10" s="301"/>
+      <c r="M10" s="301"/>
+      <c r="N10" s="301"/>
+      <c r="O10" s="301"/>
+      <c r="P10" s="301"/>
+      <c r="Q10" s="301"/>
+      <c r="R10" s="301"/>
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
       <c r="Y10" s="286"/>
       <c r="Z10" s="286"/>
       <c r="AA10" s="286"/>
@@ -17936,13 +17701,13 @@
     <row r="14" spans="1:70">
       <c r="A14" s="87"/>
       <c r="B14" s="303"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="287"/>
       <c r="J14" s="288"/>
       <c r="K14" s="288"/>
       <c r="L14" s="288"/>
@@ -18007,14 +17772,14 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="87"/>
-      <c r="B15" s="294"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="296"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="299"/>
       <c r="J15" s="288"/>
       <c r="K15" s="288"/>
       <c r="L15" s="288"/>
@@ -18080,13 +17845,13 @@
     <row r="16" spans="1:70">
       <c r="A16" s="87"/>
       <c r="B16" s="303"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
       <c r="J16" s="288"/>
       <c r="K16" s="288"/>
       <c r="L16" s="288"/>
@@ -18367,7 +18132,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="87"/>
-      <c r="B20" s="292"/>
+      <c r="B20" s="301"/>
       <c r="C20" s="288"/>
       <c r="D20" s="288"/>
       <c r="E20" s="288"/>
@@ -18404,7 +18169,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="87"/>
-      <c r="B21" s="292"/>
+      <c r="B21" s="301"/>
       <c r="C21" s="288"/>
       <c r="D21" s="288"/>
       <c r="E21" s="288"/>
@@ -18441,7 +18206,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="87"/>
-      <c r="B22" s="292"/>
+      <c r="B22" s="301"/>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
       <c r="E22" s="288"/>
@@ -18486,21 +18251,21 @@
       <c r="G23" s="288"/>
       <c r="H23" s="288"/>
       <c r="I23" s="288"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="292"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="292"/>
-      <c r="O23" s="292"/>
-      <c r="P23" s="292"/>
-      <c r="Q23" s="292"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="292"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="292"/>
-      <c r="W23" s="292"/>
-      <c r="X23" s="292"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="301"/>
+      <c r="L23" s="301"/>
+      <c r="M23" s="301"/>
+      <c r="N23" s="301"/>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+      <c r="T23" s="301"/>
+      <c r="U23" s="301"/>
+      <c r="V23" s="301"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="301"/>
       <c r="Y23" s="286"/>
       <c r="Z23" s="286"/>
       <c r="AA23" s="286"/>
@@ -18523,21 +18288,21 @@
       <c r="G24" s="288"/>
       <c r="H24" s="288"/>
       <c r="I24" s="288"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="292"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="292"/>
-      <c r="O24" s="292"/>
-      <c r="P24" s="292"/>
-      <c r="Q24" s="292"/>
-      <c r="R24" s="292"/>
-      <c r="S24" s="292"/>
-      <c r="T24" s="292"/>
-      <c r="U24" s="292"/>
-      <c r="V24" s="292"/>
-      <c r="W24" s="292"/>
-      <c r="X24" s="292"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301"/>
+      <c r="L24" s="301"/>
+      <c r="M24" s="301"/>
+      <c r="N24" s="301"/>
+      <c r="O24" s="301"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="301"/>
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+      <c r="T24" s="301"/>
+      <c r="U24" s="301"/>
+      <c r="V24" s="301"/>
+      <c r="W24" s="301"/>
+      <c r="X24" s="301"/>
       <c r="Y24" s="286"/>
       <c r="Z24" s="286"/>
       <c r="AA24" s="286"/>
@@ -18560,21 +18325,21 @@
       <c r="G25" s="288"/>
       <c r="H25" s="288"/>
       <c r="I25" s="288"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="292"/>
-      <c r="O25" s="292"/>
-      <c r="P25" s="292"/>
-      <c r="Q25" s="292"/>
-      <c r="R25" s="292"/>
-      <c r="S25" s="292"/>
-      <c r="T25" s="292"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="292"/>
-      <c r="W25" s="292"/>
-      <c r="X25" s="292"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="301"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
       <c r="Y25" s="286"/>
       <c r="Z25" s="286"/>
       <c r="AA25" s="286"/>
@@ -18589,50 +18354,33 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -18649,33 +18397,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
